--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T345"/>
+  <dimension ref="A1:T351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -11400,24 +11400,24 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="N138" t="n">
-        <v>500000</v>
+        <v>10000</v>
       </c>
       <c r="O138" t="n">
-        <v>500000</v>
+        <v>11000</v>
       </c>
       <c r="P138" t="n">
-        <v>500000</v>
+        <v>10500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1111</v>
+        <v>1050</v>
       </c>
       <c r="T138" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -11480,24 +11480,24 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="N139" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="O139" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="P139" t="n">
-        <v>300000</v>
+        <v>12500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="T139" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N140" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="O140" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="P140" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>600</v>
+        <v>956</v>
       </c>
       <c r="T140" t="n">
         <v>450</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -11640,24 +11640,24 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="N141" t="n">
-        <v>240000</v>
+        <v>8000</v>
       </c>
       <c r="O141" t="n">
-        <v>240000</v>
+        <v>9000</v>
       </c>
       <c r="P141" t="n">
-        <v>240000</v>
+        <v>8500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>533</v>
+        <v>850</v>
       </c>
       <c r="T141" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="N142" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O142" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P142" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="T142" t="n">
         <v>450</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -11804,32 +11804,32 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N143" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="O143" t="n">
-        <v>180000</v>
+        <v>7000</v>
       </c>
       <c r="P143" t="n">
-        <v>180000</v>
+        <v>6500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="T143" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="N144" t="n">
-        <v>130000</v>
+        <v>500000</v>
       </c>
       <c r="O144" t="n">
-        <v>130000</v>
+        <v>500000</v>
       </c>
       <c r="P144" t="n">
-        <v>130000</v>
+        <v>500000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11902,11 +11902,11 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>289</v>
+        <v>1111</v>
       </c>
       <c r="T144" t="n">
         <v>450</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N145" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="O145" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="P145" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T145" t="n">
         <v>450</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N146" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O146" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P146" t="n">
-        <v>315000</v>
+        <v>270000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T146" t="n">
         <v>450</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N147" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O147" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P147" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T147" t="n">
         <v>450</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -12200,36 +12200,36 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="N148" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="O148" t="n">
-        <v>8500</v>
+        <v>220000</v>
       </c>
       <c r="P148" t="n">
-        <v>8250</v>
+        <v>220000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>825</v>
+        <v>489</v>
       </c>
       <c r="T148" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -12280,36 +12280,36 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N149" t="n">
-        <v>9000</v>
+        <v>180000</v>
       </c>
       <c r="O149" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P149" t="n">
-        <v>9500</v>
+        <v>180000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="T149" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="N150" t="n">
-        <v>380000</v>
+        <v>130000</v>
       </c>
       <c r="O150" t="n">
-        <v>380000</v>
+        <v>130000</v>
       </c>
       <c r="P150" t="n">
-        <v>380000</v>
+        <v>130000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>844</v>
+        <v>289</v>
       </c>
       <c r="T150" t="n">
         <v>450</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="N151" t="n">
-        <v>6000</v>
+        <v>360000</v>
       </c>
       <c r="O151" t="n">
-        <v>7000</v>
+        <v>360000</v>
       </c>
       <c r="P151" t="n">
-        <v>6500</v>
+        <v>360000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T151" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N152" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O152" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P152" t="n">
-        <v>255000</v>
+        <v>315000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>567</v>
+        <v>700</v>
       </c>
       <c r="T152" t="n">
         <v>450</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -12604,20 +12604,20 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="N153" t="n">
-        <v>4500</v>
+        <v>270000</v>
       </c>
       <c r="O153" t="n">
-        <v>4500</v>
+        <v>270000</v>
       </c>
       <c r="P153" t="n">
-        <v>4500</v>
+        <v>270000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T153" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154">
@@ -12680,24 +12680,24 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N154" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="O154" t="n">
-        <v>210000</v>
+        <v>8500</v>
       </c>
       <c r="P154" t="n">
-        <v>210000</v>
+        <v>8250</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>467</v>
+        <v>825</v>
       </c>
       <c r="T154" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -12764,32 +12764,32 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N155" t="n">
-        <v>380000</v>
+        <v>9000</v>
       </c>
       <c r="O155" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>380000</v>
+        <v>9500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>844</v>
+        <v>950</v>
       </c>
       <c r="T155" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N156" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O156" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="P156" t="n">
-        <v>255000</v>
+        <v>380000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>567</v>
+        <v>844</v>
       </c>
       <c r="T156" t="n">
         <v>450</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -12920,24 +12920,24 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="N157" t="n">
-        <v>260000</v>
+        <v>6000</v>
       </c>
       <c r="O157" t="n">
-        <v>260000</v>
+        <v>7000</v>
       </c>
       <c r="P157" t="n">
-        <v>260000</v>
+        <v>6500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="T157" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N158" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="O158" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="P158" t="n">
-        <v>380000</v>
+        <v>255000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>844</v>
+        <v>567</v>
       </c>
       <c r="T158" t="n">
         <v>450</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -13080,24 +13080,24 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="N159" t="n">
-        <v>240000</v>
+        <v>4500</v>
       </c>
       <c r="O159" t="n">
-        <v>240000</v>
+        <v>4500</v>
       </c>
       <c r="P159" t="n">
-        <v>240000</v>
+        <v>4500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,10 +13106,10 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="T159" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N160" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="O160" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P160" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="T160" t="n">
         <v>450</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44321</v>
+        <v>44295</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="N161" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="O161" t="n">
-        <v>330000</v>
+        <v>380000</v>
       </c>
       <c r="P161" t="n">
-        <v>319655</v>
+        <v>380000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>710</v>
+        <v>844</v>
       </c>
       <c r="T161" t="n">
         <v>450</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44321</v>
+        <v>44295</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N162" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="O162" t="n">
-        <v>370000</v>
+        <v>260000</v>
       </c>
       <c r="P162" t="n">
-        <v>362000</v>
+        <v>255000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>804</v>
+        <v>567</v>
       </c>
       <c r="T162" t="n">
         <v>450</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="N163" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O163" t="n">
         <v>260000</v>
       </c>
       <c r="P163" t="n">
-        <v>256818</v>
+        <v>260000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="T163" t="n">
         <v>450</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N164" t="n">
-        <v>200000</v>
+        <v>380000</v>
       </c>
       <c r="O164" t="n">
-        <v>220000</v>
+        <v>380000</v>
       </c>
       <c r="P164" t="n">
-        <v>210000</v>
+        <v>380000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>467</v>
+        <v>844</v>
       </c>
       <c r="T164" t="n">
         <v>450</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N165" t="n">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="O165" t="n">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="P165" t="n">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>311</v>
+        <v>533</v>
       </c>
       <c r="T165" t="n">
         <v>450</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N166" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="O166" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P166" t="n">
-        <v>325000</v>
+        <v>220000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>722</v>
+        <v>489</v>
       </c>
       <c r="T166" t="n">
         <v>450</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N167" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="O167" t="n">
-        <v>380000</v>
+        <v>330000</v>
       </c>
       <c r="P167" t="n">
-        <v>380000</v>
+        <v>319655</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>844</v>
+        <v>710</v>
       </c>
       <c r="T167" t="n">
         <v>450</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N168" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O168" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="P168" t="n">
-        <v>275000</v>
+        <v>362000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>611</v>
+        <v>804</v>
       </c>
       <c r="T168" t="n">
         <v>450</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N169" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O169" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P169" t="n">
-        <v>230000</v>
+        <v>256818</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="T169" t="n">
         <v>450</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N170" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="O170" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P170" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>644</v>
+        <v>467</v>
       </c>
       <c r="T170" t="n">
         <v>450</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N171" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="O171" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="P171" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>556</v>
+        <v>311</v>
       </c>
       <c r="T171" t="n">
         <v>450</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N172" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O172" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P172" t="n">
-        <v>255000</v>
+        <v>325000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>567</v>
+        <v>722</v>
       </c>
       <c r="T172" t="n">
         <v>450</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N173" t="n">
-        <v>200000</v>
+        <v>380000</v>
       </c>
       <c r="O173" t="n">
-        <v>200000</v>
+        <v>380000</v>
       </c>
       <c r="P173" t="n">
-        <v>200000</v>
+        <v>380000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>444</v>
+        <v>844</v>
       </c>
       <c r="T173" t="n">
         <v>450</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N174" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O174" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P174" t="n">
-        <v>210000</v>
+        <v>275000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="T174" t="n">
         <v>450</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N175" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O175" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P175" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T175" t="n">
         <v>450</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>10</v>
       </c>
       <c r="N176" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="O176" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="P176" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>756</v>
+        <v>644</v>
       </c>
       <c r="T176" t="n">
         <v>450</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -14527,13 +14527,13 @@
         <v>14</v>
       </c>
       <c r="N177" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O177" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P177" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T177" t="n">
         <v>450</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N178" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O178" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P178" t="n">
-        <v>239630</v>
+        <v>255000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="T178" t="n">
         <v>450</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N179" t="n">
         <v>200000</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N180" t="n">
         <v>200000</v>
       </c>
       <c r="O180" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P180" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T180" t="n">
         <v>450</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N181" t="n">
-        <v>140000</v>
+        <v>330000</v>
       </c>
       <c r="O181" t="n">
-        <v>140000</v>
+        <v>330000</v>
       </c>
       <c r="P181" t="n">
-        <v>140000</v>
+        <v>330000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>311</v>
+        <v>733</v>
       </c>
       <c r="T181" t="n">
         <v>450</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -14920,17 +14920,17 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="O182" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="P182" t="n">
         <v>340000</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N183" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O183" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="P183" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>889</v>
+        <v>511</v>
       </c>
       <c r="T183" t="n">
         <v>450</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N184" t="n">
-        <v>245000</v>
+        <v>230000</v>
       </c>
       <c r="O184" t="n">
-        <v>265000</v>
+        <v>250000</v>
       </c>
       <c r="P184" t="n">
-        <v>255000</v>
+        <v>239630</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="T184" t="n">
         <v>450</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N185" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O185" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P185" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T185" t="n">
         <v>450</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -15240,24 +15240,24 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,10 +15266,10 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T186" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="187">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -15320,36 +15320,36 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N187" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="O187" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="P187" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1200</v>
+        <v>311</v>
       </c>
       <c r="T187" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="188">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="N188" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="O188" t="n">
-        <v>8000</v>
+        <v>350000</v>
       </c>
       <c r="P188" t="n">
-        <v>8000</v>
+        <v>340000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>800</v>
+        <v>756</v>
       </c>
       <c r="T188" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -15480,24 +15480,24 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N189" t="n">
-        <v>6000</v>
+        <v>400000</v>
       </c>
       <c r="O189" t="n">
-        <v>6000</v>
+        <v>400000</v>
       </c>
       <c r="P189" t="n">
-        <v>6000</v>
+        <v>400000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T189" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="190">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N190" t="n">
-        <v>280000</v>
+        <v>245000</v>
       </c>
       <c r="O190" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="P190" t="n">
-        <v>290000</v>
+        <v>255000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="T190" t="n">
         <v>450</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N191" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="O191" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="P191" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="T191" t="n">
         <v>450</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -15720,24 +15720,24 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N192" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O192" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P192" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>578</v>
+        <v>1000</v>
       </c>
       <c r="T192" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -15800,24 +15800,24 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N193" t="n">
-        <v>330000</v>
+        <v>12000</v>
       </c>
       <c r="O193" t="n">
-        <v>330000</v>
+        <v>12000</v>
       </c>
       <c r="P193" t="n">
-        <v>330000</v>
+        <v>12000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -15826,10 +15826,10 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T193" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -15884,20 +15884,20 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="N194" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O194" t="n">
-        <v>290000</v>
+        <v>8000</v>
       </c>
       <c r="P194" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="T194" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -15964,20 +15964,20 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="N195" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="O195" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="P195" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="T195" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N196" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O196" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P196" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T196" t="n">
         <v>450</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N197" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="O197" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P197" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="T197" t="n">
         <v>450</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N198" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O198" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P198" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T198" t="n">
         <v>450</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N199" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="O199" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="P199" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="T199" t="n">
         <v>450</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44274</v>
+        <v>44300</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N200" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O200" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P200" t="n">
-        <v>255000</v>
+        <v>280000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="T200" t="n">
         <v>450</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44274</v>
+        <v>44300</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44320</v>
+        <v>44172</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N202" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O202" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="P202" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="T202" t="n">
         <v>450</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N203" t="n">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="O203" t="n">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="P203" t="n">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>844</v>
+        <v>711</v>
       </c>
       <c r="T203" t="n">
         <v>450</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N204" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O204" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P204" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T204" t="n">
         <v>450</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N205" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="O205" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P205" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="T205" t="n">
         <v>450</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N206" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="O206" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="P206" t="n">
-        <v>355000</v>
+        <v>255000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>789</v>
+        <v>567</v>
       </c>
       <c r="T206" t="n">
         <v>450</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N207" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O207" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="P207" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>889</v>
+        <v>489</v>
       </c>
       <c r="T207" t="n">
         <v>450</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N208" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="O208" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="P208" t="n">
-        <v>315000</v>
+        <v>340000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="T208" t="n">
         <v>450</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N209" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O209" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="P209" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>556</v>
+        <v>844</v>
       </c>
       <c r="T209" t="n">
         <v>450</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -17160,36 +17160,36 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="N210" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="O210" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="P210" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T210" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -17240,36 +17240,36 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="N211" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O211" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P211" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="T211" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N212" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O212" t="n">
-        <v>230000</v>
+        <v>360000</v>
       </c>
       <c r="P212" t="n">
-        <v>225455</v>
+        <v>355000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S212" t="n">
-        <v>501</v>
+        <v>789</v>
       </c>
       <c r="T212" t="n">
         <v>450</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N213" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="O213" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="P213" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>511</v>
+        <v>889</v>
       </c>
       <c r="T213" t="n">
         <v>450</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -17480,36 +17480,36 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="N214" t="n">
-        <v>7000</v>
+        <v>300000</v>
       </c>
       <c r="O214" t="n">
-        <v>7000</v>
+        <v>330000</v>
       </c>
       <c r="P214" t="n">
-        <v>7000</v>
+        <v>315000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S214" t="n">
         <v>700</v>
       </c>
       <c r="T214" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -17567,13 +17567,13 @@
         <v>20</v>
       </c>
       <c r="N215" t="n">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="O215" t="n">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="P215" t="n">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>422</v>
+        <v>556</v>
       </c>
       <c r="T215" t="n">
         <v>450</v>
@@ -17640,36 +17640,36 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N216" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="O216" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="P216" t="n">
-        <v>190000</v>
+        <v>12000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>422</v>
+        <v>1200</v>
       </c>
       <c r="T216" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
@@ -17720,36 +17720,36 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="N217" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="O217" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="P217" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>311</v>
+        <v>1000</v>
       </c>
       <c r="T217" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -17800,36 +17800,36 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="N218" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="O218" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="P218" t="n">
-        <v>8500</v>
+        <v>225455</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>850</v>
+        <v>501</v>
       </c>
       <c r="T218" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -17884,20 +17884,20 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="N219" t="n">
-        <v>6500</v>
+        <v>230000</v>
       </c>
       <c r="O219" t="n">
-        <v>7000</v>
+        <v>230000</v>
       </c>
       <c r="P219" t="n">
-        <v>6750</v>
+        <v>230000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>675</v>
+        <v>511</v>
       </c>
       <c r="T219" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -17960,36 +17960,36 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="N220" t="n">
-        <v>240000</v>
+        <v>7000</v>
       </c>
       <c r="O220" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="P220" t="n">
-        <v>245000</v>
+        <v>7000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>544</v>
+        <v>700</v>
       </c>
       <c r="T220" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -18044,32 +18044,32 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N221" t="n">
-        <v>5000</v>
+        <v>190000</v>
       </c>
       <c r="O221" t="n">
-        <v>5000</v>
+        <v>190000</v>
       </c>
       <c r="P221" t="n">
-        <v>5000</v>
+        <v>190000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="T221" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N222" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="O222" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="P222" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="T222" t="n">
         <v>450</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44260</v>
+        <v>44364</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N223" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="O223" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="P223" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>600</v>
+        <v>311</v>
       </c>
       <c r="T223" t="n">
         <v>450</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -18280,24 +18280,24 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N224" t="n">
-        <v>240000</v>
+        <v>8000</v>
       </c>
       <c r="O224" t="n">
-        <v>240000</v>
+        <v>9000</v>
       </c>
       <c r="P224" t="n">
-        <v>240000</v>
+        <v>8500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>533</v>
+        <v>850</v>
       </c>
       <c r="T224" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -18360,24 +18360,24 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="N225" t="n">
-        <v>340000</v>
+        <v>6500</v>
       </c>
       <c r="O225" t="n">
-        <v>340000</v>
+        <v>7000</v>
       </c>
       <c r="P225" t="n">
-        <v>340000</v>
+        <v>6750</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>756</v>
+        <v>675</v>
       </c>
       <c r="T225" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N226" t="n">
-        <v>390000</v>
+        <v>240000</v>
       </c>
       <c r="O226" t="n">
-        <v>390000</v>
+        <v>250000</v>
       </c>
       <c r="P226" t="n">
-        <v>390000</v>
+        <v>245000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>867</v>
+        <v>544</v>
       </c>
       <c r="T226" t="n">
         <v>450</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -18520,24 +18520,24 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N227" t="n">
-        <v>300000</v>
+        <v>5000</v>
       </c>
       <c r="O227" t="n">
-        <v>300000</v>
+        <v>5000</v>
       </c>
       <c r="P227" t="n">
-        <v>300000</v>
+        <v>5000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T227" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N228" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="O228" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P228" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T228" t="n">
         <v>450</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44330</v>
+        <v>44260</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N229" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O229" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P229" t="n">
-        <v>255000</v>
+        <v>270000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T229" t="n">
         <v>450</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44391</v>
+        <v>44260</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N230" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O230" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P230" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T230" t="n">
         <v>450</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N231" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O231" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P231" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T231" t="n">
         <v>450</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N232" t="n">
-        <v>200000</v>
+        <v>390000</v>
       </c>
       <c r="O232" t="n">
-        <v>200000</v>
+        <v>390000</v>
       </c>
       <c r="P232" t="n">
-        <v>200000</v>
+        <v>390000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>444</v>
+        <v>867</v>
       </c>
       <c r="T232" t="n">
         <v>450</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44351</v>
+        <v>44313</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
         <v>15</v>
       </c>
       <c r="N233" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O233" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P233" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T233" t="n">
         <v>450</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N234" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="O234" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="P234" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="T234" t="n">
         <v>450</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N235" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O235" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P235" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="T235" t="n">
         <v>450</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N236" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O236" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P236" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T236" t="n">
         <v>450</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N237" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="O237" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="P237" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>778</v>
+        <v>578</v>
       </c>
       <c r="T237" t="n">
         <v>450</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N238" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O238" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P238" t="n">
-        <v>235000</v>
+        <v>200000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T238" t="n">
         <v>450</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N239" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O239" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P239" t="n">
-        <v>212500</v>
+        <v>270000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="T239" t="n">
         <v>450</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -19555,25 +19555,25 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M240" t="n">
         <v>15</v>
       </c>
       <c r="N240" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="O240" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="P240" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T240" t="n">
         <v>450</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -19635,25 +19635,25 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N241" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="O241" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P241" t="n">
-        <v>430000</v>
+        <v>235000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>956</v>
+        <v>522</v>
       </c>
       <c r="T241" t="n">
         <v>450</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N242" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O242" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P242" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="T242" t="n">
         <v>450</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N243" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O243" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P243" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T243" t="n">
         <v>450</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N244" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O244" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P244" t="n">
-        <v>180000</v>
+        <v>235000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="T244" t="n">
         <v>450</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N245" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O245" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="P245" t="n">
-        <v>100000</v>
+        <v>212500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="T245" t="n">
         <v>450</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20044,20 +20044,20 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N246" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="O246" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="P246" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T246" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -20115,29 +20115,29 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N247" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="P247" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="T247" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N248" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O248" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P248" t="n">
-        <v>230000</v>
+        <v>315000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>511</v>
+        <v>700</v>
       </c>
       <c r="T248" t="n">
         <v>450</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20284,20 +20284,20 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="N249" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="O249" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="P249" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T249" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -20367,13 +20367,13 @@
         <v>10</v>
       </c>
       <c r="N250" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O250" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P250" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T250" t="n">
         <v>450</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N251" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="O251" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="P251" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>533</v>
+        <v>222</v>
       </c>
       <c r="T251" t="n">
         <v>450</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N252" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O252" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P252" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>489</v>
+        <v>1000</v>
       </c>
       <c r="T252" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N253" t="n">
-        <v>380000</v>
+        <v>8000</v>
       </c>
       <c r="O253" t="n">
-        <v>380000</v>
+        <v>8000</v>
       </c>
       <c r="P253" t="n">
-        <v>380000</v>
+        <v>8000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>844</v>
+        <v>800</v>
       </c>
       <c r="T253" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N254" t="n">
         <v>230000</v>
       </c>
       <c r="O254" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P254" t="n">
-        <v>235000</v>
+        <v>230000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="T254" t="n">
         <v>450</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -20764,20 +20764,20 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N255" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="O255" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="P255" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T255" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44292</v>
+        <v>44358</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N256" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O256" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="P256" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T256" t="n">
         <v>450</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N257" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O257" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P257" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T257" t="n">
         <v>450</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N258" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="O258" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P258" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="T258" t="n">
         <v>450</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N259" t="n">
-        <v>130000</v>
+        <v>380000</v>
       </c>
       <c r="O259" t="n">
-        <v>130000</v>
+        <v>380000</v>
       </c>
       <c r="P259" t="n">
-        <v>130000</v>
+        <v>380000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>289</v>
+        <v>844</v>
       </c>
       <c r="T259" t="n">
         <v>450</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N260" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O260" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P260" t="n">
-        <v>350000</v>
+        <v>235000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>778</v>
+        <v>522</v>
       </c>
       <c r="T260" t="n">
         <v>450</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
         <v>12</v>
       </c>
       <c r="N261" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="O261" t="n">
-        <v>440000</v>
+        <v>200000</v>
       </c>
       <c r="P261" t="n">
-        <v>435000</v>
+        <v>200000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>967</v>
+        <v>444</v>
       </c>
       <c r="T261" t="n">
         <v>450</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N262" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="O262" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="P262" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>689</v>
+        <v>889</v>
       </c>
       <c r="T262" t="n">
         <v>450</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N263" t="n">
         <v>250000</v>
@@ -21422,7 +21422,7 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S263" t="n">
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
         <v>10</v>
       </c>
       <c r="N264" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="O264" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P264" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>578</v>
+        <v>467</v>
       </c>
       <c r="T264" t="n">
         <v>450</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N265" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="O265" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="P265" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21582,11 +21582,11 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="T265" t="n">
         <v>450</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N266" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O266" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P266" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>489</v>
+        <v>778</v>
       </c>
       <c r="T266" t="n">
         <v>450</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44369</v>
+        <v>44305</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N267" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="O267" t="n">
-        <v>280000</v>
+        <v>440000</v>
       </c>
       <c r="P267" t="n">
-        <v>280000</v>
+        <v>435000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21742,11 +21742,11 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>622</v>
+        <v>967</v>
       </c>
       <c r="T267" t="n">
         <v>450</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44369</v>
+        <v>44305</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -21800,21 +21800,21 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N268" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O268" t="n">
+        <v>320000</v>
+      </c>
+      <c r="P268" t="n">
         <v>310000</v>
       </c>
-      <c r="O268" t="n">
-        <v>330000</v>
-      </c>
-      <c r="P268" t="n">
-        <v>320000</v>
-      </c>
       <c r="Q268" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="T268" t="n">
         <v>450</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -21884,13 +21884,13 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N269" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O269" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P269" t="n">
         <v>260000</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N270" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O270" t="n">
         <v>260000</v>
       </c>
       <c r="P270" t="n">
-        <v>245000</v>
+        <v>260000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="T270" t="n">
         <v>450</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N271" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O271" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P271" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="T271" t="n">
         <v>450</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N272" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O272" t="n">
         <v>220000</v>
       </c>
       <c r="P272" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="T272" t="n">
         <v>450</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N273" t="n">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="O273" t="n">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="P273" t="n">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>356</v>
+        <v>622</v>
       </c>
       <c r="T273" t="n">
         <v>450</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>12</v>
       </c>
       <c r="N274" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="O274" t="n">
         <v>330000</v>
       </c>
       <c r="P274" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T274" t="n">
         <v>450</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N275" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="O275" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P275" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="T275" t="n">
         <v>450</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N276" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O276" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P276" t="n">
-        <v>250000</v>
+        <v>245000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="T276" t="n">
         <v>450</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N277" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O277" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P277" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T277" t="n">
         <v>450</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O278" t="n">
         <v>220000</v>
       </c>
       <c r="P278" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="T278" t="n">
         <v>450</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N279" t="n">
-        <v>300000</v>
+        <v>160000</v>
       </c>
       <c r="O279" t="n">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="P279" t="n">
-        <v>310000</v>
+        <v>160000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22702,11 +22702,11 @@
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>689</v>
+        <v>356</v>
       </c>
       <c r="T279" t="n">
         <v>450</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N280" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O280" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P280" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T280" t="n">
         <v>450</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N281" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="O281" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P281" t="n">
-        <v>255000</v>
+        <v>290000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="T281" t="n">
         <v>450</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N282" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O282" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P282" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="T282" t="n">
         <v>450</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44309</v>
+        <v>44265</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N283" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O283" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="P283" t="n">
-        <v>335000</v>
+        <v>260000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>744</v>
+        <v>578</v>
       </c>
       <c r="T283" t="n">
         <v>450</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44309</v>
+        <v>44265</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>12</v>
       </c>
       <c r="N284" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O284" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="P284" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>889</v>
+        <v>489</v>
       </c>
       <c r="T284" t="n">
         <v>450</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N285" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O285" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P285" t="n">
-        <v>265000</v>
+        <v>310000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>589</v>
+        <v>689</v>
       </c>
       <c r="T285" t="n">
         <v>450</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N286" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="O286" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="P286" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="T286" t="n">
         <v>450</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N287" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O287" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P287" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="T287" t="n">
         <v>450</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N288" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O288" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P288" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="T288" t="n">
         <v>450</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N289" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="O289" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="P289" t="n">
-        <v>360000</v>
+        <v>335000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>800</v>
+        <v>744</v>
       </c>
       <c r="T289" t="n">
         <v>450</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N290" t="n">
-        <v>420000</v>
+        <v>400000</v>
       </c>
       <c r="O290" t="n">
-        <v>420000</v>
+        <v>400000</v>
       </c>
       <c r="P290" t="n">
-        <v>420000</v>
+        <v>400000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>933</v>
+        <v>889</v>
       </c>
       <c r="T290" t="n">
         <v>450</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N291" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O291" t="n">
         <v>270000</v>
       </c>
-      <c r="O291" t="n">
-        <v>310000</v>
-      </c>
       <c r="P291" t="n">
-        <v>290000</v>
+        <v>265000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="T291" t="n">
         <v>450</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N292" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O292" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P292" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="T292" t="n">
         <v>450</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N293" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O293" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P293" t="n">
-        <v>330000</v>
+        <v>225000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T293" t="n">
         <v>450</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N294" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="O294" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="P294" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>889</v>
+        <v>378</v>
       </c>
       <c r="T294" t="n">
         <v>450</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N295" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="O295" t="n">
-        <v>280000</v>
+        <v>360000</v>
       </c>
       <c r="P295" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T295" t="n">
         <v>450</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N296" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="O296" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="P296" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>511</v>
+        <v>933</v>
       </c>
       <c r="T296" t="n">
         <v>450</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44281</v>
+        <v>44319</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N297" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="O297" t="n">
-        <v>420000</v>
+        <v>310000</v>
       </c>
       <c r="P297" t="n">
-        <v>420000</v>
+        <v>290000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>933</v>
+        <v>644</v>
       </c>
       <c r="T297" t="n">
         <v>450</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44281</v>
+        <v>44319</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N298" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O298" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P298" t="n">
-        <v>265000</v>
+        <v>240000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="T298" t="n">
         <v>450</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N299" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="O299" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="P299" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T299" t="n">
         <v>450</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N300" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="O300" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="P300" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>689</v>
+        <v>889</v>
       </c>
       <c r="T300" t="n">
         <v>450</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N301" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O301" t="n">
         <v>280000</v>
       </c>
       <c r="P301" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T301" t="n">
         <v>450</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N302" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O302" t="n">
         <v>230000</v>
       </c>
       <c r="P302" t="n">
-        <v>225000</v>
+        <v>230000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="T302" t="n">
         <v>450</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N303" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="O303" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="P303" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>400</v>
+        <v>933</v>
       </c>
       <c r="T303" t="n">
         <v>450</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N304" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O304" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P304" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T304" t="n">
         <v>450</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N305" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O305" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P305" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T305" t="n">
         <v>450</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N306" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="O306" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="P306" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>511</v>
+        <v>689</v>
       </c>
       <c r="T306" t="n">
         <v>450</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O307" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P307" t="n">
-        <v>265000</v>
+        <v>280000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="T307" t="n">
         <v>450</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N308" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O308" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P308" t="n">
-        <v>220000</v>
+        <v>225000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="T308" t="n">
         <v>450</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>12</v>
       </c>
       <c r="N309" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="O309" t="n">
-        <v>310000</v>
+        <v>180000</v>
       </c>
       <c r="P309" t="n">
-        <v>305000</v>
+        <v>180000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25102,11 +25102,11 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>678</v>
+        <v>400</v>
       </c>
       <c r="T309" t="n">
         <v>450</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N310" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O310" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P310" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25182,11 +25182,11 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T310" t="n">
         <v>450</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="N311" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O311" t="n">
         <v>270000</v>
       </c>
       <c r="P311" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25262,11 +25262,11 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T311" t="n">
         <v>450</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N312" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O312" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P312" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25342,11 +25342,11 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T312" t="n">
         <v>450</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N313" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O313" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P313" t="n">
-        <v>220000</v>
+        <v>265000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="T313" t="n">
         <v>450</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N314" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O314" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P314" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T314" t="n">
         <v>450</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25555,25 +25555,25 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N315" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O315" t="n">
-        <v>130000</v>
+        <v>310000</v>
       </c>
       <c r="P315" t="n">
-        <v>130000</v>
+        <v>305000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25582,11 +25582,11 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>289</v>
+        <v>678</v>
       </c>
       <c r="T315" t="n">
         <v>450</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O316" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P316" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25662,11 +25662,11 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T316" t="n">
         <v>450</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N317" t="n">
         <v>250000</v>
       </c>
       <c r="O317" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P317" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25742,11 +25742,11 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S317" t="n">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="T317" t="n">
         <v>450</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N318" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O318" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P318" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25822,11 +25822,11 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T318" t="n">
         <v>450</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N319" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="O319" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="P319" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>711</v>
+        <v>489</v>
       </c>
       <c r="T319" t="n">
         <v>450</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N320" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="O320" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="P320" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="T320" t="n">
         <v>450</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N321" t="n">
-        <v>240000</v>
+        <v>130000</v>
       </c>
       <c r="O321" t="n">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="P321" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="T321" t="n">
         <v>450</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N322" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O322" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P322" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T322" t="n">
         <v>450</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N323" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O323" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P323" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T323" t="n">
         <v>450</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N324" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O324" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P324" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="T324" t="n">
         <v>450</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N325" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O325" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P325" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>567</v>
+        <v>711</v>
       </c>
       <c r="T325" t="n">
         <v>450</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N326" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O326" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="P326" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26462,11 +26462,11 @@
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T326" t="n">
         <v>450</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O327" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P327" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26542,11 +26542,11 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T327" t="n">
         <v>450</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N328" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O328" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P328" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T328" t="n">
         <v>450</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N329" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O329" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P329" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26702,11 +26702,11 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T329" t="n">
         <v>450</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N330" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="O330" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="P330" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="T330" t="n">
         <v>450</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26850,10 +26850,10 @@
         <v>250000</v>
       </c>
       <c r="O331" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P331" t="n">
-        <v>260000</v>
+        <v>255000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="T331" t="n">
         <v>450</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N332" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O332" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P332" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26942,11 +26942,11 @@
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="T332" t="n">
         <v>450</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N333" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O333" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P333" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27022,11 +27022,11 @@
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T333" t="n">
         <v>450</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N334" t="n">
         <v>230000</v>
       </c>
       <c r="O334" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P334" t="n">
-        <v>235000</v>
+        <v>230000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="T334" t="n">
         <v>450</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N335" t="n">
         <v>200000</v>
@@ -27182,7 +27182,7 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S335" t="n">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N336" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="O336" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P336" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27262,11 +27262,11 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="T336" t="n">
         <v>450</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N337" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O337" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P337" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27342,11 +27342,11 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T337" t="n">
         <v>450</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N338" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="O338" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P338" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>756</v>
+        <v>578</v>
       </c>
       <c r="T338" t="n">
         <v>450</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N339" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="O339" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P339" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>956</v>
+        <v>667</v>
       </c>
       <c r="T339" t="n">
         <v>450</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27567,13 +27567,13 @@
         <v>30</v>
       </c>
       <c r="N340" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O340" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P340" t="n">
-        <v>260000</v>
+        <v>235000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27647,13 +27647,13 @@
         <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O341" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P341" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N342" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O342" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P342" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N343" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O343" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P343" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27822,11 +27822,11 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T343" t="n">
         <v>450</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N344" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="O344" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="P344" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="T344" t="n">
         <v>450</v>
@@ -27927,68 +27927,548 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E345" t="n">
+        <v>13</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>10</v>
+      </c>
+      <c r="N345" t="n">
+        <v>430000</v>
+      </c>
+      <c r="O345" t="n">
+        <v>430000</v>
+      </c>
+      <c r="P345" t="n">
+        <v>430000</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S345" t="n">
+        <v>956</v>
+      </c>
+      <c r="T345" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>6</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E346" t="n">
+        <v>13</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>30</v>
+      </c>
+      <c r="N346" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O346" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P346" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S346" t="n">
+        <v>578</v>
+      </c>
+      <c r="T346" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>6</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E347" t="n">
+        <v>13</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>20</v>
+      </c>
+      <c r="N347" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O347" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P347" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S347" t="n">
+        <v>489</v>
+      </c>
+      <c r="T347" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>6</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E348" t="n">
+        <v>13</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>25</v>
+      </c>
+      <c r="N348" t="n">
+        <v>330000</v>
+      </c>
+      <c r="O348" t="n">
+        <v>330000</v>
+      </c>
+      <c r="P348" t="n">
+        <v>330000</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S348" t="n">
+        <v>733</v>
+      </c>
+      <c r="T348" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>6</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E349" t="n">
+        <v>13</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>30</v>
+      </c>
+      <c r="N349" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O349" t="n">
+        <v>280000</v>
+      </c>
+      <c r="P349" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S349" t="n">
+        <v>622</v>
+      </c>
+      <c r="T349" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>6</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E350" t="n">
+        <v>13</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>25</v>
+      </c>
+      <c r="N350" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O350" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P350" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S350" t="n">
+        <v>511</v>
+      </c>
+      <c r="T350" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>6</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E345" t="n">
-        <v>13</v>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G345" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I345" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="E351" t="n">
+        <v>13</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M345" t="n">
+      <c r="M351" t="n">
         <v>5</v>
       </c>
-      <c r="N345" t="n">
+      <c r="N351" t="n">
         <v>220000</v>
       </c>
-      <c r="O345" t="n">
+      <c r="O351" t="n">
         <v>220000</v>
       </c>
-      <c r="P345" t="n">
+      <c r="P351" t="n">
         <v>220000</v>
       </c>
-      <c r="Q345" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R345" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S345" t="n">
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S351" t="n">
         <v>489</v>
       </c>
-      <c r="T345" t="n">
+      <c r="T351" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T390"/>
+  <dimension ref="A1:T396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -20280,24 +20280,24 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N249" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="O249" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P249" t="n">
-        <v>270000</v>
+        <v>9500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="T249" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N250" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="O250" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="P250" t="n">
-        <v>240000</v>
+        <v>415000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>533</v>
+        <v>922</v>
       </c>
       <c r="T250" t="n">
         <v>450</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44313</v>
+        <v>44438</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -20440,24 +20440,24 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>15</v>
+        <v>470</v>
       </c>
       <c r="N251" t="n">
-        <v>340000</v>
+        <v>7000</v>
       </c>
       <c r="O251" t="n">
-        <v>340000</v>
+        <v>8000</v>
       </c>
       <c r="P251" t="n">
-        <v>340000</v>
+        <v>7500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="T251" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44313</v>
+        <v>44438</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N252" t="n">
-        <v>390000</v>
+        <v>250000</v>
       </c>
       <c r="O252" t="n">
-        <v>390000</v>
+        <v>260000</v>
       </c>
       <c r="P252" t="n">
-        <v>390000</v>
+        <v>255000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>867</v>
+        <v>567</v>
       </c>
       <c r="T252" t="n">
         <v>450</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44313</v>
+        <v>44438</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="N253" t="n">
-        <v>300000</v>
+        <v>5000</v>
       </c>
       <c r="O253" t="n">
-        <v>300000</v>
+        <v>5000</v>
       </c>
       <c r="P253" t="n">
-        <v>300000</v>
+        <v>5000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T253" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44330</v>
+        <v>44438</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>20</v>
       </c>
       <c r="N254" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O254" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P254" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T254" t="n">
         <v>450</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44330</v>
+        <v>44260</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N255" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O255" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P255" t="n">
-        <v>255000</v>
+        <v>270000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T255" t="n">
         <v>450</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44391</v>
+        <v>44260</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N256" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O256" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P256" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T256" t="n">
         <v>450</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N257" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O257" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P257" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T257" t="n">
         <v>450</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N258" t="n">
-        <v>200000</v>
+        <v>390000</v>
       </c>
       <c r="O258" t="n">
-        <v>200000</v>
+        <v>390000</v>
       </c>
       <c r="P258" t="n">
-        <v>200000</v>
+        <v>390000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>444</v>
+        <v>867</v>
       </c>
       <c r="T258" t="n">
         <v>450</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44351</v>
+        <v>44313</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>15</v>
       </c>
       <c r="N259" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O259" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P259" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T259" t="n">
         <v>450</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N260" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="O260" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="P260" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="T260" t="n">
         <v>450</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N261" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O261" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P261" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="T261" t="n">
         <v>450</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N262" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O262" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P262" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T262" t="n">
         <v>450</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N263" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="O263" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="P263" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>778</v>
+        <v>578</v>
       </c>
       <c r="T263" t="n">
         <v>450</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N264" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O264" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P264" t="n">
-        <v>235000</v>
+        <v>200000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T264" t="n">
         <v>450</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N265" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O265" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P265" t="n">
-        <v>212500</v>
+        <v>270000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="T265" t="n">
         <v>450</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M266" t="n">
         <v>15</v>
       </c>
       <c r="N266" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="O266" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="P266" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T266" t="n">
         <v>450</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N267" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="O267" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P267" t="n">
-        <v>430000</v>
+        <v>235000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>956</v>
+        <v>522</v>
       </c>
       <c r="T267" t="n">
         <v>450</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N268" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O268" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P268" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="T268" t="n">
         <v>450</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N269" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O269" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P269" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T269" t="n">
         <v>450</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N270" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O270" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P270" t="n">
-        <v>180000</v>
+        <v>235000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="T270" t="n">
         <v>450</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N271" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O271" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="P271" t="n">
-        <v>100000</v>
+        <v>212500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="T271" t="n">
         <v>450</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,20 +22124,20 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N272" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="O272" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="P272" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T272" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -22195,29 +22195,29 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N273" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="O273" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="P273" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="T273" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N274" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O274" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P274" t="n">
-        <v>230000</v>
+        <v>315000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>511</v>
+        <v>700</v>
       </c>
       <c r="T274" t="n">
         <v>450</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,20 +22364,20 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="N275" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="O275" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="P275" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T275" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -22447,13 +22447,13 @@
         <v>10</v>
       </c>
       <c r="N276" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O276" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P276" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T276" t="n">
         <v>450</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N277" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="O277" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="P277" t="n">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>533</v>
+        <v>222</v>
       </c>
       <c r="T277" t="n">
         <v>450</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N278" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P278" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>489</v>
+        <v>1000</v>
       </c>
       <c r="T278" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N279" t="n">
-        <v>380000</v>
+        <v>8000</v>
       </c>
       <c r="O279" t="n">
-        <v>380000</v>
+        <v>8000</v>
       </c>
       <c r="P279" t="n">
-        <v>380000</v>
+        <v>8000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>844</v>
+        <v>800</v>
       </c>
       <c r="T279" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N280" t="n">
         <v>230000</v>
       </c>
       <c r="O280" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P280" t="n">
-        <v>235000</v>
+        <v>230000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="T280" t="n">
         <v>450</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -22844,20 +22844,20 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N281" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="O281" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="P281" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T281" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44292</v>
+        <v>44358</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N282" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O282" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="P282" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T282" t="n">
         <v>450</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N283" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O283" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P283" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T283" t="n">
         <v>450</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N284" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="O284" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P284" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="T284" t="n">
         <v>450</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N285" t="n">
-        <v>130000</v>
+        <v>380000</v>
       </c>
       <c r="O285" t="n">
-        <v>130000</v>
+        <v>380000</v>
       </c>
       <c r="P285" t="n">
-        <v>130000</v>
+        <v>380000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>289</v>
+        <v>844</v>
       </c>
       <c r="T285" t="n">
         <v>450</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N286" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O286" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P286" t="n">
-        <v>350000</v>
+        <v>235000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>778</v>
+        <v>522</v>
       </c>
       <c r="T286" t="n">
         <v>450</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>12</v>
       </c>
       <c r="N287" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="O287" t="n">
-        <v>440000</v>
+        <v>200000</v>
       </c>
       <c r="P287" t="n">
-        <v>435000</v>
+        <v>200000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>967</v>
+        <v>444</v>
       </c>
       <c r="T287" t="n">
         <v>450</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N288" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="O288" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="P288" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>689</v>
+        <v>889</v>
       </c>
       <c r="T288" t="n">
         <v>450</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N289" t="n">
         <v>250000</v>
@@ -23502,7 +23502,7 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S289" t="n">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>10</v>
       </c>
       <c r="N290" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="O290" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P290" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>578</v>
+        <v>467</v>
       </c>
       <c r="T290" t="n">
         <v>450</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N291" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="O291" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="P291" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23662,11 +23662,11 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="T291" t="n">
         <v>450</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N292" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O292" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P292" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>489</v>
+        <v>778</v>
       </c>
       <c r="T292" t="n">
         <v>450</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N293" t="n">
-        <v>320000</v>
+        <v>430000</v>
       </c>
       <c r="O293" t="n">
-        <v>350000</v>
+        <v>440000</v>
       </c>
       <c r="P293" t="n">
-        <v>335000</v>
+        <v>435000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>744</v>
+        <v>967</v>
       </c>
       <c r="T293" t="n">
         <v>450</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N294" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O294" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="P294" t="n">
-        <v>410000</v>
+        <v>310000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>911</v>
+        <v>689</v>
       </c>
       <c r="T294" t="n">
         <v>450</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N295" t="n">
         <v>250000</v>
       </c>
       <c r="O295" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P295" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23982,11 +23982,11 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="T295" t="n">
         <v>450</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N296" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O296" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P296" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T296" t="n">
         <v>450</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>12</v>
       </c>
       <c r="N297" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O297" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="P297" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>889</v>
+        <v>489</v>
       </c>
       <c r="T297" t="n">
         <v>450</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N298" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O298" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P298" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="T298" t="n">
         <v>450</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N299" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O299" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P299" t="n">
-        <v>245000</v>
+        <v>335000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>544</v>
+        <v>744</v>
       </c>
       <c r="T299" t="n">
         <v>450</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N300" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O300" t="n">
-        <v>200000</v>
+        <v>420000</v>
       </c>
       <c r="P300" t="n">
-        <v>200000</v>
+        <v>410000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>444</v>
+        <v>911</v>
       </c>
       <c r="T300" t="n">
         <v>450</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O301" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="P301" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T301" t="n">
         <v>450</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44369</v>
+        <v>44417</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N302" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O302" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P302" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T302" t="n">
         <v>450</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -24607,13 +24607,13 @@
         <v>12</v>
       </c>
       <c r="N303" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="O303" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="P303" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>711</v>
+        <v>889</v>
       </c>
       <c r="T303" t="n">
         <v>450</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N304" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O304" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P304" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T304" t="n">
         <v>450</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24767,10 +24767,10 @@
         <v>24</v>
       </c>
       <c r="N305" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O305" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P305" t="n">
         <v>245000</v>
@@ -24782,7 +24782,7 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S305" t="n">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N306" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O306" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P306" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24862,11 +24862,11 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T306" t="n">
         <v>450</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N307" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O307" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P307" t="n">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24942,11 +24942,11 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="T307" t="n">
         <v>450</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N308" t="n">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="O308" t="n">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="P308" t="n">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>356</v>
+        <v>622</v>
       </c>
       <c r="T308" t="n">
         <v>450</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>12</v>
       </c>
       <c r="N309" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="O309" t="n">
         <v>330000</v>
       </c>
       <c r="P309" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T309" t="n">
         <v>450</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N310" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="O310" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P310" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25182,11 +25182,11 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="T310" t="n">
         <v>450</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N311" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O311" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P311" t="n">
-        <v>250000</v>
+        <v>245000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="T311" t="n">
         <v>450</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N312" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O312" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P312" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25342,11 +25342,11 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T312" t="n">
         <v>450</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O313" t="n">
         <v>220000</v>
       </c>
       <c r="P313" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="T313" t="n">
         <v>450</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N314" t="n">
-        <v>300000</v>
+        <v>160000</v>
       </c>
       <c r="O314" t="n">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="P314" t="n">
-        <v>310000</v>
+        <v>160000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25502,11 +25502,11 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S314" t="n">
-        <v>689</v>
+        <v>356</v>
       </c>
       <c r="T314" t="n">
         <v>450</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N315" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O315" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P315" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T315" t="n">
         <v>450</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N316" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="O316" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P316" t="n">
-        <v>255000</v>
+        <v>290000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="T316" t="n">
         <v>450</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N317" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O317" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P317" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="T317" t="n">
         <v>450</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44433</v>
+        <v>44265</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N318" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O318" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P318" t="n">
-        <v>295238</v>
+        <v>260000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>656</v>
+        <v>578</v>
       </c>
       <c r="T318" t="n">
         <v>450</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44433</v>
+        <v>44265</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
         <v>12</v>
       </c>
       <c r="N319" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O319" t="n">
-        <v>420000</v>
+        <v>220000</v>
       </c>
       <c r="P319" t="n">
-        <v>410000</v>
+        <v>220000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>911</v>
+        <v>489</v>
       </c>
       <c r="T319" t="n">
         <v>450</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N320" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O320" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P320" t="n">
-        <v>250250</v>
+        <v>310000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="T320" t="n">
         <v>450</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N321" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
       <c r="O321" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P321" t="n">
-        <v>214615</v>
+        <v>350000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>477</v>
+        <v>778</v>
       </c>
       <c r="T321" t="n">
         <v>450</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O322" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="P322" t="n">
-        <v>335000</v>
+        <v>255000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>744</v>
+        <v>567</v>
       </c>
       <c r="T322" t="n">
         <v>450</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N323" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O323" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="P323" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>889</v>
+        <v>489</v>
       </c>
       <c r="T323" t="n">
         <v>450</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N324" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O324" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P324" t="n">
-        <v>265000</v>
+        <v>295238</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="T324" t="n">
         <v>450</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N325" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="O325" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="P325" t="n">
-        <v>230000</v>
+        <v>410000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>511</v>
+        <v>911</v>
       </c>
       <c r="T325" t="n">
         <v>450</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N326" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O326" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P326" t="n">
-        <v>225000</v>
+        <v>250250</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T326" t="n">
         <v>450</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N327" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="O327" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P327" t="n">
-        <v>170000</v>
+        <v>214615</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>378</v>
+        <v>477</v>
       </c>
       <c r="T327" t="n">
         <v>450</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N328" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="O328" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="P328" t="n">
-        <v>360000</v>
+        <v>335000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>800</v>
+        <v>744</v>
       </c>
       <c r="T328" t="n">
         <v>450</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N329" t="n">
-        <v>420000</v>
+        <v>400000</v>
       </c>
       <c r="O329" t="n">
-        <v>420000</v>
+        <v>400000</v>
       </c>
       <c r="P329" t="n">
-        <v>420000</v>
+        <v>400000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>933</v>
+        <v>889</v>
       </c>
       <c r="T329" t="n">
         <v>450</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N330" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O330" t="n">
         <v>270000</v>
       </c>
-      <c r="O330" t="n">
-        <v>310000</v>
-      </c>
       <c r="P330" t="n">
-        <v>290000</v>
+        <v>265000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="T330" t="n">
         <v>450</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N331" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O331" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P331" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="T331" t="n">
         <v>450</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N332" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O332" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P332" t="n">
-        <v>330000</v>
+        <v>225000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T332" t="n">
         <v>450</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N333" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="O333" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="P333" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>889</v>
+        <v>378</v>
       </c>
       <c r="T333" t="n">
         <v>450</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N334" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="O334" t="n">
-        <v>280000</v>
+        <v>360000</v>
       </c>
       <c r="P334" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T334" t="n">
         <v>450</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N335" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="O335" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="P335" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>511</v>
+        <v>933</v>
       </c>
       <c r="T335" t="n">
         <v>450</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44281</v>
+        <v>44319</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N336" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="O336" t="n">
-        <v>420000</v>
+        <v>310000</v>
       </c>
       <c r="P336" t="n">
-        <v>420000</v>
+        <v>290000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>933</v>
+        <v>644</v>
       </c>
       <c r="T336" t="n">
         <v>450</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44281</v>
+        <v>44319</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N337" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O337" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P337" t="n">
-        <v>265000</v>
+        <v>240000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="T337" t="n">
         <v>450</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N338" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="O338" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="P338" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T338" t="n">
         <v>450</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N339" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="O339" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="P339" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>689</v>
+        <v>889</v>
       </c>
       <c r="T339" t="n">
         <v>450</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N340" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O340" t="n">
         <v>280000</v>
       </c>
       <c r="P340" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N341" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O341" t="n">
         <v>230000</v>
       </c>
       <c r="P341" t="n">
-        <v>225000</v>
+        <v>230000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N342" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="O342" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="P342" t="n">
-        <v>180000</v>
+        <v>420000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>400</v>
+        <v>933</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N343" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O343" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P343" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T343" t="n">
         <v>450</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N344" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O344" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P344" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T344" t="n">
         <v>450</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N345" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="O345" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="P345" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>511</v>
+        <v>689</v>
       </c>
       <c r="T345" t="n">
         <v>450</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N346" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O346" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P346" t="n">
-        <v>265000</v>
+        <v>280000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="T346" t="n">
         <v>450</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N347" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O347" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P347" t="n">
-        <v>220000</v>
+        <v>225000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="T347" t="n">
         <v>450</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M348" t="n">
         <v>12</v>
       </c>
       <c r="N348" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="O348" t="n">
-        <v>310000</v>
+        <v>180000</v>
       </c>
       <c r="P348" t="n">
-        <v>305000</v>
+        <v>180000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28222,11 +28222,11 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>678</v>
+        <v>400</v>
       </c>
       <c r="T348" t="n">
         <v>450</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N349" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O349" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P349" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28302,11 +28302,11 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T349" t="n">
         <v>450</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="N350" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O350" t="n">
         <v>270000</v>
       </c>
       <c r="P350" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28382,11 +28382,11 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T350" t="n">
         <v>450</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N351" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O351" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P351" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T351" t="n">
         <v>450</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N352" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O352" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P352" t="n">
-        <v>220000</v>
+        <v>265000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="T352" t="n">
         <v>450</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N353" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O353" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P353" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T353" t="n">
         <v>450</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N354" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O354" t="n">
-        <v>130000</v>
+        <v>310000</v>
       </c>
       <c r="P354" t="n">
-        <v>130000</v>
+        <v>305000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>289</v>
+        <v>678</v>
       </c>
       <c r="T354" t="n">
         <v>450</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N355" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O355" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P355" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T355" t="n">
         <v>450</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N356" t="n">
         <v>250000</v>
       </c>
       <c r="O356" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P356" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28862,11 +28862,11 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="T356" t="n">
         <v>450</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N357" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O357" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P357" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28942,11 +28942,11 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T357" t="n">
         <v>450</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -28995,25 +28995,25 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N358" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="O358" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="P358" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>711</v>
+        <v>489</v>
       </c>
       <c r="T358" t="n">
         <v>450</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29075,25 +29075,25 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N359" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="O359" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="P359" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="T359" t="n">
         <v>450</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29155,25 +29155,25 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N360" t="n">
-        <v>240000</v>
+        <v>130000</v>
       </c>
       <c r="O360" t="n">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="P360" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N361" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O361" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P361" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T361" t="n">
         <v>450</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N362" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O362" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P362" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T362" t="n">
         <v>450</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N363" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O363" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P363" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="T363" t="n">
         <v>450</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N364" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O364" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P364" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>567</v>
+        <v>711</v>
       </c>
       <c r="T364" t="n">
         <v>450</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N365" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O365" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="P365" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29582,11 +29582,11 @@
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T365" t="n">
         <v>450</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N366" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O366" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P366" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29662,11 +29662,11 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T366" t="n">
         <v>450</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N367" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O367" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P367" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T367" t="n">
         <v>450</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N368" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O368" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P368" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29822,11 +29822,11 @@
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T368" t="n">
         <v>450</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N369" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="O369" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="P369" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="T369" t="n">
         <v>450</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29970,10 +29970,10 @@
         <v>250000</v>
       </c>
       <c r="O370" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P370" t="n">
-        <v>260000</v>
+        <v>255000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="T370" t="n">
         <v>450</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N371" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O371" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P371" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30062,11 +30062,11 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="T371" t="n">
         <v>450</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N372" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O372" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P372" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30142,11 +30142,11 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T372" t="n">
         <v>450</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N373" t="n">
         <v>230000</v>
       </c>
       <c r="O373" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P373" t="n">
-        <v>235000</v>
+        <v>230000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="T373" t="n">
         <v>450</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30284,7 +30284,7 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N374" t="n">
         <v>200000</v>
@@ -30302,7 +30302,7 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S374" t="n">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N375" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="O375" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P375" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30382,11 +30382,11 @@
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="T375" t="n">
         <v>450</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N376" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O376" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P376" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30462,11 +30462,11 @@
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T376" t="n">
         <v>450</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N377" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="O377" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P377" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>756</v>
+        <v>578</v>
       </c>
       <c r="T377" t="n">
         <v>450</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N378" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="O378" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P378" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>956</v>
+        <v>667</v>
       </c>
       <c r="T378" t="n">
         <v>450</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30687,13 +30687,13 @@
         <v>30</v>
       </c>
       <c r="N379" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O379" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P379" t="n">
-        <v>260000</v>
+        <v>235000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="T379" t="n">
         <v>450</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30767,13 +30767,13 @@
         <v>20</v>
       </c>
       <c r="N380" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O380" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P380" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T380" t="n">
         <v>450</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N381" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O381" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P381" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30862,11 +30862,11 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T381" t="n">
         <v>450</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N382" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O382" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P382" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30942,11 +30942,11 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T382" t="n">
         <v>450</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N383" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="O383" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="P383" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="T383" t="n">
         <v>450</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N384" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="O384" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="P384" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>489</v>
+        <v>956</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N385" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O385" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P385" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>711</v>
+        <v>578</v>
       </c>
       <c r="T385" t="n">
         <v>450</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N386" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="O386" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="P386" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>622</v>
+        <v>489</v>
       </c>
       <c r="T386" t="n">
         <v>450</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N387" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O387" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P387" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T387" t="n">
         <v>450</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44432</v>
+        <v>44334</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N388" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O388" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P388" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T388" t="n">
         <v>450</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44432</v>
+        <v>44334</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N389" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O389" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P389" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="T389" t="n">
         <v>450</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44432</v>
+        <v>44168</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,11 +31560,11 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N390" t="n">
         <v>220000</v>
@@ -31589,6 +31589,486 @@
         <v>489</v>
       </c>
       <c r="T390" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>6</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D391" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E391" t="n">
+        <v>13</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M391" t="n">
+        <v>8</v>
+      </c>
+      <c r="N391" t="n">
+        <v>320000</v>
+      </c>
+      <c r="O391" t="n">
+        <v>320000</v>
+      </c>
+      <c r="P391" t="n">
+        <v>320000</v>
+      </c>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S391" t="n">
+        <v>711</v>
+      </c>
+      <c r="T391" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>6</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D392" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E392" t="n">
+        <v>13</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G392" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M392" t="n">
+        <v>18</v>
+      </c>
+      <c r="N392" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O392" t="n">
+        <v>280000</v>
+      </c>
+      <c r="P392" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S392" t="n">
+        <v>622</v>
+      </c>
+      <c r="T392" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>6</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D393" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E393" t="n">
+        <v>13</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M393" t="n">
+        <v>12</v>
+      </c>
+      <c r="N393" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O393" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P393" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S393" t="n">
+        <v>533</v>
+      </c>
+      <c r="T393" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>6</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D394" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E394" t="n">
+        <v>13</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M394" t="n">
+        <v>14</v>
+      </c>
+      <c r="N394" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O394" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P394" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S394" t="n">
+        <v>667</v>
+      </c>
+      <c r="T394" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>6</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D395" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E395" t="n">
+        <v>13</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G395" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I395" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M395" t="n">
+        <v>16</v>
+      </c>
+      <c r="N395" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O395" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P395" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S395" t="n">
+        <v>578</v>
+      </c>
+      <c r="T395" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>6</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D396" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E396" t="n">
+        <v>13</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M396" t="n">
+        <v>10</v>
+      </c>
+      <c r="N396" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O396" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P396" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S396" t="n">
+        <v>489</v>
+      </c>
+      <c r="T396" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T417"/>
+  <dimension ref="A1:T420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -16844,32 +16844,32 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="N206" t="n">
-        <v>370000</v>
+        <v>9000</v>
       </c>
       <c r="O206" t="n">
-        <v>370000</v>
+        <v>9000</v>
       </c>
       <c r="P206" t="n">
-        <v>370000</v>
+        <v>9000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>822</v>
+        <v>900</v>
       </c>
       <c r="T206" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -16924,32 +16924,32 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="N207" t="n">
-        <v>320000</v>
+        <v>7500</v>
       </c>
       <c r="O207" t="n">
-        <v>340000</v>
+        <v>7500</v>
       </c>
       <c r="P207" t="n">
-        <v>330000</v>
+        <v>7500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="T207" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -17000,36 +17000,36 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="N208" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="O208" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="P208" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T208" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N209" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="O209" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="P209" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>578</v>
+        <v>822</v>
       </c>
       <c r="T209" t="n">
         <v>450</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N210" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="O210" t="n">
-        <v>210000</v>
+        <v>340000</v>
       </c>
       <c r="P210" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T210" t="n">
         <v>450</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N211" t="n">
-        <v>130000</v>
+        <v>400000</v>
       </c>
       <c r="O211" t="n">
-        <v>130000</v>
+        <v>400000</v>
       </c>
       <c r="P211" t="n">
-        <v>130000</v>
+        <v>400000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>289</v>
+        <v>889</v>
       </c>
       <c r="T211" t="n">
         <v>450</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N212" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O212" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P212" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T212" t="n">
         <v>450</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N213" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O213" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="P213" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="T213" t="n">
         <v>450</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N214" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="O214" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="P214" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="T214" t="n">
         <v>450</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N215" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O215" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P215" t="n">
-        <v>255000</v>
+        <v>330000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T215" t="n">
         <v>450</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N216" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O216" t="n">
-        <v>220000</v>
+        <v>290000</v>
       </c>
       <c r="P216" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="T216" t="n">
         <v>450</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
         <v>12</v>
       </c>
       <c r="N217" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="O217" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="P217" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>844</v>
+        <v>489</v>
       </c>
       <c r="T217" t="n">
         <v>450</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44295</v>
+        <v>44277</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -17804,7 +17804,7 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N218" t="n">
         <v>250000</v>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S218" t="n">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44362</v>
+        <v>44277</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N219" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O219" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P219" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T219" t="n">
         <v>450</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N220" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="O220" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="P220" t="n">
-        <v>140000</v>
+        <v>380000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>311</v>
+        <v>844</v>
       </c>
       <c r="T220" t="n">
         <v>450</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N221" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="O221" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P221" t="n">
-        <v>340000</v>
+        <v>255000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18062,11 +18062,11 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>756</v>
+        <v>567</v>
       </c>
       <c r="T221" t="n">
         <v>450</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N222" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O222" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P222" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="T222" t="n">
         <v>450</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N223" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O223" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="P223" t="n">
-        <v>187143</v>
+        <v>140000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="T223" t="n">
         <v>450</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N224" t="n">
-        <v>140000</v>
+        <v>340000</v>
       </c>
       <c r="O224" t="n">
-        <v>140000</v>
+        <v>340000</v>
       </c>
       <c r="P224" t="n">
-        <v>140000</v>
+        <v>340000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>311</v>
+        <v>756</v>
       </c>
       <c r="T224" t="n">
         <v>450</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N225" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="O225" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P225" t="n">
-        <v>335000</v>
+        <v>230000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>744</v>
+        <v>511</v>
       </c>
       <c r="T225" t="n">
         <v>450</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N226" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="O226" t="n">
-        <v>400000</v>
+        <v>190000</v>
       </c>
       <c r="P226" t="n">
-        <v>400000</v>
+        <v>187143</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>889</v>
+        <v>416</v>
       </c>
       <c r="T226" t="n">
         <v>450</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N227" t="n">
-        <v>260000</v>
+        <v>140000</v>
       </c>
       <c r="O227" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="P227" t="n">
-        <v>265000</v>
+        <v>140000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>589</v>
+        <v>311</v>
       </c>
       <c r="T227" t="n">
         <v>450</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N228" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O228" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="P228" t="n">
-        <v>230000</v>
+        <v>335000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>511</v>
+        <v>744</v>
       </c>
       <c r="T228" t="n">
         <v>450</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N229" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="O229" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="P229" t="n">
-        <v>255000</v>
+        <v>400000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>567</v>
+        <v>889</v>
       </c>
       <c r="T229" t="n">
         <v>450</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N230" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O230" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P230" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T230" t="n">
         <v>450</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44168</v>
+        <v>44309</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N231" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O231" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P231" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T231" t="n">
         <v>450</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N232" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="O232" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P232" t="n">
-        <v>296000</v>
+        <v>255000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>658</v>
+        <v>567</v>
       </c>
       <c r="T232" t="n">
         <v>450</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N233" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="O233" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="P233" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T233" t="n">
         <v>450</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N234" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O234" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P234" t="n">
-        <v>255714</v>
+        <v>220000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>568</v>
+        <v>489</v>
       </c>
       <c r="T234" t="n">
         <v>450</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N235" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="O235" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P235" t="n">
-        <v>211111</v>
+        <v>296000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>469</v>
+        <v>658</v>
       </c>
       <c r="T235" t="n">
         <v>450</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N236" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O236" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P236" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T236" t="n">
         <v>450</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N237" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O237" t="n">
         <v>270000</v>
       </c>
       <c r="P237" t="n">
-        <v>270000</v>
+        <v>255714</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="T237" t="n">
         <v>450</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N238" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O238" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P238" t="n">
-        <v>230000</v>
+        <v>211111</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="T238" t="n">
         <v>450</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -19484,20 +19484,20 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="N239" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="O239" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="P239" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T239" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -19564,20 +19564,20 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="N240" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="O240" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="P240" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="T240" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -19644,20 +19644,20 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N241" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="O241" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="P241" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="T241" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -19727,13 +19727,13 @@
         <v>150</v>
       </c>
       <c r="N242" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O242" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P242" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T242" t="n">
         <v>10</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -19807,13 +19807,13 @@
         <v>200</v>
       </c>
       <c r="N243" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O243" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P243" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T243" t="n">
         <v>10</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -19880,24 +19880,24 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N244" t="n">
-        <v>230000</v>
+        <v>8000</v>
       </c>
       <c r="O244" t="n">
-        <v>230000</v>
+        <v>8000</v>
       </c>
       <c r="P244" t="n">
-        <v>230000</v>
+        <v>8000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>511</v>
+        <v>800</v>
       </c>
       <c r="T244" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N245" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O245" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P245" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T245" t="n">
         <v>10</v>
@@ -20040,36 +20040,36 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
+        <v>200</v>
+      </c>
+      <c r="N246" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O246" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P246" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S246" t="n">
+        <v>800</v>
+      </c>
+      <c r="T246" t="n">
         <v>10</v>
-      </c>
-      <c r="N246" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O246" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P246" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q246" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R246" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S246" t="n">
-        <v>444</v>
-      </c>
-      <c r="T246" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N247" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O247" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P247" t="n">
-        <v>295238</v>
+        <v>230000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>656</v>
+        <v>511</v>
       </c>
       <c r="T247" t="n">
         <v>450</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N248" t="n">
-        <v>400000</v>
+        <v>6000</v>
       </c>
       <c r="O248" t="n">
-        <v>420000</v>
+        <v>6000</v>
       </c>
       <c r="P248" t="n">
-        <v>410000</v>
+        <v>6000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>911</v>
+        <v>600</v>
       </c>
       <c r="T248" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N249" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O249" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P249" t="n">
-        <v>250250</v>
+        <v>200000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T249" t="n">
         <v>450</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N250" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O250" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P250" t="n">
-        <v>214615</v>
+        <v>295238</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>477</v>
+        <v>656</v>
       </c>
       <c r="T250" t="n">
         <v>450</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N251" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="O251" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="P251" t="n">
-        <v>300000</v>
+        <v>410000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>667</v>
+        <v>911</v>
       </c>
       <c r="T251" t="n">
         <v>450</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N252" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O252" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="P252" t="n">
-        <v>415000</v>
+        <v>250250</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>922</v>
+        <v>556</v>
       </c>
       <c r="T252" t="n">
         <v>450</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N253" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O253" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P253" t="n">
-        <v>245000</v>
+        <v>214615</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="T253" t="n">
         <v>450</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N254" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O254" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P254" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T254" t="n">
         <v>450</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N255" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="O255" t="n">
-        <v>260000</v>
+        <v>430000</v>
       </c>
       <c r="P255" t="n">
-        <v>255000</v>
+        <v>415000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>567</v>
+        <v>922</v>
       </c>
       <c r="T255" t="n">
         <v>450</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N256" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O256" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P256" t="n">
-        <v>220000</v>
+        <v>245000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="T256" t="n">
         <v>450</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N257" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O257" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P257" t="n">
-        <v>319655</v>
+        <v>200000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>710</v>
+        <v>444</v>
       </c>
       <c r="T257" t="n">
         <v>450</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N258" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="O258" t="n">
-        <v>370000</v>
+        <v>260000</v>
       </c>
       <c r="P258" t="n">
-        <v>362000</v>
+        <v>255000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>804</v>
+        <v>567</v>
       </c>
       <c r="T258" t="n">
         <v>450</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N259" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O259" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P259" t="n">
-        <v>256818</v>
+        <v>220000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>571</v>
+        <v>489</v>
       </c>
       <c r="T259" t="n">
         <v>450</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N260" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O260" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P260" t="n">
-        <v>210000</v>
+        <v>319655</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>467</v>
+        <v>710</v>
       </c>
       <c r="T260" t="n">
         <v>450</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="O261" t="n">
-        <v>140000</v>
+        <v>370000</v>
       </c>
       <c r="P261" t="n">
-        <v>140000</v>
+        <v>362000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>311</v>
+        <v>804</v>
       </c>
       <c r="T261" t="n">
         <v>450</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -21320,36 +21320,36 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="N262" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O262" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P262" t="n">
-        <v>12000</v>
+        <v>256818</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1200</v>
+        <v>571</v>
       </c>
       <c r="T262" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N263" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O263" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P263" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T263" t="n">
         <v>450</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -21487,13 +21487,13 @@
         <v>8</v>
       </c>
       <c r="N264" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O264" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P264" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T264" t="n">
         <v>450</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -21564,32 +21564,32 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N265" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="O265" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="P265" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>711</v>
+        <v>1200</v>
       </c>
       <c r="T265" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N266" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="O266" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="P266" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>822</v>
+        <v>556</v>
       </c>
       <c r="T266" t="n">
         <v>450</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N267" t="n">
-        <v>280000</v>
+        <v>120000</v>
       </c>
       <c r="O267" t="n">
-        <v>290000</v>
+        <v>120000</v>
       </c>
       <c r="P267" t="n">
-        <v>285000</v>
+        <v>120000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>633</v>
+        <v>267</v>
       </c>
       <c r="T267" t="n">
         <v>450</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N268" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O268" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P268" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T268" t="n">
         <v>450</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N269" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="O269" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="P269" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>578</v>
+        <v>822</v>
       </c>
       <c r="T269" t="n">
         <v>450</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N270" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O270" t="n">
-        <v>220000</v>
+        <v>290000</v>
       </c>
       <c r="P270" t="n">
-        <v>220000</v>
+        <v>285000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21982,11 +21982,11 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>489</v>
+        <v>633</v>
       </c>
       <c r="T270" t="n">
         <v>450</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44434</v>
+        <v>44335</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="N271" t="n">
-        <v>8500</v>
+        <v>240000</v>
       </c>
       <c r="O271" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="P271" t="n">
-        <v>8750</v>
+        <v>240000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>875</v>
+        <v>533</v>
       </c>
       <c r="T271" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N272" t="n">
-        <v>420000</v>
+        <v>260000</v>
       </c>
       <c r="O272" t="n">
-        <v>420000</v>
+        <v>260000</v>
       </c>
       <c r="P272" t="n">
-        <v>420000</v>
+        <v>260000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>933</v>
+        <v>578</v>
       </c>
       <c r="T272" t="n">
         <v>450</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -22200,36 +22200,36 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>275</v>
+        <v>4</v>
       </c>
       <c r="N273" t="n">
-        <v>7000</v>
+        <v>220000</v>
       </c>
       <c r="O273" t="n">
-        <v>7000</v>
+        <v>220000</v>
       </c>
       <c r="P273" t="n">
-        <v>7000</v>
+        <v>220000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>700</v>
+        <v>489</v>
       </c>
       <c r="T273" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="274">
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="N274" t="n">
-        <v>230000</v>
+        <v>8500</v>
       </c>
       <c r="O274" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="P274" t="n">
-        <v>240000</v>
+        <v>8750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>533</v>
+        <v>875</v>
       </c>
       <c r="T274" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275">
@@ -22360,24 +22360,24 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="O275" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="P275" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>500</v>
+        <v>933</v>
       </c>
       <c r="T275" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276">
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="N276" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="O276" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="P276" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="T276" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="N277" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O277" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P277" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="T277" t="n">
         <v>450</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="N278" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="O278" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="P278" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T278" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N279" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O279" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P279" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T279" t="n">
         <v>450</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N280" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O280" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="P280" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>444</v>
+        <v>711</v>
       </c>
       <c r="T280" t="n">
         <v>450</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N281" t="n">
         <v>400000</v>
@@ -22862,7 +22862,7 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S281" t="n">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N282" t="n">
         <v>240000</v>
       </c>
       <c r="O282" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P282" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22942,11 +22942,11 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T282" t="n">
         <v>450</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N283" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O283" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P283" t="n">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="T283" t="n">
         <v>450</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N284" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O284" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="P284" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23102,11 +23102,11 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="T284" t="n">
         <v>450</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N285" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O285" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="P285" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="T285" t="n">
         <v>450</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N286" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O286" t="n">
         <v>250000</v>
       </c>
-      <c r="O286" t="n">
-        <v>260000</v>
-      </c>
       <c r="P286" t="n">
-        <v>255000</v>
+        <v>245000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="T286" t="n">
         <v>450</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N287" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O287" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P287" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T287" t="n">
         <v>450</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N288" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O288" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="P288" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23422,11 +23422,11 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T288" t="n">
         <v>450</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N289" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O289" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P289" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T289" t="n">
         <v>450</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N290" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O290" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P290" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="T290" t="n">
         <v>450</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -23647,13 +23647,13 @@
         <v>15</v>
       </c>
       <c r="N291" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O291" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P291" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T291" t="n">
         <v>450</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -23724,32 +23724,32 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N292" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O292" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P292" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1000</v>
+        <v>489</v>
       </c>
       <c r="T292" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -23807,13 +23807,13 @@
         <v>15</v>
       </c>
       <c r="N293" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O293" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P293" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="T293" t="n">
         <v>450</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>15</v>
       </c>
       <c r="N294" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O294" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P294" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T294" t="n">
         <v>450</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N295" t="n">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="O295" t="n">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="P295" t="n">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T295" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N296" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O296" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P296" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T296" t="n">
         <v>450</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N297" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O297" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P297" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T297" t="n">
         <v>450</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N298" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="O298" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="P298" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>578</v>
+        <v>889</v>
       </c>
       <c r="T298" t="n">
         <v>450</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N299" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O299" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P299" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="T299" t="n">
         <v>450</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N300" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O300" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P300" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T300" t="n">
         <v>450</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N301" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O301" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P301" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="T301" t="n">
         <v>450</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N302" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O302" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P302" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T302" t="n">
         <v>450</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N303" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="O303" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P303" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="T303" t="n">
         <v>450</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N304" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O304" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P304" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T304" t="n">
         <v>450</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N305" t="n">
         <v>200000</v>
       </c>
       <c r="O305" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P305" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T305" t="n">
         <v>450</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N306" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="O306" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P306" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>400</v>
+        <v>689</v>
       </c>
       <c r="T306" t="n">
         <v>450</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N307" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O307" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P307" t="n">
-        <v>335000</v>
+        <v>280000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>744</v>
+        <v>622</v>
       </c>
       <c r="T307" t="n">
         <v>450</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N308" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O308" t="n">
-        <v>420000</v>
+        <v>230000</v>
       </c>
       <c r="P308" t="n">
-        <v>410000</v>
+        <v>225000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>911</v>
+        <v>500</v>
       </c>
       <c r="T308" t="n">
         <v>450</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N309" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O309" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P309" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T309" t="n">
         <v>450</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N310" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O310" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="P310" t="n">
-        <v>200000</v>
+        <v>335000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>444</v>
+        <v>744</v>
       </c>
       <c r="T310" t="n">
         <v>450</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N311" t="n">
-        <v>11000</v>
+        <v>400000</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>420000</v>
       </c>
       <c r="P311" t="n">
-        <v>11500</v>
+        <v>410000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1150</v>
+        <v>911</v>
       </c>
       <c r="T311" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O312" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P312" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>711</v>
+        <v>556</v>
       </c>
       <c r="T312" t="n">
         <v>450</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N313" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O313" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="P313" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T313" t="n">
         <v>450</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N314" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O314" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P314" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>750</v>
+        <v>1150</v>
       </c>
       <c r="T314" t="n">
         <v>10</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N315" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O315" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P315" t="n">
-        <v>265000</v>
+        <v>320000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="T315" t="n">
         <v>450</v>
@@ -25640,24 +25640,24 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="N316" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="O316" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="P316" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="T316" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25724,20 +25724,20 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="N317" t="n">
-        <v>500000</v>
+        <v>7000</v>
       </c>
       <c r="O317" t="n">
-        <v>500000</v>
+        <v>8000</v>
       </c>
       <c r="P317" t="n">
-        <v>500000</v>
+        <v>7500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1111</v>
+        <v>750</v>
       </c>
       <c r="T317" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N318" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O318" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P318" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T318" t="n">
         <v>450</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="N319" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="O319" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="P319" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>578</v>
+        <v>500</v>
       </c>
       <c r="T319" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N320" t="n">
-        <v>220000</v>
+        <v>500000</v>
       </c>
       <c r="O320" t="n">
-        <v>220000</v>
+        <v>500000</v>
       </c>
       <c r="P320" t="n">
-        <v>220000</v>
+        <v>500000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>489</v>
+        <v>1111</v>
       </c>
       <c r="T320" t="n">
         <v>450</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N321" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O321" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P321" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T321" t="n">
         <v>450</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N322" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="O322" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P322" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>756</v>
+        <v>578</v>
       </c>
       <c r="T322" t="n">
         <v>450</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N323" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O323" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P323" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="T323" t="n">
         <v>450</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N324" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O324" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P324" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T324" t="n">
         <v>450</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N325" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="O325" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P325" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26382,11 +26382,11 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>622</v>
+        <v>756</v>
       </c>
       <c r="T325" t="n">
         <v>450</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N326" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="O326" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P326" t="n">
-        <v>320000</v>
+        <v>235000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>711</v>
+        <v>522</v>
       </c>
       <c r="T326" t="n">
         <v>450</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O327" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P327" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26542,11 +26542,11 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="T327" t="n">
         <v>450</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N328" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O328" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P328" t="n">
-        <v>245000</v>
+        <v>280000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26622,11 +26622,11 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="T328" t="n">
         <v>450</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N329" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="O329" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P329" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26702,11 +26702,11 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T329" t="n">
         <v>450</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N330" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O330" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P330" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26782,11 +26782,11 @@
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="T330" t="n">
         <v>450</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N331" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O331" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="P331" t="n">
-        <v>160000</v>
+        <v>245000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26862,11 +26862,11 @@
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>356</v>
+        <v>544</v>
       </c>
       <c r="T331" t="n">
         <v>450</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N332" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="O332" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="P332" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26942,11 +26942,11 @@
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T332" t="n">
         <v>450</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N333" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O333" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P333" t="n">
-        <v>315000</v>
+        <v>210000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T333" t="n">
         <v>450</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N334" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O334" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P334" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27102,11 +27102,11 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T334" t="n">
         <v>450</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N335" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="O335" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="P335" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T335" t="n">
         <v>450</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N336" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O336" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P336" t="n">
-        <v>270000</v>
+        <v>315000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T336" t="n">
         <v>450</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N337" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O337" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P337" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T337" t="n">
         <v>450</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N338" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O338" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P338" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T338" t="n">
         <v>450</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N339" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O339" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P339" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T339" t="n">
         <v>450</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N340" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O340" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P340" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27582,11 +27582,11 @@
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O341" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P341" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N342" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O342" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P342" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N343" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O343" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P343" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27822,11 +27822,11 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T343" t="n">
         <v>450</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N344" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O344" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P344" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="T344" t="n">
         <v>450</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N345" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O345" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P345" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27982,11 +27982,11 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T345" t="n">
         <v>450</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N346" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="O346" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P346" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="T346" t="n">
         <v>450</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N347" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O347" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P347" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T347" t="n">
         <v>450</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N348" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O348" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="P348" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T348" t="n">
         <v>450</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="N349" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="O349" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="P349" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T349" t="n">
         <v>450</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N350" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O350" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P350" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T350" t="n">
         <v>450</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M351" t="n">
         <v>15</v>
       </c>
       <c r="N351" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="O351" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="P351" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="T351" t="n">
         <v>450</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N352" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="O352" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P352" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>956</v>
+        <v>600</v>
       </c>
       <c r="T352" t="n">
         <v>450</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N353" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O353" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P353" t="n">
-        <v>315000</v>
+        <v>230000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>700</v>
+        <v>511</v>
       </c>
       <c r="T353" t="n">
         <v>450</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N354" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O354" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P354" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T354" t="n">
         <v>450</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28755,25 +28755,25 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N355" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="O355" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P355" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>667</v>
+        <v>956</v>
       </c>
       <c r="T355" t="n">
         <v>450</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N356" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O356" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P356" t="n">
-        <v>260000</v>
+        <v>315000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>578</v>
+        <v>700</v>
       </c>
       <c r="T356" t="n">
         <v>450</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N357" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O357" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P357" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T357" t="n">
         <v>450</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -29004,20 +29004,20 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N358" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="O358" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="P358" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T358" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N359" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O359" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P359" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T359" t="n">
         <v>450</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29160,24 +29160,24 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P360" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T360" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="361">
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="N361" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O361" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P361" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T361" t="n">
         <v>10</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N362" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O362" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P362" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T362" t="n">
         <v>450</v>
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="N363" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>511</v>
+        <v>1200</v>
       </c>
       <c r="T363" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364">
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="N364" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O364" t="n">
-        <v>200000</v>
+        <v>9000</v>
       </c>
       <c r="P364" t="n">
-        <v>200000</v>
+        <v>8500</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>444</v>
+        <v>850</v>
       </c>
       <c r="T364" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N365" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O365" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P365" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T365" t="n">
         <v>450</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M366" t="n">
         <v>15</v>
       </c>
       <c r="N366" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="O366" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="P366" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>956</v>
+        <v>511</v>
       </c>
       <c r="T366" t="n">
         <v>450</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N367" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O367" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P367" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T367" t="n">
         <v>450</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N368" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O368" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P368" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T368" t="n">
         <v>450</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M369" t="n">
         <v>15</v>
       </c>
       <c r="N369" t="n">
-        <v>340000</v>
+        <v>430000</v>
       </c>
       <c r="O369" t="n">
-        <v>340000</v>
+        <v>430000</v>
       </c>
       <c r="P369" t="n">
-        <v>340000</v>
+        <v>430000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>756</v>
+        <v>956</v>
       </c>
       <c r="T369" t="n">
         <v>450</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N370" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O370" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="P370" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T370" t="n">
         <v>450</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N371" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O371" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P371" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T371" t="n">
         <v>450</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N372" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="O372" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="P372" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30142,11 +30142,11 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="T372" t="n">
         <v>450</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N373" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="O373" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="P373" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>711</v>
+        <v>867</v>
       </c>
       <c r="T373" t="n">
         <v>450</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N374" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O374" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P374" t="n">
-        <v>265000</v>
+        <v>300000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30302,11 +30302,11 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="T374" t="n">
         <v>450</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,32 +30364,32 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N375" t="n">
-        <v>9000</v>
+        <v>330000</v>
       </c>
       <c r="O375" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="P375" t="n">
-        <v>9500</v>
+        <v>330000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>950</v>
+        <v>733</v>
       </c>
       <c r="T375" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N376" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="O376" t="n">
-        <v>430000</v>
+        <v>320000</v>
       </c>
       <c r="P376" t="n">
-        <v>415000</v>
+        <v>320000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>922</v>
+        <v>711</v>
       </c>
       <c r="T376" t="n">
         <v>450</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30524,32 +30524,32 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>470</v>
+        <v>18</v>
       </c>
       <c r="N377" t="n">
-        <v>7000</v>
+        <v>260000</v>
       </c>
       <c r="O377" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P377" t="n">
-        <v>7500</v>
+        <v>265000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>750</v>
+        <v>589</v>
       </c>
       <c r="T377" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="378">
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N378" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O378" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P378" t="n">
-        <v>255000</v>
+        <v>9500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="T378" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379">
@@ -30680,24 +30680,24 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="N379" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="O379" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="P379" t="n">
-        <v>5000</v>
+        <v>415000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="T379" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="380">
@@ -30760,24 +30760,24 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="N380" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O380" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P380" t="n">
-        <v>200000</v>
+        <v>7500</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T380" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N381" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O381" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P381" t="n">
-        <v>300000</v>
+        <v>255000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="T381" t="n">
         <v>450</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,24 +30920,24 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="N382" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="O382" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="P382" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T382" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N383" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O383" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P383" t="n">
-        <v>255455</v>
+        <v>200000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>568</v>
+        <v>444</v>
       </c>
       <c r="T383" t="n">
         <v>450</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N384" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O384" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P384" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>489</v>
+        <v>667</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="N385" t="n">
-        <v>8500</v>
+        <v>380000</v>
       </c>
       <c r="O385" t="n">
-        <v>9000</v>
+        <v>380000</v>
       </c>
       <c r="P385" t="n">
-        <v>8750</v>
+        <v>380000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N386" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O386" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P386" t="n">
-        <v>297872</v>
+        <v>255455</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>662</v>
+        <v>568</v>
       </c>
       <c r="T386" t="n">
         <v>450</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N387" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="O387" t="n">
-        <v>420000</v>
+        <v>220000</v>
       </c>
       <c r="P387" t="n">
-        <v>408810</v>
+        <v>220000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>908</v>
+        <v>489</v>
       </c>
       <c r="T387" t="n">
         <v>450</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="N388" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O388" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P388" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>700</v>
+        <v>875</v>
       </c>
       <c r="T388" t="n">
         <v>10</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="N389" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O389" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P389" t="n">
-        <v>249561</v>
+        <v>297872</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>555</v>
+        <v>662</v>
       </c>
       <c r="T389" t="n">
         <v>450</v>
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="N390" t="n">
-        <v>5000</v>
+        <v>380000</v>
       </c>
       <c r="O390" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="P390" t="n">
-        <v>5000</v>
+        <v>408810</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>500</v>
+        <v>908</v>
       </c>
       <c r="T390" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="391">
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="N391" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="O391" t="n">
-        <v>220000</v>
+        <v>7000</v>
       </c>
       <c r="P391" t="n">
-        <v>215606</v>
+        <v>7000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>479</v>
+        <v>700</v>
       </c>
       <c r="T391" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="N392" t="n">
-        <v>360000</v>
+        <v>230000</v>
       </c>
       <c r="O392" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="P392" t="n">
-        <v>360000</v>
+        <v>249561</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>800</v>
+        <v>555</v>
       </c>
       <c r="T392" t="n">
         <v>450</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N393" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="O393" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="P393" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="T393" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N394" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O394" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P394" t="n">
-        <v>290000</v>
+        <v>215606</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>644</v>
+        <v>479</v>
       </c>
       <c r="T394" t="n">
         <v>450</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N395" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="O395" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P395" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T395" t="n">
         <v>450</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N396" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="O396" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="P396" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32062,11 +32062,11 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T396" t="n">
         <v>450</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N397" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O397" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="P397" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32142,11 +32142,11 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T397" t="n">
         <v>450</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N398" t="n">
         <v>240000</v>
       </c>
       <c r="O398" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P398" t="n">
-        <v>245000</v>
+        <v>240000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="T398" t="n">
         <v>450</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
         <v>12</v>
       </c>
       <c r="N399" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O399" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P399" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T399" t="n">
         <v>450</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,36 +32360,36 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N400" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P400" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T400" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N401" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O401" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P401" t="n">
-        <v>12000</v>
+        <v>245000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1200</v>
+        <v>544</v>
       </c>
       <c r="T401" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,24 +32520,24 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="N402" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O402" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P402" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T402" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="403">
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N403" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O403" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T403" t="n">
         <v>10</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N404" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>355000</v>
+        <v>12000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>789</v>
+        <v>1200</v>
       </c>
       <c r="T404" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,24 +32760,24 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="N405" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="O405" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,10 +32786,10 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T405" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="N406" t="n">
-        <v>300000</v>
+        <v>6000</v>
       </c>
       <c r="O406" t="n">
-        <v>330000</v>
+        <v>6000</v>
       </c>
       <c r="P406" t="n">
-        <v>315000</v>
+        <v>6000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T406" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407">
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
         <v>20</v>
       </c>
       <c r="N407" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O407" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="P407" t="n">
-        <v>250000</v>
+        <v>355000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>556</v>
+        <v>789</v>
       </c>
       <c r="T407" t="n">
         <v>450</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44399</v>
+        <v>44314</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N408" t="n">
-        <v>380000</v>
+        <v>400000</v>
       </c>
       <c r="O408" t="n">
-        <v>380000</v>
+        <v>400000</v>
       </c>
       <c r="P408" t="n">
-        <v>380000</v>
+        <v>400000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>844</v>
+        <v>889</v>
       </c>
       <c r="T408" t="n">
         <v>450</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44399</v>
+        <v>44314</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N409" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O409" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P409" t="n">
-        <v>235000</v>
+        <v>315000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>522</v>
+        <v>700</v>
       </c>
       <c r="T409" t="n">
         <v>450</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44399</v>
+        <v>44314</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N410" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O410" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P410" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T410" t="n">
         <v>450</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N411" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="O411" t="n">
-        <v>8500</v>
+        <v>380000</v>
       </c>
       <c r="P411" t="n">
-        <v>8250</v>
+        <v>380000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="T411" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,24 +33320,24 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="N412" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="O412" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="P412" t="n">
-        <v>9500</v>
+        <v>235000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>950</v>
+        <v>522</v>
       </c>
       <c r="T412" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N413" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="O413" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="P413" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>844</v>
+        <v>444</v>
       </c>
       <c r="T413" t="n">
         <v>450</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N414" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O414" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P414" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="T414" t="n">
         <v>10</v>
@@ -33560,24 +33560,24 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N415" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O415" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P415" t="n">
-        <v>255000</v>
+        <v>9500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="T415" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416">
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="N416" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="O416" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="P416" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>450</v>
+        <v>844</v>
       </c>
       <c r="T416" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="417">
@@ -33720,35 +33720,275 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M417" t="n">
+        <v>250</v>
+      </c>
+      <c r="N417" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O417" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P417" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S417" t="n">
+        <v>650</v>
+      </c>
+      <c r="T417" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>6</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D418" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E418" t="n">
+        <v>13</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G418" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M418" t="n">
+        <v>24</v>
+      </c>
+      <c r="N418" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O418" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P418" t="n">
+        <v>255000</v>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S418" t="n">
+        <v>567</v>
+      </c>
+      <c r="T418" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>6</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D419" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E419" t="n">
+        <v>13</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M417" t="n">
+      <c r="M419" t="n">
+        <v>175</v>
+      </c>
+      <c r="N419" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O419" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P419" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S419" t="n">
+        <v>450</v>
+      </c>
+      <c r="T419" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>6</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D420" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E420" t="n">
+        <v>13</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M420" t="n">
         <v>15</v>
       </c>
-      <c r="N417" t="n">
+      <c r="N420" t="n">
         <v>210000</v>
       </c>
-      <c r="O417" t="n">
+      <c r="O420" t="n">
         <v>210000</v>
       </c>
-      <c r="P417" t="n">
+      <c r="P420" t="n">
         <v>210000</v>
       </c>
-      <c r="Q417" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R417" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S417" t="n">
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S420" t="n">
         <v>467</v>
       </c>
-      <c r="T417" t="n">
+      <c r="T420" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T420"/>
+  <dimension ref="A1:T424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N411" t="n">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="O411" t="n">
-        <v>380000</v>
+        <v>330000</v>
       </c>
       <c r="P411" t="n">
-        <v>380000</v>
+        <v>325000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>844</v>
+        <v>722</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N412" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="O412" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="P412" t="n">
-        <v>235000</v>
+        <v>420000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>522</v>
+        <v>933</v>
       </c>
       <c r="T412" t="n">
         <v>450</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N413" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O413" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P413" t="n">
-        <v>200000</v>
+        <v>255000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>444</v>
+        <v>567</v>
       </c>
       <c r="T413" t="n">
         <v>450</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,24 +33480,24 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N414" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="O414" t="n">
-        <v>8500</v>
+        <v>220000</v>
       </c>
       <c r="P414" t="n">
-        <v>8250</v>
+        <v>220000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>825</v>
+        <v>489</v>
       </c>
       <c r="T414" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N415" t="n">
-        <v>9000</v>
+        <v>380000</v>
       </c>
       <c r="O415" t="n">
-        <v>10000</v>
+        <v>380000</v>
       </c>
       <c r="P415" t="n">
-        <v>9500</v>
+        <v>380000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>950</v>
+        <v>844</v>
       </c>
       <c r="T415" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N416" t="n">
-        <v>380000</v>
+        <v>230000</v>
       </c>
       <c r="O416" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="P416" t="n">
-        <v>380000</v>
+        <v>235000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>844</v>
+        <v>522</v>
       </c>
       <c r="T416" t="n">
         <v>450</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,24 +33720,24 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="N417" t="n">
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="O417" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="P417" t="n">
-        <v>6500</v>
+        <v>200000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>650</v>
+        <v>444</v>
       </c>
       <c r="T417" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="418">
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="N418" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O418" t="n">
-        <v>260000</v>
+        <v>8500</v>
       </c>
       <c r="P418" t="n">
-        <v>255000</v>
+        <v>8250</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,10 +33826,10 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>567</v>
+        <v>825</v>
       </c>
       <c r="T418" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N419" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O419" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P419" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="T419" t="n">
         <v>10</v>
@@ -33960,35 +33960,355 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M420" t="n">
         <v>15</v>
       </c>
       <c r="N420" t="n">
+        <v>380000</v>
+      </c>
+      <c r="O420" t="n">
+        <v>380000</v>
+      </c>
+      <c r="P420" t="n">
+        <v>380000</v>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S420" t="n">
+        <v>844</v>
+      </c>
+      <c r="T420" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>6</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E421" t="n">
+        <v>13</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M421" t="n">
+        <v>250</v>
+      </c>
+      <c r="N421" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O421" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P421" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S421" t="n">
+        <v>650</v>
+      </c>
+      <c r="T421" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>6</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D422" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E422" t="n">
+        <v>13</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M422" t="n">
+        <v>24</v>
+      </c>
+      <c r="N422" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O422" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P422" t="n">
+        <v>255000</v>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S422" t="n">
+        <v>567</v>
+      </c>
+      <c r="T422" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>6</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D423" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E423" t="n">
+        <v>13</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M423" t="n">
+        <v>175</v>
+      </c>
+      <c r="N423" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O423" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P423" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S423" t="n">
+        <v>450</v>
+      </c>
+      <c r="T423" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>6</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D424" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E424" t="n">
+        <v>13</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M424" t="n">
+        <v>15</v>
+      </c>
+      <c r="N424" t="n">
         <v>210000</v>
       </c>
-      <c r="O420" t="n">
+      <c r="O424" t="n">
         <v>210000</v>
       </c>
-      <c r="P420" t="n">
+      <c r="P424" t="n">
         <v>210000</v>
       </c>
-      <c r="Q420" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R420" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S420" t="n">
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S424" t="n">
         <v>467</v>
       </c>
-      <c r="T420" t="n">
+      <c r="T424" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T424"/>
+  <dimension ref="A1:T427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30604,20 +30604,20 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N378" t="n">
-        <v>9000</v>
+        <v>330000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="P378" t="n">
-        <v>9500</v>
+        <v>330000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>950</v>
+        <v>733</v>
       </c>
       <c r="T378" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N379" t="n">
-        <v>400000</v>
+        <v>250000</v>
       </c>
       <c r="O379" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="P379" t="n">
-        <v>415000</v>
+        <v>255000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>922</v>
+        <v>567</v>
       </c>
       <c r="T379" t="n">
         <v>450</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,24 +30760,24 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="N380" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="O380" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="P380" t="n">
-        <v>7500</v>
+        <v>210000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>750</v>
+        <v>467</v>
       </c>
       <c r="T380" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="381">
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N381" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O381" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>255000</v>
+        <v>9500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="T381" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382">
@@ -30920,24 +30920,24 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="N382" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="O382" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="P382" t="n">
-        <v>5000</v>
+        <v>415000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="T382" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="383">
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="N383" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O383" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P383" t="n">
-        <v>200000</v>
+        <v>7500</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T383" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N384" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O384" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P384" t="n">
-        <v>300000</v>
+        <v>255000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="N385" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="O385" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="P385" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T385" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N386" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O386" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P386" t="n">
-        <v>255455</v>
+        <v>200000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>568</v>
+        <v>444</v>
       </c>
       <c r="T386" t="n">
         <v>450</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N387" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O387" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P387" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>489</v>
+        <v>667</v>
       </c>
       <c r="T387" t="n">
         <v>450</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="N388" t="n">
-        <v>8500</v>
+        <v>380000</v>
       </c>
       <c r="O388" t="n">
-        <v>9000</v>
+        <v>380000</v>
       </c>
       <c r="P388" t="n">
-        <v>8750</v>
+        <v>380000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="T388" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N389" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O389" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P389" t="n">
-        <v>297872</v>
+        <v>255455</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>662</v>
+        <v>568</v>
       </c>
       <c r="T389" t="n">
         <v>450</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N390" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="O390" t="n">
-        <v>420000</v>
+        <v>220000</v>
       </c>
       <c r="P390" t="n">
-        <v>408810</v>
+        <v>220000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>908</v>
+        <v>489</v>
       </c>
       <c r="T390" t="n">
         <v>450</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="N391" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O391" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P391" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>700</v>
+        <v>875</v>
       </c>
       <c r="T391" t="n">
         <v>10</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="N392" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O392" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P392" t="n">
-        <v>249561</v>
+        <v>297872</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>555</v>
+        <v>662</v>
       </c>
       <c r="T392" t="n">
         <v>450</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="N393" t="n">
-        <v>5000</v>
+        <v>380000</v>
       </c>
       <c r="O393" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="P393" t="n">
-        <v>5000</v>
+        <v>408810</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>500</v>
+        <v>908</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="394">
@@ -31880,24 +31880,24 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="N394" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="O394" t="n">
-        <v>220000</v>
+        <v>7000</v>
       </c>
       <c r="P394" t="n">
-        <v>215606</v>
+        <v>7000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>479</v>
+        <v>700</v>
       </c>
       <c r="T394" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="N395" t="n">
-        <v>360000</v>
+        <v>230000</v>
       </c>
       <c r="O395" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="P395" t="n">
-        <v>360000</v>
+        <v>249561</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>800</v>
+        <v>555</v>
       </c>
       <c r="T395" t="n">
         <v>450</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N396" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="O396" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="P396" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="T396" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N397" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O397" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P397" t="n">
-        <v>290000</v>
+        <v>215606</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>644</v>
+        <v>479</v>
       </c>
       <c r="T397" t="n">
         <v>450</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N398" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="O398" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P398" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T398" t="n">
         <v>450</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N399" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="O399" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="P399" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T399" t="n">
         <v>450</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N400" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O400" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="P400" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T400" t="n">
         <v>450</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N401" t="n">
         <v>240000</v>
       </c>
       <c r="O401" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P401" t="n">
-        <v>245000</v>
+        <v>240000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="T401" t="n">
         <v>450</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
         <v>12</v>
       </c>
       <c r="N402" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O402" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P402" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32542,11 +32542,11 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T402" t="n">
         <v>450</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,36 +32600,36 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N403" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P403" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T403" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>245000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1200</v>
+        <v>544</v>
       </c>
       <c r="T404" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,24 +32760,24 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="N405" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O405" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P405" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,10 +32786,10 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="406">
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N406" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O406" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T406" t="n">
         <v>10</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,24 +32920,24 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N407" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O407" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>355000</v>
+        <v>12000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,10 +32946,10 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>789</v>
+        <v>1200</v>
       </c>
       <c r="T407" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,24 +33000,24 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="N408" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="O408" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="P408" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T408" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,24 +33080,24 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="N409" t="n">
-        <v>300000</v>
+        <v>6000</v>
       </c>
       <c r="O409" t="n">
-        <v>330000</v>
+        <v>6000</v>
       </c>
       <c r="P409" t="n">
-        <v>315000</v>
+        <v>6000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T409" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410">
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
         <v>20</v>
       </c>
       <c r="N410" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O410" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="P410" t="n">
-        <v>250000</v>
+        <v>355000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>556</v>
+        <v>789</v>
       </c>
       <c r="T410" t="n">
         <v>450</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N411" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="O411" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="P411" t="n">
-        <v>325000</v>
+        <v>400000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N412" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="O412" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P412" t="n">
-        <v>420000</v>
+        <v>315000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T412" t="n">
         <v>450</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N413" t="n">
         <v>250000</v>
       </c>
       <c r="O413" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P413" t="n">
-        <v>255000</v>
+        <v>250000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="T413" t="n">
         <v>450</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
         <v>20</v>
       </c>
       <c r="N414" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="O414" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P414" t="n">
-        <v>220000</v>
+        <v>325000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>489</v>
+        <v>722</v>
       </c>
       <c r="T414" t="n">
         <v>450</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33567,13 +33567,13 @@
         <v>15</v>
       </c>
       <c r="N415" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="O415" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="P415" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>844</v>
+        <v>933</v>
       </c>
       <c r="T415" t="n">
         <v>450</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N416" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O416" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P416" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="T416" t="n">
         <v>450</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N417" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O417" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P417" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N418" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="O418" t="n">
-        <v>8500</v>
+        <v>380000</v>
       </c>
       <c r="P418" t="n">
-        <v>8250</v>
+        <v>380000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,10 +33826,10 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="T418" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,24 +33880,24 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="N419" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="O419" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="P419" t="n">
-        <v>9500</v>
+        <v>235000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,10 +33906,10 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>950</v>
+        <v>522</v>
       </c>
       <c r="T419" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="420">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N420" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="O420" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="P420" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>844</v>
+        <v>444</v>
       </c>
       <c r="T420" t="n">
         <v>450</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N421" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O421" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P421" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="T421" t="n">
         <v>10</v>
@@ -34120,24 +34120,24 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N422" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O422" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P422" t="n">
-        <v>255000</v>
+        <v>9500</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,10 +34146,10 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="T422" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423">
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="N423" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="O423" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="P423" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,10 +34226,10 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>450</v>
+        <v>844</v>
       </c>
       <c r="T423" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="424">
@@ -34280,35 +34280,275 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M424" t="n">
+        <v>250</v>
+      </c>
+      <c r="N424" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O424" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P424" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S424" t="n">
+        <v>650</v>
+      </c>
+      <c r="T424" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>6</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D425" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E425" t="n">
+        <v>13</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M425" t="n">
+        <v>24</v>
+      </c>
+      <c r="N425" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O425" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P425" t="n">
+        <v>255000</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S425" t="n">
+        <v>567</v>
+      </c>
+      <c r="T425" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>6</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E426" t="n">
+        <v>13</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M424" t="n">
+      <c r="M426" t="n">
+        <v>175</v>
+      </c>
+      <c r="N426" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O426" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P426" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S426" t="n">
+        <v>450</v>
+      </c>
+      <c r="T426" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>6</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E427" t="n">
+        <v>13</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M427" t="n">
         <v>15</v>
       </c>
-      <c r="N424" t="n">
+      <c r="N427" t="n">
         <v>210000</v>
       </c>
-      <c r="O424" t="n">
+      <c r="O427" t="n">
         <v>210000</v>
       </c>
-      <c r="P424" t="n">
+      <c r="P427" t="n">
         <v>210000</v>
       </c>
-      <c r="Q424" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R424" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S424" t="n">
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S427" t="n">
         <v>467</v>
       </c>
-      <c r="T424" t="n">
+      <c r="T427" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T427"/>
+  <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -19964,32 +19964,32 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N245" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="O245" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="P245" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T245" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -20040,36 +20040,36 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N246" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O246" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P246" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T246" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N247" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O247" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P247" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>511</v>
+        <v>333</v>
       </c>
       <c r="T247" t="n">
         <v>450</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N248" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O248" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P248" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T248" t="n">
         <v>10</v>
@@ -20280,36 +20280,36 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
+        <v>200</v>
+      </c>
+      <c r="N249" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O249" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P249" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S249" t="n">
+        <v>800</v>
+      </c>
+      <c r="T249" t="n">
         <v>10</v>
-      </c>
-      <c r="N249" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O249" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P249" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q249" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R249" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S249" t="n">
-        <v>444</v>
-      </c>
-      <c r="T249" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N250" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O250" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P250" t="n">
-        <v>295238</v>
+        <v>230000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>656</v>
+        <v>511</v>
       </c>
       <c r="T250" t="n">
         <v>450</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -20440,24 +20440,24 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N251" t="n">
-        <v>400000</v>
+        <v>6000</v>
       </c>
       <c r="O251" t="n">
-        <v>420000</v>
+        <v>6000</v>
       </c>
       <c r="P251" t="n">
-        <v>410000</v>
+        <v>6000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>911</v>
+        <v>600</v>
       </c>
       <c r="T251" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N252" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O252" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P252" t="n">
-        <v>250250</v>
+        <v>200000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T252" t="n">
         <v>450</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N253" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O253" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P253" t="n">
-        <v>214615</v>
+        <v>295238</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>477</v>
+        <v>656</v>
       </c>
       <c r="T253" t="n">
         <v>450</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N254" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="O254" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="P254" t="n">
-        <v>300000</v>
+        <v>410000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>667</v>
+        <v>911</v>
       </c>
       <c r="T254" t="n">
         <v>450</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N255" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O255" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="P255" t="n">
-        <v>415000</v>
+        <v>250250</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>922</v>
+        <v>556</v>
       </c>
       <c r="T255" t="n">
         <v>450</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N256" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O256" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P256" t="n">
-        <v>245000</v>
+        <v>214615</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="T256" t="n">
         <v>450</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N257" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O257" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P257" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T257" t="n">
         <v>450</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N258" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="O258" t="n">
-        <v>260000</v>
+        <v>430000</v>
       </c>
       <c r="P258" t="n">
-        <v>255000</v>
+        <v>415000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>567</v>
+        <v>922</v>
       </c>
       <c r="T258" t="n">
         <v>450</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N259" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O259" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P259" t="n">
-        <v>220000</v>
+        <v>245000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="T259" t="n">
         <v>450</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N260" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O260" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P260" t="n">
-        <v>319655</v>
+        <v>200000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>710</v>
+        <v>444</v>
       </c>
       <c r="T260" t="n">
         <v>450</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N261" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="O261" t="n">
-        <v>370000</v>
+        <v>260000</v>
       </c>
       <c r="P261" t="n">
-        <v>362000</v>
+        <v>255000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>804</v>
+        <v>567</v>
       </c>
       <c r="T261" t="n">
         <v>450</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N262" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O262" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P262" t="n">
-        <v>256818</v>
+        <v>220000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>571</v>
+        <v>489</v>
       </c>
       <c r="T262" t="n">
         <v>450</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N263" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O263" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P263" t="n">
-        <v>210000</v>
+        <v>319655</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>467</v>
+        <v>710</v>
       </c>
       <c r="T263" t="n">
         <v>450</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N264" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="O264" t="n">
-        <v>140000</v>
+        <v>370000</v>
       </c>
       <c r="P264" t="n">
-        <v>140000</v>
+        <v>362000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>311</v>
+        <v>804</v>
       </c>
       <c r="T264" t="n">
         <v>450</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -21560,36 +21560,36 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="N265" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O265" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P265" t="n">
-        <v>12000</v>
+        <v>256818</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1200</v>
+        <v>571</v>
       </c>
       <c r="T265" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N266" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O266" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P266" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T266" t="n">
         <v>450</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -21727,13 +21727,13 @@
         <v>8</v>
       </c>
       <c r="N267" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O267" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P267" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T267" t="n">
         <v>450</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -21804,32 +21804,32 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="N268" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="O268" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="P268" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>711</v>
+        <v>1200</v>
       </c>
       <c r="T268" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N269" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="O269" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="P269" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>822</v>
+        <v>556</v>
       </c>
       <c r="T269" t="n">
         <v>450</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N270" t="n">
-        <v>280000</v>
+        <v>120000</v>
       </c>
       <c r="O270" t="n">
-        <v>290000</v>
+        <v>120000</v>
       </c>
       <c r="P270" t="n">
-        <v>285000</v>
+        <v>120000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>633</v>
+        <v>267</v>
       </c>
       <c r="T270" t="n">
         <v>450</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N271" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O271" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P271" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T271" t="n">
         <v>450</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N272" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="O272" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="P272" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>578</v>
+        <v>822</v>
       </c>
       <c r="T272" t="n">
         <v>450</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N273" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O273" t="n">
-        <v>220000</v>
+        <v>290000</v>
       </c>
       <c r="P273" t="n">
-        <v>220000</v>
+        <v>285000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22222,11 +22222,11 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>489</v>
+        <v>633</v>
       </c>
       <c r="T273" t="n">
         <v>450</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44434</v>
+        <v>44335</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="N274" t="n">
-        <v>8500</v>
+        <v>240000</v>
       </c>
       <c r="O274" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="P274" t="n">
-        <v>8750</v>
+        <v>240000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>875</v>
+        <v>533</v>
       </c>
       <c r="T274" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N275" t="n">
-        <v>420000</v>
+        <v>260000</v>
       </c>
       <c r="O275" t="n">
-        <v>420000</v>
+        <v>260000</v>
       </c>
       <c r="P275" t="n">
-        <v>420000</v>
+        <v>260000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>933</v>
+        <v>578</v>
       </c>
       <c r="T275" t="n">
         <v>450</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -22440,36 +22440,36 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>275</v>
+        <v>4</v>
       </c>
       <c r="N276" t="n">
-        <v>7000</v>
+        <v>220000</v>
       </c>
       <c r="O276" t="n">
-        <v>7000</v>
+        <v>220000</v>
       </c>
       <c r="P276" t="n">
-        <v>7000</v>
+        <v>220000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>700</v>
+        <v>489</v>
       </c>
       <c r="T276" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="277">
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="N277" t="n">
-        <v>230000</v>
+        <v>8500</v>
       </c>
       <c r="O277" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="P277" t="n">
-        <v>240000</v>
+        <v>8750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>533</v>
+        <v>875</v>
       </c>
       <c r="T277" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N278" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="O278" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="P278" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>500</v>
+        <v>933</v>
       </c>
       <c r="T278" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="279">
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="N279" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="O279" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="P279" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="T279" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="N280" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O280" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P280" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="T280" t="n">
         <v>450</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -22840,24 +22840,24 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="N281" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="O281" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="P281" t="n">
-        <v>400000</v>
+        <v>5000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T281" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N282" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O282" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P282" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T282" t="n">
         <v>450</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N283" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O283" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="P283" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>444</v>
+        <v>711</v>
       </c>
       <c r="T283" t="n">
         <v>450</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N284" t="n">
         <v>400000</v>
@@ -23102,7 +23102,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S284" t="n">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N285" t="n">
         <v>240000</v>
       </c>
       <c r="O285" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P285" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23182,11 +23182,11 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T285" t="n">
         <v>450</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N286" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O286" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P286" t="n">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="T286" t="n">
         <v>450</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N287" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O287" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="P287" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23342,11 +23342,11 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="T287" t="n">
         <v>450</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N288" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O288" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="P288" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="T288" t="n">
         <v>450</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N289" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O289" t="n">
         <v>250000</v>
       </c>
-      <c r="O289" t="n">
-        <v>260000</v>
-      </c>
       <c r="P289" t="n">
-        <v>255000</v>
+        <v>245000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="T289" t="n">
         <v>450</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N290" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O290" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P290" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T290" t="n">
         <v>450</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N291" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O291" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="P291" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23662,11 +23662,11 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T291" t="n">
         <v>450</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N292" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O292" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P292" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T292" t="n">
         <v>450</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N293" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O293" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P293" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23822,11 +23822,11 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="T293" t="n">
         <v>450</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23887,13 +23887,13 @@
         <v>15</v>
       </c>
       <c r="N294" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O294" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P294" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T294" t="n">
         <v>450</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23964,32 +23964,32 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N295" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O295" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P295" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1000</v>
+        <v>489</v>
       </c>
       <c r="T295" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24047,13 +24047,13 @@
         <v>15</v>
       </c>
       <c r="N296" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O296" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P296" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="T296" t="n">
         <v>450</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>15</v>
       </c>
       <c r="N297" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O297" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P297" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T297" t="n">
         <v>450</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N298" t="n">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="O298" t="n">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="P298" t="n">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T298" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N299" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O299" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P299" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T299" t="n">
         <v>450</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N300" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O300" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P300" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T300" t="n">
         <v>450</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N301" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="O301" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="P301" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>578</v>
+        <v>889</v>
       </c>
       <c r="T301" t="n">
         <v>450</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N302" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O302" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P302" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="T302" t="n">
         <v>450</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N303" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O303" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P303" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T303" t="n">
         <v>450</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N304" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O304" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P304" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="T304" t="n">
         <v>450</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N305" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O305" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P305" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T305" t="n">
         <v>450</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N306" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="O306" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P306" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="T306" t="n">
         <v>450</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N307" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O307" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P307" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T307" t="n">
         <v>450</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N308" t="n">
         <v>200000</v>
       </c>
       <c r="O308" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P308" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T308" t="n">
         <v>450</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N309" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="O309" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P309" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>400</v>
+        <v>689</v>
       </c>
       <c r="T309" t="n">
         <v>450</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N310" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O310" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P310" t="n">
-        <v>335000</v>
+        <v>280000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>744</v>
+        <v>622</v>
       </c>
       <c r="T310" t="n">
         <v>450</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N311" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O311" t="n">
-        <v>420000</v>
+        <v>230000</v>
       </c>
       <c r="P311" t="n">
-        <v>410000</v>
+        <v>225000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>911</v>
+        <v>500</v>
       </c>
       <c r="T311" t="n">
         <v>450</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N312" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O312" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P312" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T312" t="n">
         <v>450</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N313" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O313" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="P313" t="n">
-        <v>200000</v>
+        <v>335000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>444</v>
+        <v>744</v>
       </c>
       <c r="T313" t="n">
         <v>450</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -25480,24 +25480,24 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N314" t="n">
-        <v>11000</v>
+        <v>400000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>420000</v>
       </c>
       <c r="P314" t="n">
-        <v>11500</v>
+        <v>410000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1150</v>
+        <v>911</v>
       </c>
       <c r="T314" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N315" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O315" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P315" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>711</v>
+        <v>556</v>
       </c>
       <c r="T315" t="n">
         <v>450</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N316" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O316" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="P316" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T316" t="n">
         <v>450</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N317" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O317" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P317" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>750</v>
+        <v>1150</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N318" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O318" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P318" t="n">
-        <v>265000</v>
+        <v>320000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="T318" t="n">
         <v>450</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="N319" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="O319" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="P319" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="T319" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25964,20 +25964,20 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="N320" t="n">
-        <v>500000</v>
+        <v>7000</v>
       </c>
       <c r="O320" t="n">
-        <v>500000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>500000</v>
+        <v>7500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1111</v>
+        <v>750</v>
       </c>
       <c r="T320" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N321" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O321" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P321" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T321" t="n">
         <v>450</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26120,24 +26120,24 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="N322" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="O322" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="P322" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>578</v>
+        <v>500</v>
       </c>
       <c r="T322" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N323" t="n">
-        <v>220000</v>
+        <v>500000</v>
       </c>
       <c r="O323" t="n">
-        <v>220000</v>
+        <v>500000</v>
       </c>
       <c r="P323" t="n">
-        <v>220000</v>
+        <v>500000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>489</v>
+        <v>1111</v>
       </c>
       <c r="T323" t="n">
         <v>450</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N324" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O324" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P324" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T324" t="n">
         <v>450</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N325" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="O325" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P325" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>756</v>
+        <v>578</v>
       </c>
       <c r="T325" t="n">
         <v>450</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N326" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O326" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P326" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="T326" t="n">
         <v>450</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N327" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O327" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P327" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T327" t="n">
         <v>450</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N328" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="O328" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P328" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26622,11 +26622,11 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>622</v>
+        <v>756</v>
       </c>
       <c r="T328" t="n">
         <v>450</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N329" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="O329" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P329" t="n">
-        <v>320000</v>
+        <v>235000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>711</v>
+        <v>522</v>
       </c>
       <c r="T329" t="n">
         <v>450</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N330" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O330" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P330" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26782,11 +26782,11 @@
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="T330" t="n">
         <v>450</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N331" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O331" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P331" t="n">
-        <v>245000</v>
+        <v>280000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26862,11 +26862,11 @@
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="T331" t="n">
         <v>450</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N332" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="O332" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P332" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26942,11 +26942,11 @@
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T332" t="n">
         <v>450</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N333" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O333" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P333" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27022,11 +27022,11 @@
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="T333" t="n">
         <v>450</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N334" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O334" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="P334" t="n">
-        <v>160000</v>
+        <v>245000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27102,11 +27102,11 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>356</v>
+        <v>544</v>
       </c>
       <c r="T334" t="n">
         <v>450</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N335" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="O335" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="P335" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27182,11 +27182,11 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T335" t="n">
         <v>450</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N336" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O336" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P336" t="n">
-        <v>315000</v>
+        <v>210000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T336" t="n">
         <v>450</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N337" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O337" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P337" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27342,11 +27342,11 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T337" t="n">
         <v>450</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N338" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="O338" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="P338" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T338" t="n">
         <v>450</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N339" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O339" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P339" t="n">
-        <v>270000</v>
+        <v>315000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T339" t="n">
         <v>450</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N340" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O340" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P340" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N341" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O341" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P341" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N342" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O342" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P342" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N343" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O343" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P343" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27822,11 +27822,11 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T343" t="n">
         <v>450</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N344" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O344" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P344" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T344" t="n">
         <v>450</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N345" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O345" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P345" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27982,11 +27982,11 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T345" t="n">
         <v>450</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N346" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O346" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P346" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28062,11 +28062,11 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T346" t="n">
         <v>450</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N347" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O347" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P347" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="T347" t="n">
         <v>450</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N348" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O348" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P348" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28222,11 +28222,11 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T348" t="n">
         <v>450</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N349" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="O349" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P349" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="T349" t="n">
         <v>450</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N350" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O350" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P350" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T350" t="n">
         <v>450</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N351" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O351" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="P351" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T351" t="n">
         <v>450</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="N352" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="O352" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="P352" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T352" t="n">
         <v>450</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N353" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O353" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P353" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T353" t="n">
         <v>450</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M354" t="n">
         <v>15</v>
       </c>
       <c r="N354" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="O354" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="P354" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="T354" t="n">
         <v>450</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28755,25 +28755,25 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N355" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="O355" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P355" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>956</v>
+        <v>600</v>
       </c>
       <c r="T355" t="n">
         <v>450</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28835,25 +28835,25 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N356" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O356" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P356" t="n">
-        <v>315000</v>
+        <v>230000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>700</v>
+        <v>511</v>
       </c>
       <c r="T356" t="n">
         <v>450</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N357" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O357" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P357" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T357" t="n">
         <v>450</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -28995,25 +28995,25 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N358" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="O358" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P358" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>667</v>
+        <v>956</v>
       </c>
       <c r="T358" t="n">
         <v>450</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N359" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O359" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P359" t="n">
-        <v>260000</v>
+        <v>315000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>578</v>
+        <v>700</v>
       </c>
       <c r="T359" t="n">
         <v>450</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N360" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O360" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P360" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29244,20 +29244,20 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N361" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="O361" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="P361" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T361" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N362" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O362" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P362" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T362" t="n">
         <v>450</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="N363" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O363" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P363" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T363" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="364">
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="N364" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O364" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P364" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N365" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O365" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P365" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T365" t="n">
         <v>450</v>
@@ -29640,24 +29640,24 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="N366" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O366" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P366" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>511</v>
+        <v>1200</v>
       </c>
       <c r="T366" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367">
@@ -29720,24 +29720,24 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="N367" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O367" t="n">
-        <v>200000</v>
+        <v>9000</v>
       </c>
       <c r="P367" t="n">
-        <v>200000</v>
+        <v>8500</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>444</v>
+        <v>850</v>
       </c>
       <c r="T367" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N368" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O368" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P368" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T368" t="n">
         <v>450</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
         <v>15</v>
       </c>
       <c r="N369" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="O369" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="P369" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>956</v>
+        <v>511</v>
       </c>
       <c r="T369" t="n">
         <v>450</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N370" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O370" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P370" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T370" t="n">
         <v>450</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N371" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O371" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P371" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T371" t="n">
         <v>450</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M372" t="n">
         <v>15</v>
       </c>
       <c r="N372" t="n">
-        <v>340000</v>
+        <v>430000</v>
       </c>
       <c r="O372" t="n">
-        <v>340000</v>
+        <v>430000</v>
       </c>
       <c r="P372" t="n">
-        <v>340000</v>
+        <v>430000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>756</v>
+        <v>956</v>
       </c>
       <c r="T372" t="n">
         <v>450</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N373" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O373" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="P373" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T373" t="n">
         <v>450</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N374" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O374" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P374" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T374" t="n">
         <v>450</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N375" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="O375" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="P375" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30382,11 +30382,11 @@
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="T375" t="n">
         <v>450</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N376" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="O376" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="P376" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>711</v>
+        <v>867</v>
       </c>
       <c r="T376" t="n">
         <v>450</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N377" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O377" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P377" t="n">
-        <v>265000</v>
+        <v>300000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30542,11 +30542,11 @@
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="T377" t="n">
         <v>450</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N378" t="n">
         <v>330000</v>
@@ -30622,7 +30622,7 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="S378" t="n">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N379" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O379" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P379" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>567</v>
+        <v>711</v>
       </c>
       <c r="T379" t="n">
         <v>450</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N380" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O380" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P380" t="n">
-        <v>210000</v>
+        <v>265000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30782,11 +30782,11 @@
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>467</v>
+        <v>589</v>
       </c>
       <c r="T380" t="n">
         <v>450</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30844,20 +30844,20 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N381" t="n">
-        <v>9000</v>
+        <v>330000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="P381" t="n">
-        <v>9500</v>
+        <v>330000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>950</v>
+        <v>733</v>
       </c>
       <c r="T381" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N382" t="n">
-        <v>400000</v>
+        <v>250000</v>
       </c>
       <c r="O382" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="P382" t="n">
-        <v>415000</v>
+        <v>255000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>922</v>
+        <v>567</v>
       </c>
       <c r="T382" t="n">
         <v>450</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="N383" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="O383" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="P383" t="n">
-        <v>7500</v>
+        <v>210000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>750</v>
+        <v>467</v>
       </c>
       <c r="T383" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384">
@@ -31080,24 +31080,24 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N384" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O384" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>255000</v>
+        <v>9500</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="T384" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385">
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="N385" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="O385" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="P385" t="n">
-        <v>5000</v>
+        <v>415000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386">
@@ -31240,24 +31240,24 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="N386" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O386" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P386" t="n">
-        <v>200000</v>
+        <v>7500</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T386" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N387" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O387" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P387" t="n">
-        <v>300000</v>
+        <v>255000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="T387" t="n">
         <v>450</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="N388" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="O388" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="P388" t="n">
-        <v>380000</v>
+        <v>5000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T388" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N389" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O389" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P389" t="n">
-        <v>255455</v>
+        <v>200000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>568</v>
+        <v>444</v>
       </c>
       <c r="T389" t="n">
         <v>450</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N390" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O390" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P390" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>489</v>
+        <v>667</v>
       </c>
       <c r="T390" t="n">
         <v>450</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="N391" t="n">
-        <v>8500</v>
+        <v>380000</v>
       </c>
       <c r="O391" t="n">
-        <v>9000</v>
+        <v>380000</v>
       </c>
       <c r="P391" t="n">
-        <v>8750</v>
+        <v>380000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="T391" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N392" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O392" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P392" t="n">
-        <v>297872</v>
+        <v>255455</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>662</v>
+        <v>568</v>
       </c>
       <c r="T392" t="n">
         <v>450</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N393" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="O393" t="n">
-        <v>420000</v>
+        <v>220000</v>
       </c>
       <c r="P393" t="n">
-        <v>408810</v>
+        <v>220000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>908</v>
+        <v>489</v>
       </c>
       <c r="T393" t="n">
         <v>450</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="N394" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O394" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P394" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>700</v>
+        <v>875</v>
       </c>
       <c r="T394" t="n">
         <v>10</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="N395" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O395" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P395" t="n">
-        <v>249561</v>
+        <v>297872</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>555</v>
+        <v>662</v>
       </c>
       <c r="T395" t="n">
         <v>450</v>
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="N396" t="n">
-        <v>5000</v>
+        <v>380000</v>
       </c>
       <c r="O396" t="n">
-        <v>5000</v>
+        <v>420000</v>
       </c>
       <c r="P396" t="n">
-        <v>5000</v>
+        <v>408810</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>500</v>
+        <v>908</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="397">
@@ -32120,24 +32120,24 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="N397" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="O397" t="n">
-        <v>220000</v>
+        <v>7000</v>
       </c>
       <c r="P397" t="n">
-        <v>215606</v>
+        <v>7000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>479</v>
+        <v>700</v>
       </c>
       <c r="T397" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="N398" t="n">
-        <v>360000</v>
+        <v>230000</v>
       </c>
       <c r="O398" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="P398" t="n">
-        <v>360000</v>
+        <v>249561</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>800</v>
+        <v>555</v>
       </c>
       <c r="T398" t="n">
         <v>450</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,24 +32280,24 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N399" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="O399" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="P399" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="T399" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N400" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O400" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P400" t="n">
-        <v>290000</v>
+        <v>215606</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>644</v>
+        <v>479</v>
       </c>
       <c r="T400" t="n">
         <v>450</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N401" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="O401" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P401" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T401" t="n">
         <v>450</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N402" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="O402" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="P402" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32542,11 +32542,11 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T402" t="n">
         <v>450</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N403" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O403" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="P403" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T403" t="n">
         <v>450</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N404" t="n">
         <v>240000</v>
       </c>
       <c r="O404" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P404" t="n">
-        <v>245000</v>
+        <v>240000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="T404" t="n">
         <v>450</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
         <v>12</v>
       </c>
       <c r="N405" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O405" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P405" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T405" t="n">
         <v>450</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,36 +32840,36 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T406" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="407">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,24 +32920,24 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N407" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O407" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P407" t="n">
-        <v>12000</v>
+        <v>245000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,10 +32946,10 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1200</v>
+        <v>544</v>
       </c>
       <c r="T407" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,24 +33000,24 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="N408" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O408" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P408" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T408" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="409">
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N409" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T409" t="n">
         <v>10</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,24 +33160,24 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N410" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O410" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="P410" t="n">
-        <v>355000</v>
+        <v>12000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,10 +33186,10 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>789</v>
+        <v>1200</v>
       </c>
       <c r="T410" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="N411" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="O411" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="P411" t="n">
-        <v>400000</v>
+        <v>8000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T411" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,24 +33320,24 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="N412" t="n">
-        <v>300000</v>
+        <v>6000</v>
       </c>
       <c r="O412" t="n">
-        <v>330000</v>
+        <v>6000</v>
       </c>
       <c r="P412" t="n">
-        <v>315000</v>
+        <v>6000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T412" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413">
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
         <v>20</v>
       </c>
       <c r="N413" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O413" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="P413" t="n">
-        <v>250000</v>
+        <v>355000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>556</v>
+        <v>789</v>
       </c>
       <c r="T413" t="n">
         <v>450</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N414" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="O414" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="P414" t="n">
-        <v>325000</v>
+        <v>400000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T414" t="n">
         <v>450</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N415" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="O415" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P415" t="n">
-        <v>420000</v>
+        <v>315000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T415" t="n">
         <v>450</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N416" t="n">
         <v>250000</v>
       </c>
       <c r="O416" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P416" t="n">
-        <v>255000</v>
+        <v>250000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="T416" t="n">
         <v>450</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
         <v>20</v>
       </c>
       <c r="N417" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="O417" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P417" t="n">
-        <v>220000</v>
+        <v>325000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>489</v>
+        <v>722</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33807,13 +33807,13 @@
         <v>15</v>
       </c>
       <c r="N418" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="O418" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="P418" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>844</v>
+        <v>933</v>
       </c>
       <c r="T418" t="n">
         <v>450</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N419" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O419" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P419" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="T419" t="n">
         <v>450</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N420" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O420" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P420" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T420" t="n">
         <v>450</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="O421" t="n">
-        <v>8500</v>
+        <v>380000</v>
       </c>
       <c r="P421" t="n">
-        <v>8250</v>
+        <v>380000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,10 +34066,10 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="T421" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="422">
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34120,24 +34120,24 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="N422" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="P422" t="n">
-        <v>9500</v>
+        <v>235000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,10 +34146,10 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>950</v>
+        <v>522</v>
       </c>
       <c r="T422" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="423">
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N423" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="O423" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="P423" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>844</v>
+        <v>444</v>
       </c>
       <c r="T423" t="n">
         <v>450</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N424" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O424" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P424" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="T424" t="n">
         <v>10</v>
@@ -34360,24 +34360,24 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N425" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O425" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>255000</v>
+        <v>9500</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="T425" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426">
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="N426" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="O426" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="P426" t="n">
-        <v>4500</v>
+        <v>380000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,10 +34466,10 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>450</v>
+        <v>844</v>
       </c>
       <c r="T426" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="427">
@@ -34520,35 +34520,275 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M427" t="n">
+        <v>250</v>
+      </c>
+      <c r="N427" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O427" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P427" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S427" t="n">
+        <v>650</v>
+      </c>
+      <c r="T427" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>6</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D428" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E428" t="n">
+        <v>13</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I428" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M428" t="n">
+        <v>24</v>
+      </c>
+      <c r="N428" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O428" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P428" t="n">
+        <v>255000</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S428" t="n">
+        <v>567</v>
+      </c>
+      <c r="T428" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>6</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D429" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E429" t="n">
+        <v>13</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M427" t="n">
+      <c r="M429" t="n">
+        <v>175</v>
+      </c>
+      <c r="N429" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O429" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P429" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S429" t="n">
+        <v>450</v>
+      </c>
+      <c r="T429" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>6</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D430" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E430" t="n">
+        <v>13</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I430" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M430" t="n">
         <v>15</v>
       </c>
-      <c r="N427" t="n">
+      <c r="N430" t="n">
         <v>210000</v>
       </c>
-      <c r="O427" t="n">
+      <c r="O430" t="n">
         <v>210000</v>
       </c>
-      <c r="P427" t="n">
+      <c r="P430" t="n">
         <v>210000</v>
       </c>
-      <c r="Q427" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R427" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S427" t="n">
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S430" t="n">
         <v>467</v>
       </c>
-      <c r="T427" t="n">
+      <c r="T430" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T436"/>
+  <dimension ref="A1:T439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N303" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="O303" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="P303" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>711</v>
+        <v>933</v>
       </c>
       <c r="T303" t="n">
         <v>450</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N304" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O304" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P304" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T304" t="n">
         <v>450</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N305" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="O305" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P305" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>533</v>
+        <v>378</v>
       </c>
       <c r="T305" t="n">
         <v>450</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>8</v>
       </c>
       <c r="N306" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O306" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P306" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>578</v>
+        <v>711</v>
       </c>
       <c r="T306" t="n">
         <v>450</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N307" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O307" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P307" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="T307" t="n">
         <v>450</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44172</v>
+        <v>44418</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -25007,13 +25007,13 @@
         <v>12</v>
       </c>
       <c r="N308" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O308" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P308" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="T308" t="n">
         <v>450</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N309" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O309" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P309" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="T309" t="n">
         <v>450</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25164,7 +25164,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N310" t="n">
         <v>220000</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44265</v>
+        <v>44172</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
         <v>12</v>
       </c>
       <c r="N311" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O311" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P311" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="T311" t="n">
         <v>450</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N312" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O312" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P312" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="T312" t="n">
         <v>450</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N313" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O313" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P313" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T313" t="n">
         <v>450</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N314" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O314" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P314" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="T314" t="n">
         <v>450</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N315" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O315" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P315" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="T315" t="n">
         <v>450</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N316" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O316" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P316" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T316" t="n">
         <v>450</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N317" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O317" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="P317" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T317" t="n">
         <v>450</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N318" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O318" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P318" t="n">
-        <v>260000</v>
+        <v>235000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="T318" t="n">
         <v>450</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N319" t="n">
         <v>200000</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25960,36 +25960,36 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N320" t="n">
-        <v>9000</v>
+        <v>400000</v>
       </c>
       <c r="O320" t="n">
-        <v>9000</v>
+        <v>400000</v>
       </c>
       <c r="P320" t="n">
-        <v>9000</v>
+        <v>400000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T320" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26044,32 +26044,32 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="N321" t="n">
-        <v>7500</v>
+        <v>250000</v>
       </c>
       <c r="O321" t="n">
-        <v>7500</v>
+        <v>270000</v>
       </c>
       <c r="P321" t="n">
-        <v>7500</v>
+        <v>260000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>750</v>
+        <v>578</v>
       </c>
       <c r="T321" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26124,32 +26124,32 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="N322" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="O322" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="P322" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T322" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26204,32 +26204,32 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N323" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="O323" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="P323" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>622</v>
+        <v>900</v>
       </c>
       <c r="T323" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26280,36 +26280,36 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="N324" t="n">
-        <v>330000</v>
+        <v>7500</v>
       </c>
       <c r="O324" t="n">
-        <v>330000</v>
+        <v>7500</v>
       </c>
       <c r="P324" t="n">
-        <v>330000</v>
+        <v>7500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="T324" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26360,36 +26360,36 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="N325" t="n">
-        <v>250000</v>
+        <v>5000</v>
       </c>
       <c r="O325" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="P325" t="n">
-        <v>255000</v>
+        <v>5000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="T325" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N326" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O326" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P326" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T326" t="n">
         <v>450</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N327" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O327" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P327" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T327" t="n">
         <v>450</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N328" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="O328" t="n">
-        <v>370000</v>
+        <v>260000</v>
       </c>
       <c r="P328" t="n">
-        <v>370000</v>
+        <v>255000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>822</v>
+        <v>567</v>
       </c>
       <c r="T328" t="n">
         <v>450</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N329" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O329" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P329" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T329" t="n">
         <v>450</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N330" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O330" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="P330" t="n">
-        <v>346154</v>
+        <v>240000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>769</v>
+        <v>533</v>
       </c>
       <c r="T330" t="n">
         <v>450</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N331" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="O331" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="P331" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>933</v>
+        <v>822</v>
       </c>
       <c r="T331" t="n">
         <v>450</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N332" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O332" t="n">
-        <v>390000</v>
+        <v>340000</v>
       </c>
       <c r="P332" t="n">
-        <v>319412</v>
+        <v>330000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="T332" t="n">
         <v>450</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N333" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O333" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="P333" t="n">
-        <v>260000</v>
+        <v>346154</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>578</v>
+        <v>769</v>
       </c>
       <c r="T333" t="n">
         <v>450</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N334" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="O334" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="P334" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>844</v>
+        <v>933</v>
       </c>
       <c r="T334" t="n">
         <v>450</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N335" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O335" t="n">
-        <v>240000</v>
+        <v>390000</v>
       </c>
       <c r="P335" t="n">
-        <v>240000</v>
+        <v>319412</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>533</v>
+        <v>710</v>
       </c>
       <c r="T335" t="n">
         <v>450</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N336" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O336" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P336" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T336" t="n">
         <v>450</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M337" t="n">
         <v>8</v>
       </c>
       <c r="N337" t="n">
-        <v>240000</v>
+        <v>380000</v>
       </c>
       <c r="O337" t="n">
-        <v>240000</v>
+        <v>380000</v>
       </c>
       <c r="P337" t="n">
-        <v>240000</v>
+        <v>380000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>533</v>
+        <v>844</v>
       </c>
       <c r="T337" t="n">
         <v>450</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>12</v>
       </c>
       <c r="N338" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="O338" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P338" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T338" t="n">
         <v>450</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N339" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O339" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="P339" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>756</v>
+        <v>489</v>
       </c>
       <c r="T339" t="n">
         <v>450</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N340" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O340" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="P340" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>889</v>
+        <v>533</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N341" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="O341" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P341" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N342" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O342" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="P342" t="n">
-        <v>255000</v>
+        <v>340000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>567</v>
+        <v>756</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N343" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="O343" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="P343" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>689</v>
+        <v>889</v>
       </c>
       <c r="T343" t="n">
         <v>450</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27884,13 +27884,13 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N344" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O344" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P344" t="n">
         <v>280000</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N345" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O345" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P345" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="T345" t="n">
         <v>450</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N346" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="O346" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P346" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>400</v>
+        <v>689</v>
       </c>
       <c r="T346" t="n">
         <v>450</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44168</v>
+        <v>44301</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N347" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O347" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P347" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="T347" t="n">
         <v>450</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N348" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O348" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P348" t="n">
-        <v>280000</v>
+        <v>225000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28222,11 +28222,11 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>622</v>
+        <v>500</v>
       </c>
       <c r="T348" t="n">
         <v>450</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M349" t="n">
         <v>12</v>
       </c>
       <c r="N349" t="n">
-        <v>310000</v>
+        <v>180000</v>
       </c>
       <c r="O349" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="P349" t="n">
-        <v>320000</v>
+        <v>180000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>711</v>
+        <v>400</v>
       </c>
       <c r="T349" t="n">
         <v>450</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N350" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O350" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P350" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28382,11 +28382,11 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T350" t="n">
         <v>450</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N351" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O351" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P351" t="n">
-        <v>245000</v>
+        <v>280000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="T351" t="n">
         <v>450</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N352" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="O352" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P352" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T352" t="n">
         <v>450</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N353" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O353" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P353" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28622,11 +28622,11 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="T353" t="n">
         <v>450</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N354" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O354" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="P354" t="n">
-        <v>160000</v>
+        <v>245000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>356</v>
+        <v>544</v>
       </c>
       <c r="T354" t="n">
         <v>450</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N355" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O355" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="P355" t="n">
-        <v>295238</v>
+        <v>240000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>656</v>
+        <v>533</v>
       </c>
       <c r="T355" t="n">
         <v>450</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N356" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O356" t="n">
-        <v>420000</v>
+        <v>220000</v>
       </c>
       <c r="P356" t="n">
-        <v>410000</v>
+        <v>210000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>911</v>
+        <v>467</v>
       </c>
       <c r="T356" t="n">
         <v>450</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N357" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="O357" t="n">
-        <v>260000</v>
+        <v>160000</v>
       </c>
       <c r="P357" t="n">
-        <v>250250</v>
+        <v>160000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28942,11 +28942,11 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>556</v>
+        <v>356</v>
       </c>
       <c r="T357" t="n">
         <v>450</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N358" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O358" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P358" t="n">
-        <v>214615</v>
+        <v>295238</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>477</v>
+        <v>656</v>
       </c>
       <c r="T358" t="n">
         <v>450</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N359" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="O359" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="P359" t="n">
-        <v>320000</v>
+        <v>410000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>711</v>
+        <v>911</v>
       </c>
       <c r="T359" t="n">
         <v>450</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N360" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O360" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P360" t="n">
-        <v>230000</v>
+        <v>250250</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N361" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="O361" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P361" t="n">
-        <v>180000</v>
+        <v>214615</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>400</v>
+        <v>477</v>
       </c>
       <c r="T361" t="n">
         <v>450</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N362" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O362" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P362" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T362" t="n">
         <v>450</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N363" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O363" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="P363" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>889</v>
+        <v>511</v>
       </c>
       <c r="T363" t="n">
         <v>450</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N364" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="O364" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="P364" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T364" t="n">
         <v>450</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N365" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O365" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P365" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T365" t="n">
         <v>450</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N366" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="O366" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="P366" t="n">
-        <v>245000</v>
+        <v>400000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>544</v>
+        <v>889</v>
       </c>
       <c r="T366" t="n">
         <v>450</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N367" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O367" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P367" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T367" t="n">
         <v>450</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
         <v>25</v>
       </c>
       <c r="N368" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O368" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P368" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T368" t="n">
         <v>450</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N369" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O369" t="n">
-        <v>430000</v>
+        <v>250000</v>
       </c>
       <c r="P369" t="n">
-        <v>415000</v>
+        <v>245000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>922</v>
+        <v>544</v>
       </c>
       <c r="T369" t="n">
         <v>450</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N370" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O370" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P370" t="n">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="T370" t="n">
         <v>450</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N371" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O371" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P371" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T371" t="n">
         <v>450</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N372" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="O372" t="n">
-        <v>320000</v>
+        <v>430000</v>
       </c>
       <c r="P372" t="n">
-        <v>320000</v>
+        <v>415000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>711</v>
+        <v>922</v>
       </c>
       <c r="T372" t="n">
         <v>450</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N373" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O373" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P373" t="n">
-        <v>225000</v>
+        <v>245000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="T373" t="n">
         <v>450</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N375" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O375" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P375" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>567</v>
+        <v>711</v>
       </c>
       <c r="T375" t="n">
         <v>450</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N376" t="n">
         <v>220000</v>
       </c>
       <c r="O376" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P376" t="n">
-        <v>220000</v>
+        <v>225000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="T376" t="n">
         <v>450</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,36 +30520,36 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="N377" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O377" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P377" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T377" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="378">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N378" t="n">
         <v>250000</v>
       </c>
       <c r="O378" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P378" t="n">
-        <v>250000</v>
+        <v>255000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="T378" t="n">
         <v>450</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N379" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O379" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P379" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="T379" t="n">
         <v>450</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30764,32 +30764,32 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="N380" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="O380" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T380" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N381" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O381" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P381" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T381" t="n">
         <v>450</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N382" t="n">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="O382" t="n">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="P382" t="n">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>533</v>
+        <v>267</v>
       </c>
       <c r="T382" t="n">
         <v>450</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31004,20 +31004,20 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="N383" t="n">
-        <v>9000</v>
+        <v>300000</v>
       </c>
       <c r="O383" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="P383" t="n">
-        <v>9500</v>
+        <v>300000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>950</v>
+        <v>667</v>
       </c>
       <c r="T383" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N384" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O384" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P384" t="n">
-        <v>415000</v>
+        <v>270000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>922</v>
+        <v>600</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>470</v>
+        <v>15</v>
       </c>
       <c r="N385" t="n">
-        <v>7000</v>
+        <v>240000</v>
       </c>
       <c r="O385" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P385" t="n">
-        <v>7500</v>
+        <v>240000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386">
@@ -31240,24 +31240,24 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N386" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O386" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P386" t="n">
-        <v>255000</v>
+        <v>9500</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="T386" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="N387" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="O387" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="P387" t="n">
-        <v>5000</v>
+        <v>415000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="388">
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="N388" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O388" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P388" t="n">
-        <v>200000</v>
+        <v>7500</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T388" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N389" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O389" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P389" t="n">
-        <v>240000</v>
+        <v>255000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31502,11 +31502,11 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="T389" t="n">
         <v>450</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31564,32 +31564,32 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="N390" t="n">
-        <v>220000</v>
+        <v>5000</v>
       </c>
       <c r="O390" t="n">
-        <v>220000</v>
+        <v>5000</v>
       </c>
       <c r="P390" t="n">
-        <v>220000</v>
+        <v>5000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="T390" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N391" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O391" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P391" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="T391" t="n">
         <v>450</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N392" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O392" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P392" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31742,11 +31742,11 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="T392" t="n">
         <v>450</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N393" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O393" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P393" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31822,11 +31822,11 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T393" t="n">
         <v>450</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N394" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O394" t="n">
         <v>270000</v>
       </c>
       <c r="P394" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="T394" t="n">
         <v>450</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N395" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="O395" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="P395" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>756</v>
+        <v>489</v>
       </c>
       <c r="T395" t="n">
         <v>450</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N396" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="O396" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P396" t="n">
-        <v>235000</v>
+        <v>180000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>522</v>
+        <v>400</v>
       </c>
       <c r="T396" t="n">
         <v>450</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N397" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O397" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P397" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T397" t="n">
         <v>450</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,24 +32200,24 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>340000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>340000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>340000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,10 +32226,10 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1200</v>
+        <v>756</v>
       </c>
       <c r="T398" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32284,20 +32284,20 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="N399" t="n">
-        <v>11000</v>
+        <v>230000</v>
       </c>
       <c r="O399" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="P399" t="n">
-        <v>11000</v>
+        <v>235000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1100</v>
+        <v>522</v>
       </c>
       <c r="T399" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32364,20 +32364,20 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N400" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O400" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P400" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T400" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32444,20 +32444,20 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N401" t="n">
-        <v>340000</v>
+        <v>12000</v>
       </c>
       <c r="O401" t="n">
-        <v>340000</v>
+        <v>12000</v>
       </c>
       <c r="P401" t="n">
-        <v>340000</v>
+        <v>12000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>756</v>
+        <v>1200</v>
       </c>
       <c r="T401" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,24 +32520,24 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N402" t="n">
-        <v>400000</v>
+        <v>11000</v>
       </c>
       <c r="O402" t="n">
-        <v>400000</v>
+        <v>11000</v>
       </c>
       <c r="P402" t="n">
-        <v>400000</v>
+        <v>11000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T402" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,24 +32600,24 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N403" t="n">
-        <v>320000</v>
+        <v>8000</v>
       </c>
       <c r="O403" t="n">
-        <v>320000</v>
+        <v>8000</v>
       </c>
       <c r="P403" t="n">
-        <v>320000</v>
+        <v>8000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="T403" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404">
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N404" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O404" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P404" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T404" t="n">
         <v>450</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N405" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="O405" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="P405" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>711</v>
+        <v>889</v>
       </c>
       <c r="T405" t="n">
         <v>450</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N406" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O406" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P406" t="n">
-        <v>235000</v>
+        <v>320000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>522</v>
+        <v>711</v>
       </c>
       <c r="T406" t="n">
         <v>450</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N407" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O407" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P407" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T407" t="n">
         <v>450</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N408" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O408" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="P408" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="T408" t="n">
         <v>450</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N409" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O409" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="P409" t="n">
-        <v>400000</v>
+        <v>235000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>889</v>
+        <v>522</v>
       </c>
       <c r="T409" t="n">
         <v>450</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N410" t="n">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="O410" t="n">
-        <v>265000</v>
+        <v>200000</v>
       </c>
       <c r="P410" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="T410" t="n">
         <v>450</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N411" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="O411" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
       <c r="P411" t="n">
-        <v>210000</v>
+        <v>340000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>467</v>
+        <v>756</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N412" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="O412" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="P412" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="T412" t="n">
         <v>450</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N413" t="n">
-        <v>430000</v>
+        <v>245000</v>
       </c>
       <c r="O413" t="n">
-        <v>430000</v>
+        <v>265000</v>
       </c>
       <c r="P413" t="n">
-        <v>430000</v>
+        <v>255000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>956</v>
+        <v>567</v>
       </c>
       <c r="T413" t="n">
         <v>450</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N414" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O414" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P414" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T414" t="n">
         <v>450</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N415" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O415" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P415" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T415" t="n">
         <v>450</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N416" t="n">
-        <v>360000</v>
+        <v>430000</v>
       </c>
       <c r="O416" t="n">
-        <v>360000</v>
+        <v>430000</v>
       </c>
       <c r="P416" t="n">
-        <v>360000</v>
+        <v>430000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="T416" t="n">
         <v>450</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N417" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O417" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P417" t="n">
-        <v>315000</v>
+        <v>270000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N418" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O418" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P418" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T418" t="n">
         <v>450</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N419" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="O419" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P419" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33902,11 +33902,11 @@
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T419" t="n">
         <v>450</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N420" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O420" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P420" t="n">
-        <v>200000</v>
+        <v>315000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33982,11 +33982,11 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T420" t="n">
         <v>450</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N421" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O421" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="P421" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>889</v>
+        <v>600</v>
       </c>
       <c r="T421" t="n">
         <v>450</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N422" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O422" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P422" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34142,11 +34142,11 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T422" t="n">
         <v>450</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N423" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O423" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P423" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T423" t="n">
         <v>450</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N424" t="n">
-        <v>130000</v>
+        <v>400000</v>
       </c>
       <c r="O424" t="n">
-        <v>130000</v>
+        <v>400000</v>
       </c>
       <c r="P424" t="n">
-        <v>130000</v>
+        <v>400000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>289</v>
+        <v>889</v>
       </c>
       <c r="T424" t="n">
         <v>450</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,24 +34360,24 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N425" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O425" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P425" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1000</v>
+        <v>578</v>
       </c>
       <c r="T425" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="426">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N426" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="O426" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="P426" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,10 +34466,10 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T426" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N427" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="O427" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="P427" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="T427" t="n">
         <v>450</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N428" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O428" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P428" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T428" t="n">
         <v>10</v>
@@ -34680,36 +34680,36 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
+        <v>200</v>
+      </c>
+      <c r="N429" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O429" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P429" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S429" t="n">
+        <v>800</v>
+      </c>
+      <c r="T429" t="n">
         <v>10</v>
-      </c>
-      <c r="N429" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O429" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P429" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q429" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R429" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S429" t="n">
-        <v>444</v>
-      </c>
-      <c r="T429" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N430" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O430" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P430" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T430" t="n">
         <v>450</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,20 +34844,20 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N431" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="O431" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="P431" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="T431" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N432" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O432" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P432" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T432" t="n">
         <v>450</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,17 +35000,17 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N433" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O433" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P433" t="n">
         <v>280000</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N434" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="O434" t="n">
-        <v>360000</v>
+        <v>220000</v>
       </c>
       <c r="P434" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>778</v>
+        <v>489</v>
       </c>
       <c r="T434" t="n">
         <v>450</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="N435" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="O435" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="P435" t="n">
-        <v>250800</v>
+        <v>150000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>557</v>
+        <v>333</v>
       </c>
       <c r="T435" t="n">
         <v>450</v>
@@ -35240,35 +35240,275 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
         <v>30</v>
       </c>
       <c r="N436" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O436" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P436" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S436" t="n">
+        <v>622</v>
+      </c>
+      <c r="T436" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>6</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D437" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E437" t="n">
+        <v>13</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G437" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I437" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M437" t="n">
+        <v>14</v>
+      </c>
+      <c r="N437" t="n">
+        <v>340000</v>
+      </c>
+      <c r="O437" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P437" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S437" t="n">
+        <v>778</v>
+      </c>
+      <c r="T437" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>6</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D438" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E438" t="n">
+        <v>13</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M438" t="n">
+        <v>50</v>
+      </c>
+      <c r="N438" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O438" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P438" t="n">
+        <v>250800</v>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S438" t="n">
+        <v>557</v>
+      </c>
+      <c r="T438" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>6</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D439" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E439" t="n">
+        <v>13</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I439" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M439" t="n">
+        <v>30</v>
+      </c>
+      <c r="N439" t="n">
         <v>180000</v>
       </c>
-      <c r="O436" t="n">
+      <c r="O439" t="n">
         <v>220000</v>
       </c>
-      <c r="P436" t="n">
+      <c r="P439" t="n">
         <v>206667</v>
       </c>
-      <c r="Q436" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R436" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S436" t="n">
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S439" t="n">
         <v>459</v>
       </c>
-      <c r="T436" t="n">
+      <c r="T439" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T442"/>
+  <dimension ref="A1:T446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
         <v>15</v>
       </c>
       <c r="N411" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="O411" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P411" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N412" t="n">
-        <v>230000</v>
+        <v>430000</v>
       </c>
       <c r="O412" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="P412" t="n">
-        <v>235000</v>
+        <v>430000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>522</v>
+        <v>956</v>
       </c>
       <c r="T412" t="n">
         <v>450</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N413" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O413" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P413" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T413" t="n">
         <v>450</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N414" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O414" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="P414" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>756</v>
+        <v>489</v>
       </c>
       <c r="T414" t="n">
         <v>450</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N415" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="O415" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P415" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>889</v>
+        <v>711</v>
       </c>
       <c r="T415" t="n">
         <v>450</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N416" t="n">
-        <v>245000</v>
+        <v>230000</v>
       </c>
       <c r="O416" t="n">
-        <v>265000</v>
+        <v>240000</v>
       </c>
       <c r="P416" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="T416" t="n">
         <v>450</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N417" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O417" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P417" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N418" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O418" t="n">
         <v>350000</v>
       </c>
       <c r="P418" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T418" t="n">
         <v>450</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N419" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="O419" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="P419" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>956</v>
+        <v>889</v>
       </c>
       <c r="T419" t="n">
         <v>450</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N420" t="n">
-        <v>270000</v>
+        <v>245000</v>
       </c>
       <c r="O420" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="P420" t="n">
-        <v>270000</v>
+        <v>255000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="T420" t="n">
         <v>450</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N421" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O421" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P421" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="T421" t="n">
         <v>450</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N422" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="O422" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="P422" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T422" t="n">
         <v>450</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N423" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="O423" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P423" t="n">
-        <v>315000</v>
+        <v>430000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>700</v>
+        <v>956</v>
       </c>
       <c r="T423" t="n">
         <v>450</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,11 +34280,11 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N424" t="n">
         <v>270000</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,11 +34360,11 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N425" t="n">
         <v>240000</v>
@@ -34382,7 +34382,7 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S425" t="n">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N426" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="O426" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="P426" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34462,11 +34462,11 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T426" t="n">
         <v>450</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
         <v>12</v>
       </c>
       <c r="N427" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O427" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="P427" t="n">
-        <v>400000</v>
+        <v>315000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T427" t="n">
         <v>450</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N428" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O428" t="n">
         <v>270000</v>
       </c>
       <c r="P428" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T428" t="n">
         <v>450</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N429" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="O429" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P429" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T429" t="n">
         <v>450</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N430" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O430" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P430" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T430" t="n">
         <v>450</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,24 +34840,24 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="P431" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T431" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34924,20 +34924,20 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N432" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="O432" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P432" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>800</v>
+        <v>578</v>
       </c>
       <c r="T432" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N433" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="O433" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P433" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="T433" t="n">
         <v>450</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N434" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="O434" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="P434" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>600</v>
+        <v>289</v>
       </c>
       <c r="T434" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="435">
@@ -35160,36 +35160,36 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
+        <v>150</v>
+      </c>
+      <c r="N435" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O435" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P435" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S435" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T435" t="n">
         <v>10</v>
-      </c>
-      <c r="N435" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O435" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P435" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q435" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R435" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S435" t="n">
-        <v>444</v>
-      </c>
-      <c r="T435" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,20 +35244,20 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="N436" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O436" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P436" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="T436" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N437" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O437" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P437" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T437" t="n">
         <v>450</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,24 +35400,24 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N438" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="O438" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="P438" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T438" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N439" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O439" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="P439" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T439" t="n">
         <v>450</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
         <v>14</v>
       </c>
       <c r="N440" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O440" t="n">
-        <v>360000</v>
+        <v>280000</v>
       </c>
       <c r="P440" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="T440" t="n">
         <v>450</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N441" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O441" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P441" t="n">
-        <v>250800</v>
+        <v>220000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="T441" t="n">
         <v>450</v>
@@ -35687,68 +35687,388 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E442" t="n">
+        <v>13</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I442" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M442" t="n">
+        <v>6</v>
+      </c>
+      <c r="N442" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O442" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P442" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S442" t="n">
+        <v>333</v>
+      </c>
+      <c r="T442" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>6</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D443" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E442" t="n">
-        <v>13</v>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G442" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I442" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J442" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L442" t="inlineStr">
+      <c r="E443" t="n">
+        <v>13</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M443" t="n">
+        <v>30</v>
+      </c>
+      <c r="N443" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O443" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P443" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S443" t="n">
+        <v>622</v>
+      </c>
+      <c r="T443" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>6</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D444" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E444" t="n">
+        <v>13</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I444" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M444" t="n">
+        <v>14</v>
+      </c>
+      <c r="N444" t="n">
+        <v>340000</v>
+      </c>
+      <c r="O444" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P444" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S444" t="n">
+        <v>778</v>
+      </c>
+      <c r="T444" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>6</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D445" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E445" t="n">
+        <v>13</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I445" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M445" t="n">
+        <v>50</v>
+      </c>
+      <c r="N445" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O445" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P445" t="n">
+        <v>250800</v>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S445" t="n">
+        <v>557</v>
+      </c>
+      <c r="T445" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>6</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D446" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E446" t="n">
+        <v>13</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M442" t="n">
+      <c r="M446" t="n">
         <v>30</v>
       </c>
-      <c r="N442" t="n">
+      <c r="N446" t="n">
         <v>180000</v>
       </c>
-      <c r="O442" t="n">
+      <c r="O446" t="n">
         <v>220000</v>
       </c>
-      <c r="P442" t="n">
+      <c r="P446" t="n">
         <v>206667</v>
       </c>
-      <c r="Q442" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R442" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S442" t="n">
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S446" t="n">
         <v>459</v>
       </c>
-      <c r="T442" t="n">
+      <c r="T446" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T446"/>
+  <dimension ref="A1:T450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N349" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="O349" t="n">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="P349" t="n">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28302,11 +28302,11 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>689</v>
+        <v>778</v>
       </c>
       <c r="T349" t="n">
         <v>450</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N350" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="O350" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="P350" t="n">
-        <v>280000</v>
+        <v>434643</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28382,11 +28382,11 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>622</v>
+        <v>966</v>
       </c>
       <c r="T350" t="n">
         <v>450</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N351" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O351" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P351" t="n">
-        <v>225000</v>
+        <v>260000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="T351" t="n">
         <v>450</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N352" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O352" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P352" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T352" t="n">
         <v>450</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44168</v>
+        <v>44301</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N353" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="O353" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="P353" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>489</v>
+        <v>689</v>
       </c>
       <c r="T353" t="n">
         <v>450</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,11 +28680,11 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N354" t="n">
         <v>280000</v>
@@ -28702,7 +28702,7 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S354" t="n">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N355" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="O355" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P355" t="n">
-        <v>320000</v>
+        <v>225000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>711</v>
+        <v>500</v>
       </c>
       <c r="T355" t="n">
         <v>450</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M356" t="n">
         <v>12</v>
       </c>
       <c r="N356" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="O356" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P356" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28862,11 +28862,11 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>578</v>
+        <v>400</v>
       </c>
       <c r="T356" t="n">
         <v>450</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N357" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O357" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P357" t="n">
-        <v>245000</v>
+        <v>220000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="T357" t="n">
         <v>450</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N358" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O358" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P358" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T358" t="n">
         <v>450</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N359" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="O359" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P359" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>467</v>
+        <v>711</v>
       </c>
       <c r="T359" t="n">
         <v>450</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N360" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="O360" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="P360" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>356</v>
+        <v>578</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N361" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O361" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P361" t="n">
-        <v>295238</v>
+        <v>245000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="T361" t="n">
         <v>450</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N362" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O362" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P362" t="n">
-        <v>410000</v>
+        <v>240000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29342,11 +29342,11 @@
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S362" t="n">
-        <v>911</v>
+        <v>533</v>
       </c>
       <c r="T362" t="n">
         <v>450</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N363" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O363" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P363" t="n">
-        <v>250250</v>
+        <v>210000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T363" t="n">
         <v>450</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N364" t="n">
-        <v>210000</v>
+        <v>160000</v>
       </c>
       <c r="O364" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P364" t="n">
-        <v>214615</v>
+        <v>160000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="T364" t="n">
         <v>450</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N365" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O365" t="n">
         <v>320000</v>
       </c>
       <c r="P365" t="n">
-        <v>320000</v>
+        <v>295238</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>711</v>
+        <v>656</v>
       </c>
       <c r="T365" t="n">
         <v>450</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N366" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="O366" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="P366" t="n">
-        <v>230000</v>
+        <v>410000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>511</v>
+        <v>911</v>
       </c>
       <c r="T366" t="n">
         <v>450</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N367" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O367" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P367" t="n">
-        <v>180000</v>
+        <v>250250</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T367" t="n">
         <v>450</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N368" t="n">
-        <v>330000</v>
+        <v>210000</v>
       </c>
       <c r="O368" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P368" t="n">
-        <v>330000</v>
+        <v>214615</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>733</v>
+        <v>477</v>
       </c>
       <c r="T368" t="n">
         <v>450</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N369" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="O369" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P369" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>889</v>
+        <v>711</v>
       </c>
       <c r="T369" t="n">
         <v>450</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N370" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O370" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P370" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T370" t="n">
         <v>450</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N371" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="O371" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P371" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="T371" t="n">
         <v>450</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N372" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O372" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P372" t="n">
-        <v>245000</v>
+        <v>330000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>544</v>
+        <v>733</v>
       </c>
       <c r="T372" t="n">
         <v>450</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N373" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O373" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="P373" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="T373" t="n">
         <v>450</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N374" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O374" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P374" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T374" t="n">
         <v>450</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N375" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O375" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="P375" t="n">
-        <v>415000</v>
+        <v>230000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>922</v>
+        <v>511</v>
       </c>
       <c r="T375" t="n">
         <v>450</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30444,7 +30444,7 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N376" t="n">
         <v>240000</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N377" t="n">
         <v>200000</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N378" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="O378" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P378" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="T378" t="n">
         <v>450</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N379" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="O379" t="n">
-        <v>230000</v>
+        <v>430000</v>
       </c>
       <c r="P379" t="n">
-        <v>225000</v>
+        <v>415000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="T379" t="n">
         <v>450</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N380" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O380" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P380" t="n">
-        <v>200000</v>
+        <v>245000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>444</v>
+        <v>544</v>
       </c>
       <c r="T380" t="n">
         <v>450</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N381" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O381" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P381" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="T381" t="n">
         <v>450</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M382" t="n">
         <v>15</v>
       </c>
       <c r="N382" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="O382" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P382" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>489</v>
+        <v>711</v>
       </c>
       <c r="T382" t="n">
         <v>450</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,36 +31000,36 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="N383" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O383" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P383" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T383" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N384" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O384" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P384" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N385" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="O385" t="n">
-        <v>120000</v>
+        <v>260000</v>
       </c>
       <c r="P385" t="n">
-        <v>120000</v>
+        <v>255000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>267</v>
+        <v>567</v>
       </c>
       <c r="T385" t="n">
         <v>450</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N386" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="O386" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P386" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T386" t="n">
         <v>450</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,36 +31320,36 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>13</v>
+        <v>480</v>
       </c>
       <c r="N387" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P387" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T387" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N388" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O388" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P388" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T388" t="n">
         <v>450</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,24 +31480,24 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N389" t="n">
-        <v>9000</v>
+        <v>120000</v>
       </c>
       <c r="O389" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="P389" t="n">
-        <v>9500</v>
+        <v>120000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>950</v>
+        <v>267</v>
       </c>
       <c r="T389" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N390" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O390" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P390" t="n">
-        <v>415000</v>
+        <v>300000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>922</v>
+        <v>667</v>
       </c>
       <c r="T390" t="n">
         <v>450</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31644,20 +31644,20 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>470</v>
+        <v>13</v>
       </c>
       <c r="N391" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="O391" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P391" t="n">
-        <v>7500</v>
+        <v>270000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T391" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N392" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O392" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P392" t="n">
-        <v>255000</v>
+        <v>240000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="T392" t="n">
         <v>450</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N393" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O393" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P393" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="T393" t="n">
         <v>10</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N394" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O394" t="n">
-        <v>200000</v>
+        <v>430000</v>
       </c>
       <c r="P394" t="n">
-        <v>200000</v>
+        <v>415000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>444</v>
+        <v>922</v>
       </c>
       <c r="T394" t="n">
         <v>450</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,32 +31964,32 @@
         </is>
       </c>
       <c r="M395" t="n">
+        <v>470</v>
+      </c>
+      <c r="N395" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O395" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P395" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S395" t="n">
+        <v>750</v>
+      </c>
+      <c r="T395" t="n">
         <v>10</v>
-      </c>
-      <c r="N395" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O395" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P395" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q395" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R395" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S395" t="n">
-        <v>533</v>
-      </c>
-      <c r="T395" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N396" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O396" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P396" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32062,11 +32062,11 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T396" t="n">
         <v>450</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,24 +32120,24 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="N397" t="n">
-        <v>250000</v>
+        <v>5000</v>
       </c>
       <c r="O397" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="P397" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>578</v>
+        <v>500</v>
       </c>
       <c r="T397" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N398" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O398" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P398" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T398" t="n">
         <v>450</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N399" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O399" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P399" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T399" t="n">
         <v>450</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N400" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O400" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P400" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="T400" t="n">
         <v>450</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N401" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="O401" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P401" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>756</v>
+        <v>578</v>
       </c>
       <c r="T401" t="n">
         <v>450</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N402" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O402" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P402" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="T402" t="n">
         <v>450</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32607,13 +32607,13 @@
         <v>20</v>
       </c>
       <c r="N403" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O403" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P403" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T403" t="n">
         <v>450</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32684,20 +32684,20 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T404" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,24 +32760,24 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N405" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="O405" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="P405" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,10 +32786,10 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1100</v>
+        <v>756</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="406">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="N406" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="O406" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P406" t="n">
-        <v>8000</v>
+        <v>235000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>800</v>
+        <v>522</v>
       </c>
       <c r="T406" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="407">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N407" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="O407" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="P407" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>756</v>
+        <v>444</v>
       </c>
       <c r="T407" t="n">
         <v>450</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,24 +33000,24 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N408" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T408" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,20 +33084,20 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N409" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="O409" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="P409" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>711</v>
+        <v>1100</v>
       </c>
       <c r="T409" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,20 +33164,20 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="N410" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,10 +33186,10 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="T410" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33247,13 +33247,13 @@
         <v>15</v>
       </c>
       <c r="N411" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="O411" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="P411" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33327,13 +33327,13 @@
         <v>12</v>
       </c>
       <c r="N412" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="O412" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="P412" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>956</v>
+        <v>889</v>
       </c>
       <c r="T412" t="n">
         <v>450</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N413" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O413" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P413" t="n">
-        <v>265000</v>
+        <v>320000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="T413" t="n">
         <v>450</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N414" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O414" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P414" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T414" t="n">
         <v>450</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M415" t="n">
         <v>15</v>
       </c>
       <c r="N415" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="O415" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P415" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="T415" t="n">
         <v>450</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N416" t="n">
-        <v>230000</v>
+        <v>430000</v>
       </c>
       <c r="O416" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="P416" t="n">
-        <v>235000</v>
+        <v>430000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>522</v>
+        <v>956</v>
       </c>
       <c r="T416" t="n">
         <v>450</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N417" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O417" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P417" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N418" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O418" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="P418" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>756</v>
+        <v>489</v>
       </c>
       <c r="T418" t="n">
         <v>450</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N419" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="O419" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P419" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>889</v>
+        <v>711</v>
       </c>
       <c r="T419" t="n">
         <v>450</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N420" t="n">
-        <v>245000</v>
+        <v>230000</v>
       </c>
       <c r="O420" t="n">
-        <v>265000</v>
+        <v>240000</v>
       </c>
       <c r="P420" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="T420" t="n">
         <v>450</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N421" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O421" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P421" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T421" t="n">
         <v>450</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N422" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O422" t="n">
         <v>350000</v>
       </c>
       <c r="P422" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T422" t="n">
         <v>450</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N423" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="O423" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="P423" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>956</v>
+        <v>889</v>
       </c>
       <c r="T423" t="n">
         <v>450</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N424" t="n">
-        <v>270000</v>
+        <v>245000</v>
       </c>
       <c r="O424" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="P424" t="n">
-        <v>270000</v>
+        <v>255000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="T424" t="n">
         <v>450</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N425" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O425" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P425" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="T425" t="n">
         <v>450</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N426" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="O426" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="P426" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T426" t="n">
         <v>450</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N427" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="O427" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P427" t="n">
-        <v>315000</v>
+        <v>430000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>700</v>
+        <v>956</v>
       </c>
       <c r="T427" t="n">
         <v>450</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,11 +34600,11 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N428" t="n">
         <v>270000</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,11 +34680,11 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N429" t="n">
         <v>240000</v>
@@ -34702,7 +34702,7 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S429" t="n">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N430" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="O430" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="P430" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T430" t="n">
         <v>450</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
         <v>12</v>
       </c>
       <c r="N431" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O431" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="P431" t="n">
-        <v>400000</v>
+        <v>315000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T431" t="n">
         <v>450</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N432" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O432" t="n">
         <v>270000</v>
       </c>
       <c r="P432" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T432" t="n">
         <v>450</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N433" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="O433" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P433" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T433" t="n">
         <v>450</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N434" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O434" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P434" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T434" t="n">
         <v>450</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,24 +35160,24 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="O435" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="P435" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T435" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,20 +35244,20 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N436" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="O436" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P436" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>800</v>
+        <v>578</v>
       </c>
       <c r="T436" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N437" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="O437" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P437" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="T437" t="n">
         <v>450</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,24 +35400,24 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N438" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="O438" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="P438" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>600</v>
+        <v>289</v>
       </c>
       <c r="T438" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="439">
@@ -35480,36 +35480,36 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M439" t="n">
+        <v>150</v>
+      </c>
+      <c r="N439" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O439" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P439" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S439" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T439" t="n">
         <v>10</v>
-      </c>
-      <c r="N439" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O439" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P439" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q439" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R439" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S439" t="n">
-        <v>444</v>
-      </c>
-      <c r="T439" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,20 +35564,20 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="N440" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O440" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P440" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="T440" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N441" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O441" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P441" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T441" t="n">
         <v>450</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N442" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="O442" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="P442" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T442" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N443" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O443" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="P443" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T443" t="n">
         <v>450</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
         <v>14</v>
       </c>
       <c r="N444" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O444" t="n">
-        <v>360000</v>
+        <v>280000</v>
       </c>
       <c r="P444" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="T444" t="n">
         <v>450</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N445" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O445" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P445" t="n">
-        <v>250800</v>
+        <v>220000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="T445" t="n">
         <v>450</v>
@@ -36007,68 +36007,388 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E446" t="n">
+        <v>13</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M446" t="n">
+        <v>6</v>
+      </c>
+      <c r="N446" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O446" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P446" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S446" t="n">
+        <v>333</v>
+      </c>
+      <c r="T446" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>6</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D447" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E446" t="n">
-        <v>13</v>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G446" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I446" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J446" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L446" t="inlineStr">
+      <c r="E447" t="n">
+        <v>13</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I447" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M447" t="n">
+        <v>30</v>
+      </c>
+      <c r="N447" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O447" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P447" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S447" t="n">
+        <v>622</v>
+      </c>
+      <c r="T447" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>6</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D448" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E448" t="n">
+        <v>13</v>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I448" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M448" t="n">
+        <v>14</v>
+      </c>
+      <c r="N448" t="n">
+        <v>340000</v>
+      </c>
+      <c r="O448" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P448" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S448" t="n">
+        <v>778</v>
+      </c>
+      <c r="T448" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>6</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D449" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E449" t="n">
+        <v>13</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I449" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M449" t="n">
+        <v>50</v>
+      </c>
+      <c r="N449" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O449" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P449" t="n">
+        <v>250800</v>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S449" t="n">
+        <v>557</v>
+      </c>
+      <c r="T449" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>6</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D450" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E450" t="n">
+        <v>13</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I450" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M446" t="n">
+      <c r="M450" t="n">
         <v>30</v>
       </c>
-      <c r="N446" t="n">
+      <c r="N450" t="n">
         <v>180000</v>
       </c>
-      <c r="O446" t="n">
+      <c r="O450" t="n">
         <v>220000</v>
       </c>
-      <c r="P446" t="n">
+      <c r="P450" t="n">
         <v>206667</v>
       </c>
-      <c r="Q446" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R446" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S446" t="n">
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S450" t="n">
         <v>459</v>
       </c>
-      <c r="T446" t="n">
+      <c r="T450" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T450"/>
+  <dimension ref="A1:T454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N315" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="O315" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P315" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T315" t="n">
         <v>450</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N316" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="O316" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="P316" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>489</v>
+        <v>956</v>
       </c>
       <c r="T316" t="n">
         <v>450</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44265</v>
+        <v>44466</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N317" t="n">
         <v>260000</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44265</v>
+        <v>44466</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N318" t="n">
         <v>220000</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N319" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O319" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P319" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T319" t="n">
         <v>450</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N320" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="O320" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P320" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T320" t="n">
         <v>450</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N321" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O321" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P321" t="n">
-        <v>235000</v>
+        <v>260000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="T321" t="n">
         <v>450</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N322" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O322" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P322" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T322" t="n">
         <v>450</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>15</v>
       </c>
       <c r="N323" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O323" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="P323" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>889</v>
+        <v>578</v>
       </c>
       <c r="T323" t="n">
         <v>450</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N324" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O324" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P324" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>578</v>
+        <v>667</v>
       </c>
       <c r="T324" t="n">
         <v>450</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N325" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O325" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P325" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="T325" t="n">
         <v>450</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26440,36 +26440,36 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="O326" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="P326" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>900</v>
+        <v>444</v>
       </c>
       <c r="T326" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26520,36 +26520,36 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="N327" t="n">
-        <v>7500</v>
+        <v>400000</v>
       </c>
       <c r="O327" t="n">
-        <v>7500</v>
+        <v>400000</v>
       </c>
       <c r="P327" t="n">
-        <v>7500</v>
+        <v>400000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T327" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26600,36 +26600,36 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="N328" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="O328" t="n">
-        <v>5000</v>
+        <v>270000</v>
       </c>
       <c r="P328" t="n">
-        <v>5000</v>
+        <v>260000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="T328" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N329" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O329" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P329" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T329" t="n">
         <v>450</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26760,36 +26760,36 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N330" t="n">
-        <v>330000</v>
+        <v>9000</v>
       </c>
       <c r="O330" t="n">
-        <v>330000</v>
+        <v>9000</v>
       </c>
       <c r="P330" t="n">
-        <v>330000</v>
+        <v>9000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T330" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26844,32 +26844,32 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="N331" t="n">
-        <v>250000</v>
+        <v>7500</v>
       </c>
       <c r="O331" t="n">
-        <v>260000</v>
+        <v>7500</v>
       </c>
       <c r="P331" t="n">
-        <v>255000</v>
+        <v>7500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>567</v>
+        <v>750</v>
       </c>
       <c r="T331" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26920,36 +26920,36 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="N332" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="O332" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="P332" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T332" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N333" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O333" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P333" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T333" t="n">
         <v>450</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N334" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="O334" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="P334" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>822</v>
+        <v>733</v>
       </c>
       <c r="T334" t="n">
         <v>450</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27167,13 +27167,13 @@
         <v>16</v>
       </c>
       <c r="N335" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O335" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P335" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T335" t="n">
         <v>450</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N336" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O336" t="n">
-        <v>360000</v>
+        <v>270000</v>
       </c>
       <c r="P336" t="n">
-        <v>346154</v>
+        <v>270000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>769</v>
+        <v>600</v>
       </c>
       <c r="T336" t="n">
         <v>450</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N337" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="O337" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P337" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T337" t="n">
         <v>450</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="N338" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="O338" t="n">
-        <v>390000</v>
+        <v>370000</v>
       </c>
       <c r="P338" t="n">
-        <v>319412</v>
+        <v>370000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>710</v>
+        <v>822</v>
       </c>
       <c r="T338" t="n">
         <v>450</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N339" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O339" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P339" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="T339" t="n">
         <v>450</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N340" t="n">
-        <v>380000</v>
+        <v>330000</v>
       </c>
       <c r="O340" t="n">
-        <v>380000</v>
+        <v>360000</v>
       </c>
       <c r="P340" t="n">
-        <v>380000</v>
+        <v>346154</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>844</v>
+        <v>769</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N341" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="O341" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="P341" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N342" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O342" t="n">
-        <v>220000</v>
+        <v>390000</v>
       </c>
       <c r="P342" t="n">
-        <v>220000</v>
+        <v>319412</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>489</v>
+        <v>710</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M343" t="n">
         <v>8</v>
       </c>
       <c r="N343" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O343" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P343" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="T343" t="n">
         <v>450</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N344" t="n">
-        <v>210000</v>
+        <v>380000</v>
       </c>
       <c r="O344" t="n">
-        <v>210000</v>
+        <v>380000</v>
       </c>
       <c r="P344" t="n">
-        <v>210000</v>
+        <v>380000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>467</v>
+        <v>844</v>
       </c>
       <c r="T344" t="n">
         <v>450</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N345" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O345" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P345" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>756</v>
+        <v>533</v>
       </c>
       <c r="T345" t="n">
         <v>450</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N346" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O346" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="P346" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>889</v>
+        <v>489</v>
       </c>
       <c r="T346" t="n">
         <v>450</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N347" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O347" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P347" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T347" t="n">
         <v>450</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N348" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O348" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P348" t="n">
-        <v>255000</v>
+        <v>210000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="T348" t="n">
         <v>450</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N349" t="n">
         <v>330000</v>
       </c>
       <c r="O349" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="P349" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28302,11 +28302,11 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T349" t="n">
         <v>450</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N350" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="O350" t="n">
-        <v>450000</v>
+        <v>400000</v>
       </c>
       <c r="P350" t="n">
-        <v>434643</v>
+        <v>400000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28382,11 +28382,11 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>966</v>
+        <v>889</v>
       </c>
       <c r="T350" t="n">
         <v>450</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N351" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O351" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P351" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="T351" t="n">
         <v>450</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N352" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O352" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P352" t="n">
-        <v>200000</v>
+        <v>255000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>444</v>
+        <v>567</v>
       </c>
       <c r="T352" t="n">
         <v>450</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N353" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="O353" t="n">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="P353" t="n">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28622,11 +28622,11 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>689</v>
+        <v>778</v>
       </c>
       <c r="T353" t="n">
         <v>450</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N354" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="O354" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="P354" t="n">
-        <v>280000</v>
+        <v>434643</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>622</v>
+        <v>966</v>
       </c>
       <c r="T354" t="n">
         <v>450</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N355" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O355" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P355" t="n">
-        <v>225000</v>
+        <v>260000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="T355" t="n">
         <v>450</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N356" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O356" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P356" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28862,11 +28862,11 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T356" t="n">
         <v>450</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44168</v>
+        <v>44301</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N357" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="O357" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="P357" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>489</v>
+        <v>689</v>
       </c>
       <c r="T357" t="n">
         <v>450</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -29000,11 +29000,11 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N358" t="n">
         <v>280000</v>
@@ -29022,7 +29022,7 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S358" t="n">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N359" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="O359" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P359" t="n">
-        <v>320000</v>
+        <v>225000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>711</v>
+        <v>500</v>
       </c>
       <c r="T359" t="n">
         <v>450</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M360" t="n">
         <v>12</v>
       </c>
       <c r="N360" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="O360" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P360" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29182,11 +29182,11 @@
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>578</v>
+        <v>400</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N361" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O361" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P361" t="n">
-        <v>245000</v>
+        <v>220000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="T361" t="n">
         <v>450</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N362" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O362" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P362" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T362" t="n">
         <v>450</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N363" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="O363" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P363" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>467</v>
+        <v>711</v>
       </c>
       <c r="T363" t="n">
         <v>450</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N364" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="O364" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="P364" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>356</v>
+        <v>578</v>
       </c>
       <c r="T364" t="n">
         <v>450</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N365" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O365" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P365" t="n">
-        <v>295238</v>
+        <v>245000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="T365" t="n">
         <v>450</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N366" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O366" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P366" t="n">
-        <v>410000</v>
+        <v>240000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29662,11 +29662,11 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>911</v>
+        <v>533</v>
       </c>
       <c r="T366" t="n">
         <v>450</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N367" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O367" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P367" t="n">
-        <v>250250</v>
+        <v>210000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T367" t="n">
         <v>450</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N368" t="n">
-        <v>210000</v>
+        <v>160000</v>
       </c>
       <c r="O368" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P368" t="n">
-        <v>214615</v>
+        <v>160000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29822,11 +29822,11 @@
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="T368" t="n">
         <v>450</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N369" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O369" t="n">
         <v>320000</v>
       </c>
       <c r="P369" t="n">
-        <v>320000</v>
+        <v>295238</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>711</v>
+        <v>656</v>
       </c>
       <c r="T369" t="n">
         <v>450</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N370" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="O370" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="P370" t="n">
-        <v>230000</v>
+        <v>410000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>511</v>
+        <v>911</v>
       </c>
       <c r="T370" t="n">
         <v>450</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N371" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O371" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P371" t="n">
-        <v>180000</v>
+        <v>250250</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T371" t="n">
         <v>450</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N372" t="n">
-        <v>330000</v>
+        <v>210000</v>
       </c>
       <c r="O372" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P372" t="n">
-        <v>330000</v>
+        <v>214615</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>733</v>
+        <v>477</v>
       </c>
       <c r="T372" t="n">
         <v>450</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N373" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="O373" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P373" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>889</v>
+        <v>711</v>
       </c>
       <c r="T373" t="n">
         <v>450</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N374" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O374" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P374" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T374" t="n">
         <v>450</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N375" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="O375" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P375" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="T375" t="n">
         <v>450</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N376" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O376" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P376" t="n">
-        <v>245000</v>
+        <v>330000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>544</v>
+        <v>733</v>
       </c>
       <c r="T376" t="n">
         <v>450</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N377" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O377" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="P377" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="T377" t="n">
         <v>450</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N378" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O378" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P378" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T378" t="n">
         <v>450</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N379" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O379" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="P379" t="n">
-        <v>415000</v>
+        <v>230000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>922</v>
+        <v>511</v>
       </c>
       <c r="T379" t="n">
         <v>450</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30764,7 +30764,7 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N380" t="n">
         <v>240000</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N381" t="n">
         <v>200000</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N382" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="O382" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P382" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="T382" t="n">
         <v>450</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N383" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="O383" t="n">
-        <v>230000</v>
+        <v>430000</v>
       </c>
       <c r="P383" t="n">
-        <v>225000</v>
+        <v>415000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="T383" t="n">
         <v>450</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N384" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O384" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P384" t="n">
-        <v>200000</v>
+        <v>245000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>444</v>
+        <v>544</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N385" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O385" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P385" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="T385" t="n">
         <v>450</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M386" t="n">
         <v>15</v>
       </c>
       <c r="N386" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="O386" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P386" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>489</v>
+        <v>711</v>
       </c>
       <c r="T386" t="n">
         <v>450</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,36 +31320,36 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="N387" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O387" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P387" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N388" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O388" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P388" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T388" t="n">
         <v>450</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N389" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="O389" t="n">
-        <v>120000</v>
+        <v>260000</v>
       </c>
       <c r="P389" t="n">
-        <v>120000</v>
+        <v>255000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>267</v>
+        <v>567</v>
       </c>
       <c r="T389" t="n">
         <v>450</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N390" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="O390" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P390" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T390" t="n">
         <v>450</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,36 +31640,36 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>13</v>
+        <v>480</v>
       </c>
       <c r="N391" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O391" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T391" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N392" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O392" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P392" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T392" t="n">
         <v>450</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N393" t="n">
-        <v>9000</v>
+        <v>120000</v>
       </c>
       <c r="O393" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="P393" t="n">
-        <v>9500</v>
+        <v>120000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>950</v>
+        <v>267</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N394" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O394" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P394" t="n">
-        <v>415000</v>
+        <v>300000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>922</v>
+        <v>667</v>
       </c>
       <c r="T394" t="n">
         <v>450</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,20 +31964,20 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>470</v>
+        <v>13</v>
       </c>
       <c r="N395" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="O395" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P395" t="n">
-        <v>7500</v>
+        <v>270000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T395" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N396" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O396" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P396" t="n">
-        <v>255000</v>
+        <v>240000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="T396" t="n">
         <v>450</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N397" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O397" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P397" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="T397" t="n">
         <v>10</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N398" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O398" t="n">
-        <v>200000</v>
+        <v>430000</v>
       </c>
       <c r="P398" t="n">
-        <v>200000</v>
+        <v>415000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>444</v>
+        <v>922</v>
       </c>
       <c r="T398" t="n">
         <v>450</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32284,32 +32284,32 @@
         </is>
       </c>
       <c r="M399" t="n">
+        <v>470</v>
+      </c>
+      <c r="N399" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O399" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P399" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S399" t="n">
+        <v>750</v>
+      </c>
+      <c r="T399" t="n">
         <v>10</v>
-      </c>
-      <c r="N399" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O399" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P399" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q399" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R399" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S399" t="n">
-        <v>533</v>
-      </c>
-      <c r="T399" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N400" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O400" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P400" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T400" t="n">
         <v>450</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="N401" t="n">
-        <v>250000</v>
+        <v>5000</v>
       </c>
       <c r="O401" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="P401" t="n">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>578</v>
+        <v>500</v>
       </c>
       <c r="T401" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N402" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O402" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P402" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T402" t="n">
         <v>450</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N403" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O403" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P403" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T403" t="n">
         <v>450</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N404" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O404" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P404" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="T404" t="n">
         <v>450</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N405" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="O405" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P405" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>756</v>
+        <v>578</v>
       </c>
       <c r="T405" t="n">
         <v>450</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N406" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O406" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P406" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="T406" t="n">
         <v>450</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32927,13 +32927,13 @@
         <v>20</v>
       </c>
       <c r="N407" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O407" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P407" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T407" t="n">
         <v>450</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33004,20 +33004,20 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T408" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,24 +33080,24 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N409" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="O409" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="P409" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1100</v>
+        <v>756</v>
       </c>
       <c r="T409" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,24 +33160,24 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="N410" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="O410" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P410" t="n">
-        <v>8000</v>
+        <v>235000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,10 +33186,10 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>800</v>
+        <v>522</v>
       </c>
       <c r="T410" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N411" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="O411" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="P411" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>756</v>
+        <v>444</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,24 +33320,24 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N412" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T412" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N413" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="O413" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="P413" t="n">
-        <v>320000</v>
+        <v>11000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>711</v>
+        <v>1100</v>
       </c>
       <c r="T413" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,20 +33484,20 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="N414" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="O414" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="P414" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="T414" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33567,13 +33567,13 @@
         <v>15</v>
       </c>
       <c r="N415" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="O415" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="P415" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T415" t="n">
         <v>450</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33647,13 +33647,13 @@
         <v>12</v>
       </c>
       <c r="N416" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="O416" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="P416" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>956</v>
+        <v>889</v>
       </c>
       <c r="T416" t="n">
         <v>450</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N417" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O417" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P417" t="n">
-        <v>265000</v>
+        <v>320000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N418" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O418" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P418" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T418" t="n">
         <v>450</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
         <v>15</v>
       </c>
       <c r="N419" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="O419" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P419" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="T419" t="n">
         <v>450</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N420" t="n">
-        <v>230000</v>
+        <v>430000</v>
       </c>
       <c r="O420" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="P420" t="n">
-        <v>235000</v>
+        <v>430000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>522</v>
+        <v>956</v>
       </c>
       <c r="T420" t="n">
         <v>450</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N421" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O421" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P421" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T421" t="n">
         <v>450</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N422" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O422" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="P422" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>756</v>
+        <v>489</v>
       </c>
       <c r="T422" t="n">
         <v>450</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N423" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="O423" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P423" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>889</v>
+        <v>711</v>
       </c>
       <c r="T423" t="n">
         <v>450</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N424" t="n">
-        <v>245000</v>
+        <v>230000</v>
       </c>
       <c r="O424" t="n">
-        <v>265000</v>
+        <v>240000</v>
       </c>
       <c r="P424" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="T424" t="n">
         <v>450</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N425" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O425" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P425" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T425" t="n">
         <v>450</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N426" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O426" t="n">
         <v>350000</v>
       </c>
       <c r="P426" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T426" t="n">
         <v>450</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N427" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="O427" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="P427" t="n">
-        <v>430000</v>
+        <v>400000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>956</v>
+        <v>889</v>
       </c>
       <c r="T427" t="n">
         <v>450</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N428" t="n">
-        <v>270000</v>
+        <v>245000</v>
       </c>
       <c r="O428" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="P428" t="n">
-        <v>270000</v>
+        <v>255000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="T428" t="n">
         <v>450</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N429" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O429" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P429" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="T429" t="n">
         <v>450</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N430" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="O430" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="P430" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T430" t="n">
         <v>450</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N431" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="O431" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P431" t="n">
-        <v>315000</v>
+        <v>430000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>700</v>
+        <v>956</v>
       </c>
       <c r="T431" t="n">
         <v>450</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,11 +34920,11 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N432" t="n">
         <v>270000</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,11 +35000,11 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N433" t="n">
         <v>240000</v>
@@ -35022,7 +35022,7 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S433" t="n">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N434" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="O434" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="P434" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T434" t="n">
         <v>450</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
         <v>12</v>
       </c>
       <c r="N435" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O435" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="P435" t="n">
-        <v>400000</v>
+        <v>315000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T435" t="n">
         <v>450</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N436" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O436" t="n">
         <v>270000</v>
       </c>
       <c r="P436" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T436" t="n">
         <v>450</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N437" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="O437" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P437" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35342,11 +35342,11 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T437" t="n">
         <v>450</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N438" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O438" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P438" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35422,11 +35422,11 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T438" t="n">
         <v>450</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T439" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,20 +35564,20 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N440" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="O440" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P440" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>800</v>
+        <v>578</v>
       </c>
       <c r="T440" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N441" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="O441" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P441" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="T441" t="n">
         <v>450</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N442" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="O442" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="P442" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>600</v>
+        <v>289</v>
       </c>
       <c r="T442" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="443">
@@ -35800,36 +35800,36 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
+        <v>150</v>
+      </c>
+      <c r="N443" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O443" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P443" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S443" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T443" t="n">
         <v>10</v>
-      </c>
-      <c r="N443" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O443" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P443" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q443" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R443" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S443" t="n">
-        <v>444</v>
-      </c>
-      <c r="T443" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35884,20 +35884,20 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="N444" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O444" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,10 +35906,10 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="T444" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N445" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O445" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P445" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T445" t="n">
         <v>450</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,24 +36040,24 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N446" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="O446" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="P446" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T446" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N447" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O447" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="P447" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T447" t="n">
         <v>450</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
         <v>14</v>
       </c>
       <c r="N448" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O448" t="n">
-        <v>360000</v>
+        <v>280000</v>
       </c>
       <c r="P448" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="T448" t="n">
         <v>450</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="N449" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O449" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P449" t="n">
-        <v>250800</v>
+        <v>220000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="T449" t="n">
         <v>450</v>
@@ -36327,68 +36327,388 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E450" t="n">
+        <v>13</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I450" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M450" t="n">
+        <v>6</v>
+      </c>
+      <c r="N450" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O450" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P450" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S450" t="n">
+        <v>333</v>
+      </c>
+      <c r="T450" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>6</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D451" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E450" t="n">
-        <v>13</v>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G450" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I450" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L450" t="inlineStr">
+      <c r="E451" t="n">
+        <v>13</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I451" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M451" t="n">
+        <v>30</v>
+      </c>
+      <c r="N451" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O451" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P451" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S451" t="n">
+        <v>622</v>
+      </c>
+      <c r="T451" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>6</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D452" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E452" t="n">
+        <v>13</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M452" t="n">
+        <v>14</v>
+      </c>
+      <c r="N452" t="n">
+        <v>340000</v>
+      </c>
+      <c r="O452" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P452" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S452" t="n">
+        <v>778</v>
+      </c>
+      <c r="T452" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>6</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E453" t="n">
+        <v>13</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I453" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M453" t="n">
+        <v>50</v>
+      </c>
+      <c r="N453" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O453" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P453" t="n">
+        <v>250800</v>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S453" t="n">
+        <v>557</v>
+      </c>
+      <c r="T453" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>6</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E454" t="n">
+        <v>13</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I454" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M450" t="n">
+      <c r="M454" t="n">
         <v>30</v>
       </c>
-      <c r="N450" t="n">
+      <c r="N454" t="n">
         <v>180000</v>
       </c>
-      <c r="O450" t="n">
+      <c r="O454" t="n">
         <v>220000</v>
       </c>
-      <c r="P450" t="n">
+      <c r="P454" t="n">
         <v>206667</v>
       </c>
-      <c r="Q450" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R450" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S450" t="n">
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S454" t="n">
         <v>459</v>
       </c>
-      <c r="T450" t="n">
+      <c r="T454" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T461"/>
+  <dimension ref="A1:T468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N347" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="O347" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="P347" t="n">
-        <v>346154</v>
+        <v>350000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28142,11 +28142,11 @@
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="T347" t="n">
         <v>450</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N348" t="n">
-        <v>420000</v>
+        <v>360000</v>
       </c>
       <c r="O348" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="P348" t="n">
-        <v>420000</v>
+        <v>366522</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>933</v>
+        <v>814</v>
       </c>
       <c r="T348" t="n">
         <v>450</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N349" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="O349" t="n">
-        <v>390000</v>
+        <v>460000</v>
       </c>
       <c r="P349" t="n">
-        <v>319412</v>
+        <v>456667</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>710</v>
+        <v>1015</v>
       </c>
       <c r="T349" t="n">
         <v>450</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N350" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O350" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P350" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="T350" t="n">
         <v>450</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N351" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="O351" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="P351" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>844</v>
+        <v>556</v>
       </c>
       <c r="T351" t="n">
         <v>450</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N352" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O352" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P352" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T352" t="n">
         <v>450</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N353" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O353" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P353" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28622,11 +28622,11 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T353" t="n">
         <v>450</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N354" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O354" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P354" t="n">
-        <v>240000</v>
+        <v>346154</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>533</v>
+        <v>769</v>
       </c>
       <c r="T354" t="n">
         <v>450</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N355" t="n">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="O355" t="n">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="P355" t="n">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>467</v>
+        <v>933</v>
       </c>
       <c r="T355" t="n">
         <v>450</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44308</v>
+        <v>44312</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N356" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O356" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="P356" t="n">
-        <v>340000</v>
+        <v>319412</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>756</v>
+        <v>710</v>
       </c>
       <c r="T356" t="n">
         <v>450</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N357" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O357" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="P357" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>889</v>
+        <v>578</v>
       </c>
       <c r="T357" t="n">
         <v>450</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N358" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="O358" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="P358" t="n">
-        <v>280000</v>
+        <v>380000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>622</v>
+        <v>844</v>
       </c>
       <c r="T358" t="n">
         <v>450</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44264</v>
+        <v>44390</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N359" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O359" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P359" t="n">
-        <v>255000</v>
+        <v>240000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="T359" t="n">
         <v>450</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44463</v>
+        <v>44390</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N360" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O360" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="P360" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29182,11 +29182,11 @@
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>778</v>
+        <v>489</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="N361" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="O361" t="n">
-        <v>450000</v>
+        <v>240000</v>
       </c>
       <c r="P361" t="n">
-        <v>434643</v>
+        <v>240000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29262,11 +29262,11 @@
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>966</v>
+        <v>533</v>
       </c>
       <c r="T361" t="n">
         <v>450</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N362" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O362" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P362" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29342,11 +29342,11 @@
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S362" t="n">
-        <v>578</v>
+        <v>467</v>
       </c>
       <c r="T362" t="n">
         <v>450</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N363" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O363" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="P363" t="n">
-        <v>200000</v>
+        <v>340000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29422,11 +29422,11 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>444</v>
+        <v>756</v>
       </c>
       <c r="T363" t="n">
         <v>450</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N364" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="O364" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="P364" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>689</v>
+        <v>889</v>
       </c>
       <c r="T364" t="n">
         <v>450</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29564,13 +29564,13 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N365" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O365" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P365" t="n">
         <v>280000</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29635,25 +29635,25 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N366" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O366" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P366" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="T366" t="n">
         <v>450</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N367" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="O367" t="n">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="P367" t="n">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29742,11 +29742,11 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="T367" t="n">
         <v>450</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="N368" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="O368" t="n">
-        <v>220000</v>
+        <v>450000</v>
       </c>
       <c r="P368" t="n">
-        <v>220000</v>
+        <v>434643</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29822,11 +29822,11 @@
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>489</v>
+        <v>966</v>
       </c>
       <c r="T368" t="n">
         <v>450</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N369" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O369" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P369" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="T369" t="n">
         <v>450</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N370" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="O370" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P370" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29982,11 +29982,11 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T370" t="n">
         <v>450</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N371" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="O371" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P371" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30062,11 +30062,11 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>578</v>
+        <v>689</v>
       </c>
       <c r="T371" t="n">
         <v>450</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N372" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O372" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P372" t="n">
-        <v>245000</v>
+        <v>280000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="T372" t="n">
         <v>450</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N373" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O373" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P373" t="n">
-        <v>240000</v>
+        <v>225000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30222,11 +30222,11 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="T373" t="n">
         <v>450</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44369</v>
+        <v>44301</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N374" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O374" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P374" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T374" t="n">
         <v>450</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N375" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O375" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P375" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30382,11 +30382,11 @@
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T375" t="n">
         <v>450</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N376" t="n">
         <v>280000</v>
       </c>
       <c r="O376" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P376" t="n">
-        <v>295238</v>
+        <v>280000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30462,11 +30462,11 @@
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="T376" t="n">
         <v>450</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30527,13 +30527,13 @@
         <v>12</v>
       </c>
       <c r="N377" t="n">
-        <v>400000</v>
+        <v>310000</v>
       </c>
       <c r="O377" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P377" t="n">
-        <v>410000</v>
+        <v>320000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>911</v>
+        <v>711</v>
       </c>
       <c r="T377" t="n">
         <v>450</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N378" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O378" t="n">
         <v>260000</v>
       </c>
       <c r="P378" t="n">
-        <v>250250</v>
+        <v>260000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30622,11 +30622,11 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S378" t="n">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="T378" t="n">
         <v>450</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N379" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="O379" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P379" t="n">
-        <v>214615</v>
+        <v>245000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="T379" t="n">
         <v>450</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N380" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="O380" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="P380" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30782,11 +30782,11 @@
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="T380" t="n">
         <v>450</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N381" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O381" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P381" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="T381" t="n">
         <v>450</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N382" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O382" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P382" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30942,11 +30942,11 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T382" t="n">
         <v>450</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N383" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O383" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P383" t="n">
-        <v>330000</v>
+        <v>295238</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>733</v>
+        <v>656</v>
       </c>
       <c r="T383" t="n">
         <v>450</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N384" t="n">
         <v>400000</v>
       </c>
       <c r="O384" t="n">
-        <v>400000</v>
+        <v>420000</v>
       </c>
       <c r="P384" t="n">
-        <v>400000</v>
+        <v>410000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N385" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O385" t="n">
         <v>260000</v>
       </c>
-      <c r="O385" t="n">
-        <v>280000</v>
-      </c>
       <c r="P385" t="n">
-        <v>270000</v>
+        <v>250250</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T385" t="n">
         <v>450</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N386" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="O386" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P386" t="n">
-        <v>230000</v>
+        <v>214615</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="T386" t="n">
         <v>450</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N387" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O387" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P387" t="n">
-        <v>245000</v>
+        <v>320000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>544</v>
+        <v>711</v>
       </c>
       <c r="T387" t="n">
         <v>450</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N388" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O388" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P388" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T388" t="n">
         <v>450</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N389" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="O389" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P389" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T389" t="n">
         <v>450</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N390" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="O390" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="P390" t="n">
-        <v>415000</v>
+        <v>330000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>922</v>
+        <v>733</v>
       </c>
       <c r="T390" t="n">
         <v>450</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N391" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="O391" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="P391" t="n">
-        <v>245000</v>
+        <v>400000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>544</v>
+        <v>889</v>
       </c>
       <c r="T391" t="n">
         <v>450</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N392" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O392" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P392" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T392" t="n">
         <v>450</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N393" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O393" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P393" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="T393" t="n">
         <v>450</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N394" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O394" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P394" t="n">
-        <v>225000</v>
+        <v>245000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="T394" t="n">
         <v>450</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N395" t="n">
         <v>200000</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N396" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O396" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P396" t="n">
-        <v>255000</v>
+        <v>300000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="T396" t="n">
         <v>450</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N397" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="O397" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="P397" t="n">
-        <v>220000</v>
+        <v>415000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>489</v>
+        <v>922</v>
       </c>
       <c r="T397" t="n">
         <v>450</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,36 +32200,36 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>245000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1200</v>
+        <v>544</v>
       </c>
       <c r="T398" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N399" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O399" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P399" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T399" t="n">
         <v>450</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N400" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="O400" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="P400" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>267</v>
+        <v>711</v>
       </c>
       <c r="T400" t="n">
         <v>450</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N401" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="O401" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P401" t="n">
-        <v>300000</v>
+        <v>225000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T401" t="n">
         <v>450</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N402" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O402" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P402" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T402" t="n">
         <v>450</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N403" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O403" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P403" t="n">
-        <v>240000</v>
+        <v>255000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="T403" t="n">
         <v>450</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N404" t="n">
-        <v>9000</v>
+        <v>220000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P404" t="n">
-        <v>9500</v>
+        <v>220000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>950</v>
+        <v>489</v>
       </c>
       <c r="T404" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,36 +32760,36 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="N405" t="n">
-        <v>400000</v>
+        <v>12000</v>
       </c>
       <c r="O405" t="n">
-        <v>430000</v>
+        <v>12000</v>
       </c>
       <c r="P405" t="n">
-        <v>415000</v>
+        <v>12000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>922</v>
+        <v>1200</v>
       </c>
       <c r="T405" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32844,20 +32844,20 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="N406" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="O406" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="P406" t="n">
-        <v>7500</v>
+        <v>250000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="T406" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="407">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N407" t="n">
-        <v>250000</v>
+        <v>120000</v>
       </c>
       <c r="O407" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="P407" t="n">
-        <v>255000</v>
+        <v>120000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>567</v>
+        <v>267</v>
       </c>
       <c r="T407" t="n">
         <v>450</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,24 +33000,24 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N408" t="n">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="O408" t="n">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="P408" t="n">
-        <v>5000</v>
+        <v>300000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T408" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N409" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O409" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P409" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T409" t="n">
         <v>450</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,11 +33160,11 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N410" t="n">
         <v>240000</v>
@@ -33182,7 +33182,7 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S410" t="n">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,36 +33240,36 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N411" t="n">
-        <v>220000</v>
+        <v>9000</v>
       </c>
       <c r="O411" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P411" t="n">
-        <v>220000</v>
+        <v>9500</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>489</v>
+        <v>950</v>
       </c>
       <c r="T411" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M412" t="n">
         <v>16</v>
       </c>
       <c r="N412" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="O412" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="P412" t="n">
-        <v>260000</v>
+        <v>415000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>578</v>
+        <v>922</v>
       </c>
       <c r="T412" t="n">
         <v>450</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>25</v>
+        <v>470</v>
       </c>
       <c r="N413" t="n">
-        <v>220000</v>
+        <v>7000</v>
       </c>
       <c r="O413" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="P413" t="n">
-        <v>220000</v>
+        <v>7500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>489</v>
+        <v>750</v>
       </c>
       <c r="T413" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N414" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="O414" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P414" t="n">
-        <v>180000</v>
+        <v>255000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>400</v>
+        <v>567</v>
       </c>
       <c r="T414" t="n">
         <v>450</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44351</v>
+        <v>44438</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,24 +33560,24 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="N415" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="O415" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="P415" t="n">
-        <v>270000</v>
+        <v>5000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T415" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44351</v>
+        <v>44438</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N416" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="O416" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="P416" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>756</v>
+        <v>444</v>
       </c>
       <c r="T416" t="n">
         <v>450</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N417" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O417" t="n">
         <v>240000</v>
       </c>
       <c r="P417" t="n">
-        <v>235000</v>
+        <v>240000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N418" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O418" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P418" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T418" t="n">
         <v>450</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44365</v>
+        <v>44286</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,24 +33880,24 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P419" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,10 +33906,10 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1200</v>
+        <v>578</v>
       </c>
       <c r="T419" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="420">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,20 +33964,20 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N420" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="O420" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="P420" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,10 +33986,10 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1100</v>
+        <v>489</v>
       </c>
       <c r="T420" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="421">
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,20 +34044,20 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="O421" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="P421" t="n">
-        <v>8000</v>
+        <v>180000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,10 +34066,10 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T421" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="422">
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34127,13 +34127,13 @@
         <v>15</v>
       </c>
       <c r="N422" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="O422" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P422" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="T422" t="n">
         <v>450</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N423" t="n">
-        <v>400000</v>
+        <v>340000</v>
       </c>
       <c r="O423" t="n">
-        <v>400000</v>
+        <v>340000</v>
       </c>
       <c r="P423" t="n">
-        <v>400000</v>
+        <v>340000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="T423" t="n">
         <v>450</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N424" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O424" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="P424" t="n">
-        <v>320000</v>
+        <v>235000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>711</v>
+        <v>522</v>
       </c>
       <c r="T424" t="n">
         <v>450</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N425" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O425" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P425" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="T425" t="n">
         <v>450</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,20 +34444,20 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N426" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,10 +34466,10 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T426" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,24 +34520,24 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N427" t="n">
-        <v>430000</v>
+        <v>11000</v>
       </c>
       <c r="O427" t="n">
-        <v>430000</v>
+        <v>11000</v>
       </c>
       <c r="P427" t="n">
-        <v>430000</v>
+        <v>11000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>956</v>
+        <v>1100</v>
       </c>
       <c r="T427" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,24 +34600,24 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="N428" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="O428" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="P428" t="n">
-        <v>265000</v>
+        <v>8000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,10 +34626,10 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>589</v>
+        <v>800</v>
       </c>
       <c r="T428" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429">
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N429" t="n">
-        <v>220000</v>
+        <v>340000</v>
       </c>
       <c r="O429" t="n">
-        <v>220000</v>
+        <v>340000</v>
       </c>
       <c r="P429" t="n">
-        <v>220000</v>
+        <v>340000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>489</v>
+        <v>756</v>
       </c>
       <c r="T429" t="n">
         <v>450</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N430" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="O430" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="P430" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>711</v>
+        <v>889</v>
       </c>
       <c r="T430" t="n">
         <v>450</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N431" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O431" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P431" t="n">
-        <v>235000</v>
+        <v>320000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>522</v>
+        <v>711</v>
       </c>
       <c r="T431" t="n">
         <v>450</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N432" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O432" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P432" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T432" t="n">
         <v>450</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N433" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="O433" t="n">
         <v>350000</v>
       </c>
       <c r="P433" t="n">
-        <v>340000</v>
+        <v>350000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="T433" t="n">
         <v>450</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N434" t="n">
-        <v>400000</v>
+        <v>430000</v>
       </c>
       <c r="O434" t="n">
-        <v>400000</v>
+        <v>430000</v>
       </c>
       <c r="P434" t="n">
-        <v>400000</v>
+        <v>430000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>889</v>
+        <v>956</v>
       </c>
       <c r="T434" t="n">
         <v>450</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35164,17 +35164,17 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N435" t="n">
-        <v>245000</v>
+        <v>260000</v>
       </c>
       <c r="O435" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P435" t="n">
         <v>265000</v>
       </c>
-      <c r="P435" t="n">
-        <v>255000</v>
-      </c>
       <c r="Q435" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="T435" t="n">
         <v>450</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N436" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="O436" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P436" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="T436" t="n">
         <v>450</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N437" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O437" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="P437" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="T437" t="n">
         <v>450</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N438" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="O438" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P438" t="n">
-        <v>430000</v>
+        <v>235000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>956</v>
+        <v>522</v>
       </c>
       <c r="T438" t="n">
         <v>450</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N439" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O439" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P439" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T439" t="n">
         <v>450</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N440" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O440" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P440" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>533</v>
+        <v>756</v>
       </c>
       <c r="T440" t="n">
         <v>450</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N441" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="O441" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="P441" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T441" t="n">
         <v>450</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N442" t="n">
-        <v>300000</v>
+        <v>245000</v>
       </c>
       <c r="O442" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="P442" t="n">
-        <v>315000</v>
+        <v>255000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="T442" t="n">
         <v>450</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N443" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O443" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P443" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T443" t="n">
         <v>450</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N444" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O444" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P444" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T444" t="n">
         <v>450</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N445" t="n">
-        <v>200000</v>
+        <v>430000</v>
       </c>
       <c r="O445" t="n">
-        <v>200000</v>
+        <v>430000</v>
       </c>
       <c r="P445" t="n">
-        <v>200000</v>
+        <v>430000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35982,11 +35982,11 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>444</v>
+        <v>956</v>
       </c>
       <c r="T445" t="n">
         <v>450</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44292</v>
+        <v>44411</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N446" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O446" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="P446" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>889</v>
+        <v>600</v>
       </c>
       <c r="T446" t="n">
         <v>450</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44292</v>
+        <v>44411</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N447" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O447" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P447" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T447" t="n">
         <v>450</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N448" t="n">
-        <v>210000</v>
+        <v>360000</v>
       </c>
       <c r="O448" t="n">
-        <v>210000</v>
+        <v>360000</v>
       </c>
       <c r="P448" t="n">
-        <v>210000</v>
+        <v>360000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="T448" t="n">
         <v>450</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N449" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O449" t="n">
-        <v>130000</v>
+        <v>330000</v>
       </c>
       <c r="P449" t="n">
-        <v>130000</v>
+        <v>315000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>289</v>
+        <v>700</v>
       </c>
       <c r="T449" t="n">
         <v>450</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44358</v>
+        <v>44257</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,24 +36360,24 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="N450" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="O450" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P450" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,32 +36444,32 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="N451" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O451" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P451" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N452" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O452" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P452" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36542,11 +36542,11 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T452" t="n">
         <v>450</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,24 +36600,24 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="N453" t="n">
-        <v>6000</v>
+        <v>400000</v>
       </c>
       <c r="O453" t="n">
-        <v>6000</v>
+        <v>400000</v>
       </c>
       <c r="P453" t="n">
-        <v>6000</v>
+        <v>400000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T453" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N454" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O454" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P454" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T454" t="n">
         <v>450</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N455" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="O455" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="P455" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="T455" t="n">
         <v>450</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N456" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="O456" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="P456" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="T456" t="n">
         <v>450</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N457" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O457" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P457" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="T457" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,24 +37000,24 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N458" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O458" t="n">
-        <v>290000</v>
+        <v>8000</v>
       </c>
       <c r="P458" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,10 +37026,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="T458" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N459" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O459" t="n">
-        <v>360000</v>
+        <v>230000</v>
       </c>
       <c r="P459" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>778</v>
+        <v>511</v>
       </c>
       <c r="T459" t="n">
         <v>450</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,24 +37160,24 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N460" t="n">
-        <v>240000</v>
+        <v>6000</v>
       </c>
       <c r="O460" t="n">
-        <v>260000</v>
+        <v>6000</v>
       </c>
       <c r="P460" t="n">
-        <v>250800</v>
+        <v>6000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="T460" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461">
@@ -37207,68 +37207,628 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E461" t="n">
+        <v>13</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I461" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M461" t="n">
+        <v>10</v>
+      </c>
+      <c r="N461" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O461" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P461" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S461" t="n">
+        <v>444</v>
+      </c>
+      <c r="T461" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>6</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D462" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E462" t="n">
+        <v>13</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I462" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M462" t="n">
+        <v>14</v>
+      </c>
+      <c r="N462" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O462" t="n">
+        <v>280000</v>
+      </c>
+      <c r="P462" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S462" t="n">
+        <v>622</v>
+      </c>
+      <c r="T462" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>6</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D463" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E463" t="n">
+        <v>13</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I463" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M463" t="n">
+        <v>8</v>
+      </c>
+      <c r="N463" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O463" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P463" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S463" t="n">
+        <v>489</v>
+      </c>
+      <c r="T463" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>6</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D464" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E464" t="n">
+        <v>13</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M464" t="n">
+        <v>6</v>
+      </c>
+      <c r="N464" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O464" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P464" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S464" t="n">
+        <v>333</v>
+      </c>
+      <c r="T464" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>6</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D465" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E461" t="n">
-        <v>13</v>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G461" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I461" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J461" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L461" t="inlineStr">
+      <c r="E465" t="n">
+        <v>13</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I465" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M465" t="n">
+        <v>30</v>
+      </c>
+      <c r="N465" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O465" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P465" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S465" t="n">
+        <v>622</v>
+      </c>
+      <c r="T465" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>6</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D466" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E466" t="n">
+        <v>13</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I466" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M466" t="n">
+        <v>14</v>
+      </c>
+      <c r="N466" t="n">
+        <v>340000</v>
+      </c>
+      <c r="O466" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P466" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S466" t="n">
+        <v>778</v>
+      </c>
+      <c r="T466" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>6</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D467" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E467" t="n">
+        <v>13</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I467" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M467" t="n">
+        <v>50</v>
+      </c>
+      <c r="N467" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O467" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P467" t="n">
+        <v>250800</v>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S467" t="n">
+        <v>557</v>
+      </c>
+      <c r="T467" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>6</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D468" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E468" t="n">
+        <v>13</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I468" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M461" t="n">
+      <c r="M468" t="n">
         <v>30</v>
       </c>
-      <c r="N461" t="n">
+      <c r="N468" t="n">
         <v>180000</v>
       </c>
-      <c r="O461" t="n">
+      <c r="O468" t="n">
         <v>220000</v>
       </c>
-      <c r="P461" t="n">
+      <c r="P468" t="n">
         <v>206667</v>
       </c>
-      <c r="Q461" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R461" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S461" t="n">
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S468" t="n">
         <v>459</v>
       </c>
-      <c r="T461" t="n">
+      <c r="T468" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T478"/>
+  <dimension ref="A1:T484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N421" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T421" t="n">
         <v>10</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N422" t="n">
-        <v>400000</v>
+        <v>380000</v>
       </c>
       <c r="O422" t="n">
-        <v>430000</v>
+        <v>380000</v>
       </c>
       <c r="P422" t="n">
-        <v>415000</v>
+        <v>380000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>922</v>
+        <v>844</v>
       </c>
       <c r="T422" t="n">
         <v>450</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>470</v>
+        <v>15</v>
       </c>
       <c r="N423" t="n">
-        <v>7000</v>
+        <v>460000</v>
       </c>
       <c r="O423" t="n">
-        <v>8000</v>
+        <v>460000</v>
       </c>
       <c r="P423" t="n">
-        <v>7500</v>
+        <v>460000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,10 +34226,10 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>750</v>
+        <v>1022</v>
       </c>
       <c r="T423" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34284,20 +34284,20 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="N424" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>255000</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,10 +34306,10 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>567</v>
+        <v>1000</v>
       </c>
       <c r="T424" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,24 +34360,24 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="N425" t="n">
-        <v>5000</v>
+        <v>260000</v>
       </c>
       <c r="O425" t="n">
-        <v>5000</v>
+        <v>260000</v>
       </c>
       <c r="P425" t="n">
-        <v>5000</v>
+        <v>260000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="T425" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="426">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,20 +34444,20 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="N426" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O426" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P426" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,10 +34466,10 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T426" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,36 +34520,36 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
+        <v>150</v>
+      </c>
+      <c r="N427" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O427" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P427" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S427" t="n">
+        <v>950</v>
+      </c>
+      <c r="T427" t="n">
         <v>10</v>
-      </c>
-      <c r="N427" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O427" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P427" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q427" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R427" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S427" t="n">
-        <v>533</v>
-      </c>
-      <c r="T427" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="428">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N428" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="O428" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="P428" t="n">
-        <v>220000</v>
+        <v>415000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>489</v>
+        <v>922</v>
       </c>
       <c r="T428" t="n">
         <v>450</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34684,20 +34684,20 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>16</v>
+        <v>470</v>
       </c>
       <c r="N429" t="n">
-        <v>250000</v>
+        <v>7000</v>
       </c>
       <c r="O429" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="P429" t="n">
-        <v>260000</v>
+        <v>7500</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,10 +34706,10 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>578</v>
+        <v>750</v>
       </c>
       <c r="T429" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N430" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O430" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P430" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T430" t="n">
         <v>450</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,20 +34844,20 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="N431" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="O431" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="P431" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T431" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44351</v>
+        <v>44438</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N432" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O432" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P432" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T432" t="n">
         <v>450</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N433" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="O433" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="P433" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>756</v>
+        <v>533</v>
       </c>
       <c r="T433" t="n">
         <v>450</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N434" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O434" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P434" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="T434" t="n">
         <v>450</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N435" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O435" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P435" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T435" t="n">
         <v>450</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,24 +35240,24 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N436" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O436" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P436" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1200</v>
+        <v>489</v>
       </c>
       <c r="T436" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,24 +35320,24 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N437" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="O437" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="P437" t="n">
-        <v>11000</v>
+        <v>180000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="T437" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,24 +35400,24 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N438" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="O438" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P438" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T438" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,7 +35480,7 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M439" t="n">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N440" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O440" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="P440" t="n">
-        <v>400000</v>
+        <v>235000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>889</v>
+        <v>522</v>
       </c>
       <c r="T440" t="n">
         <v>450</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
         <v>20</v>
       </c>
       <c r="N441" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O441" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P441" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T441" t="n">
         <v>450</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="N442" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>578</v>
+        <v>1200</v>
       </c>
       <c r="T442" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,24 +35800,24 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N443" t="n">
-        <v>350000</v>
+        <v>11000</v>
       </c>
       <c r="O443" t="n">
-        <v>350000</v>
+        <v>11000</v>
       </c>
       <c r="P443" t="n">
-        <v>350000</v>
+        <v>11000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>778</v>
+        <v>1100</v>
       </c>
       <c r="T443" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,24 +35880,24 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N444" t="n">
-        <v>430000</v>
+        <v>8000</v>
       </c>
       <c r="O444" t="n">
-        <v>430000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>430000</v>
+        <v>8000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,10 +35906,10 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>956</v>
+        <v>800</v>
       </c>
       <c r="T444" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N445" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O445" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="P445" t="n">
-        <v>265000</v>
+        <v>340000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>589</v>
+        <v>756</v>
       </c>
       <c r="T445" t="n">
         <v>450</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N446" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="O446" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="P446" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>489</v>
+        <v>889</v>
       </c>
       <c r="T446" t="n">
         <v>450</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,11 +36120,11 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N447" t="n">
         <v>320000</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N448" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O448" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P448" t="n">
-        <v>235000</v>
+        <v>260000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="T448" t="n">
         <v>450</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N449" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="O449" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="P449" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T449" t="n">
         <v>450</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N450" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="O450" t="n">
-        <v>350000</v>
+        <v>430000</v>
       </c>
       <c r="P450" t="n">
-        <v>340000</v>
+        <v>430000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>756</v>
+        <v>956</v>
       </c>
       <c r="T450" t="n">
         <v>450</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N451" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O451" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="P451" t="n">
-        <v>400000</v>
+        <v>265000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>889</v>
+        <v>589</v>
       </c>
       <c r="T451" t="n">
         <v>450</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N452" t="n">
-        <v>245000</v>
+        <v>220000</v>
       </c>
       <c r="O452" t="n">
-        <v>265000</v>
+        <v>220000</v>
       </c>
       <c r="P452" t="n">
-        <v>255000</v>
+        <v>220000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>567</v>
+        <v>489</v>
       </c>
       <c r="T452" t="n">
         <v>450</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N453" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="O453" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="P453" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>467</v>
+        <v>711</v>
       </c>
       <c r="T453" t="n">
         <v>450</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N454" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O454" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P454" t="n">
-        <v>350000</v>
+        <v>235000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>778</v>
+        <v>522</v>
       </c>
       <c r="T454" t="n">
         <v>450</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N455" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="O455" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="P455" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>956</v>
+        <v>444</v>
       </c>
       <c r="T455" t="n">
         <v>450</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N456" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O456" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="P456" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="T456" t="n">
         <v>450</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M457" t="n">
         <v>20</v>
       </c>
       <c r="N457" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="O457" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="P457" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>533</v>
+        <v>889</v>
       </c>
       <c r="T457" t="n">
         <v>450</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N458" t="n">
-        <v>360000</v>
+        <v>245000</v>
       </c>
       <c r="O458" t="n">
-        <v>360000</v>
+        <v>265000</v>
       </c>
       <c r="P458" t="n">
-        <v>360000</v>
+        <v>255000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="T458" t="n">
         <v>450</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N459" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="O459" t="n">
-        <v>330000</v>
+        <v>210000</v>
       </c>
       <c r="P459" t="n">
-        <v>315000</v>
+        <v>210000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T459" t="n">
         <v>450</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N460" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O460" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="P460" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T460" t="n">
         <v>450</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N461" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="O461" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="P461" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37262,11 +37262,11 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>533</v>
+        <v>956</v>
       </c>
       <c r="T461" t="n">
         <v>450</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N462" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O462" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P462" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37342,11 +37342,11 @@
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T462" t="n">
         <v>450</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44292</v>
+        <v>44411</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N463" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O463" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="P463" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>889</v>
+        <v>533</v>
       </c>
       <c r="T463" t="n">
         <v>450</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N464" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="O464" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="P464" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="T464" t="n">
         <v>450</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N465" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="O465" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="P465" t="n">
-        <v>210000</v>
+        <v>315000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="T465" t="n">
         <v>450</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N466" t="n">
-        <v>130000</v>
+        <v>270000</v>
       </c>
       <c r="O466" t="n">
-        <v>130000</v>
+        <v>270000</v>
       </c>
       <c r="P466" t="n">
-        <v>130000</v>
+        <v>270000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>289</v>
+        <v>600</v>
       </c>
       <c r="T466" t="n">
         <v>450</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,36 +37720,36 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N467" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="O467" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="P467" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T467" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,36 +37800,36 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N468" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P468" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T468" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N469" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="O469" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="P469" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>511</v>
+        <v>889</v>
       </c>
       <c r="T469" t="n">
         <v>450</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,24 +37960,24 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="N470" t="n">
-        <v>6000</v>
+        <v>250000</v>
       </c>
       <c r="O470" t="n">
-        <v>6000</v>
+        <v>270000</v>
       </c>
       <c r="P470" t="n">
-        <v>6000</v>
+        <v>260000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="T470" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="471">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38047,13 +38047,13 @@
         <v>10</v>
       </c>
       <c r="N471" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="O471" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P471" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T471" t="n">
         <v>450</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N472" t="n">
-        <v>280000</v>
+        <v>130000</v>
       </c>
       <c r="O472" t="n">
-        <v>280000</v>
+        <v>130000</v>
       </c>
       <c r="P472" t="n">
-        <v>280000</v>
+        <v>130000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>622</v>
+        <v>289</v>
       </c>
       <c r="T472" t="n">
         <v>450</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,24 +38200,24 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N473" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O473" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P473" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
@@ -38226,10 +38226,10 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>489</v>
+        <v>1000</v>
       </c>
       <c r="T473" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474">
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,24 +38280,24 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N474" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O474" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P474" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,10 +38306,10 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="T474" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N475" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O475" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="P475" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T475" t="n">
         <v>450</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,24 +38440,24 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="N476" t="n">
-        <v>340000</v>
+        <v>6000</v>
       </c>
       <c r="O476" t="n">
-        <v>360000</v>
+        <v>6000</v>
       </c>
       <c r="P476" t="n">
-        <v>350000</v>
+        <v>6000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -38466,10 +38466,10 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T476" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="477">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N477" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O477" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P477" t="n">
-        <v>250800</v>
+        <v>200000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>557</v>
+        <v>444</v>
       </c>
       <c r="T477" t="n">
         <v>450</v>
@@ -38567,68 +38567,548 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E478" t="n">
+        <v>13</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I478" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M478" t="n">
+        <v>14</v>
+      </c>
+      <c r="N478" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O478" t="n">
+        <v>280000</v>
+      </c>
+      <c r="P478" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S478" t="n">
+        <v>622</v>
+      </c>
+      <c r="T478" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>6</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D479" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E479" t="n">
+        <v>13</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M479" t="n">
+        <v>8</v>
+      </c>
+      <c r="N479" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O479" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P479" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S479" t="n">
+        <v>489</v>
+      </c>
+      <c r="T479" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>6</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E480" t="n">
+        <v>13</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M480" t="n">
+        <v>6</v>
+      </c>
+      <c r="N480" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O480" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P480" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S480" t="n">
+        <v>333</v>
+      </c>
+      <c r="T480" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>6</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E478" t="n">
-        <v>13</v>
-      </c>
-      <c r="F478" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G478" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I478" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J478" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L478" t="inlineStr">
+      <c r="E481" t="n">
+        <v>13</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I481" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M481" t="n">
+        <v>30</v>
+      </c>
+      <c r="N481" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O481" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P481" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S481" t="n">
+        <v>622</v>
+      </c>
+      <c r="T481" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>6</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D482" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E482" t="n">
+        <v>13</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I482" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M482" t="n">
+        <v>14</v>
+      </c>
+      <c r="N482" t="n">
+        <v>340000</v>
+      </c>
+      <c r="O482" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P482" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S482" t="n">
+        <v>778</v>
+      </c>
+      <c r="T482" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>6</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D483" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E483" t="n">
+        <v>13</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I483" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M483" t="n">
+        <v>50</v>
+      </c>
+      <c r="N483" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O483" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P483" t="n">
+        <v>250800</v>
+      </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S483" t="n">
+        <v>557</v>
+      </c>
+      <c r="T483" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>6</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E484" t="n">
+        <v>13</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I484" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M478" t="n">
+      <c r="M484" t="n">
         <v>30</v>
       </c>
-      <c r="N478" t="n">
+      <c r="N484" t="n">
         <v>180000</v>
       </c>
-      <c r="O478" t="n">
+      <c r="O484" t="n">
         <v>220000</v>
       </c>
-      <c r="P478" t="n">
+      <c r="P484" t="n">
         <v>206667</v>
       </c>
-      <c r="Q478" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R478" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S478" t="n">
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S484" t="n">
         <v>459</v>
       </c>
-      <c r="T478" t="n">
+      <c r="T484" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T498"/>
+  <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,32 +32524,32 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="N402" t="n">
-        <v>350000</v>
+        <v>11000</v>
       </c>
       <c r="O402" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="P402" t="n">
-        <v>350000</v>
+        <v>11346</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>778</v>
+        <v>1135</v>
       </c>
       <c r="T402" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,24 +32600,24 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="N403" t="n">
-        <v>360000</v>
+        <v>9000</v>
       </c>
       <c r="O403" t="n">
-        <v>370000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>366522</v>
+        <v>9412</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>814</v>
+        <v>941</v>
       </c>
       <c r="T403" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="N404" t="n">
-        <v>450000</v>
+        <v>7000</v>
       </c>
       <c r="O404" t="n">
-        <v>460000</v>
+        <v>8000</v>
       </c>
       <c r="P404" t="n">
-        <v>456667</v>
+        <v>7375</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1015</v>
+        <v>738</v>
       </c>
       <c r="T404" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405">
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N405" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="O405" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P405" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>622</v>
+        <v>778</v>
       </c>
       <c r="T405" t="n">
         <v>450</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N406" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="O406" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="P406" t="n">
-        <v>250000</v>
+        <v>366522</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>556</v>
+        <v>814</v>
       </c>
       <c r="T406" t="n">
         <v>450</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M407" t="n">
         <v>15</v>
       </c>
       <c r="N407" t="n">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="O407" t="n">
-        <v>250000</v>
+        <v>460000</v>
       </c>
       <c r="P407" t="n">
-        <v>250000</v>
+        <v>456667</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>556</v>
+        <v>1015</v>
       </c>
       <c r="T407" t="n">
         <v>450</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="N408" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O408" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P408" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T408" t="n">
         <v>450</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N409" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O409" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P409" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33102,11 +33102,11 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T409" t="n">
         <v>450</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N410" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="O410" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="P410" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T410" t="n">
         <v>450</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="N411" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O411" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P411" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N412" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O412" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P412" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T412" t="n">
         <v>450</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,24 +33400,24 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="N413" t="n">
-        <v>16000</v>
+        <v>210000</v>
       </c>
       <c r="O413" t="n">
-        <v>16000</v>
+        <v>210000</v>
       </c>
       <c r="P413" t="n">
-        <v>16000</v>
+        <v>210000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1600</v>
+        <v>467</v>
       </c>
       <c r="T413" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N414" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O414" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P414" t="n">
-        <v>270000</v>
+        <v>255000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="T414" t="n">
         <v>450</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N415" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O415" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P415" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T415" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="416">
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N416" t="n">
-        <v>230000</v>
+        <v>16000</v>
       </c>
       <c r="O416" t="n">
-        <v>230000</v>
+        <v>16000</v>
       </c>
       <c r="P416" t="n">
-        <v>230000</v>
+        <v>16000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>511</v>
+        <v>1600</v>
       </c>
       <c r="T416" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
         <v>15</v>
       </c>
       <c r="N417" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O417" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P417" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>711</v>
+        <v>600</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N418" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,10 +33826,10 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T418" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33887,13 +33887,13 @@
         <v>15</v>
       </c>
       <c r="N419" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O419" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P419" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T419" t="n">
         <v>450</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M420" t="n">
         <v>15</v>
       </c>
       <c r="N420" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="O420" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="P420" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="T420" t="n">
         <v>450</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N421" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O421" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="P421" t="n">
-        <v>400000</v>
+        <v>225000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T421" t="n">
         <v>450</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N422" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O422" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P422" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T422" t="n">
         <v>450</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N423" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O423" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P423" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T423" t="n">
         <v>450</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N424" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="O424" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="P424" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>622</v>
+        <v>889</v>
       </c>
       <c r="T424" t="n">
         <v>450</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,17 +34360,17 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N425" t="n">
-        <v>310000</v>
+        <v>320000</v>
       </c>
       <c r="O425" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P425" t="n">
         <v>320000</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,11 +34440,11 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N426" t="n">
         <v>260000</v>
@@ -34462,7 +34462,7 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S426" t="n">
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N427" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O427" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P427" t="n">
-        <v>245000</v>
+        <v>280000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34542,11 +34542,11 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="T427" t="n">
         <v>450</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N428" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="O428" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P428" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T428" t="n">
         <v>450</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N429" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O429" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P429" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="T429" t="n">
         <v>450</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N430" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O430" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="P430" t="n">
-        <v>160000</v>
+        <v>245000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>356</v>
+        <v>544</v>
       </c>
       <c r="T430" t="n">
         <v>450</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N431" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O431" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P431" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="T431" t="n">
         <v>450</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N432" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="O432" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P432" t="n">
-        <v>310000</v>
+        <v>210000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>689</v>
+        <v>467</v>
       </c>
       <c r="T432" t="n">
         <v>450</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N433" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="O433" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="P433" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>622</v>
+        <v>356</v>
       </c>
       <c r="T433" t="n">
         <v>450</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N434" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O434" t="n">
         <v>230000</v>
       </c>
       <c r="P434" t="n">
-        <v>225000</v>
+        <v>230000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="T434" t="n">
         <v>450</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N435" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="O435" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P435" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>400</v>
+        <v>689</v>
       </c>
       <c r="T435" t="n">
         <v>450</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N436" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O436" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P436" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T436" t="n">
         <v>450</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N437" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O437" t="n">
         <v>230000</v>
       </c>
-      <c r="O437" t="n">
-        <v>240000</v>
-      </c>
       <c r="P437" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="T437" t="n">
         <v>450</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N438" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O438" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P438" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T438" t="n">
         <v>450</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,11 +35480,11 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N439" t="n">
         <v>320000</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N440" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O440" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P440" t="n">
-        <v>350000</v>
+        <v>235000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>778</v>
+        <v>522</v>
       </c>
       <c r="T440" t="n">
         <v>450</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N441" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O441" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P441" t="n">
-        <v>275000</v>
+        <v>200000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T441" t="n">
         <v>450</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N442" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O442" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P442" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="T442" t="n">
         <v>450</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N443" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O443" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="P443" t="n">
-        <v>319655</v>
+        <v>350000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>710</v>
+        <v>778</v>
       </c>
       <c r="T443" t="n">
         <v>450</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N444" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O444" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P444" t="n">
-        <v>362000</v>
+        <v>275000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>804</v>
+        <v>611</v>
       </c>
       <c r="T444" t="n">
         <v>450</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N445" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O445" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P445" t="n">
-        <v>256818</v>
+        <v>230000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="T445" t="n">
         <v>450</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N446" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O446" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P446" t="n">
-        <v>210000</v>
+        <v>319655</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>467</v>
+        <v>710</v>
       </c>
       <c r="T446" t="n">
         <v>450</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N447" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="O447" t="n">
-        <v>140000</v>
+        <v>370000</v>
       </c>
       <c r="P447" t="n">
-        <v>140000</v>
+        <v>362000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>311</v>
+        <v>804</v>
       </c>
       <c r="T447" t="n">
         <v>450</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="N448" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O448" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P448" t="n">
-        <v>325000</v>
+        <v>256818</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>722</v>
+        <v>571</v>
       </c>
       <c r="T448" t="n">
         <v>450</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N449" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="O449" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="P449" t="n">
-        <v>380000</v>
+        <v>210000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>844</v>
+        <v>467</v>
       </c>
       <c r="T449" t="n">
         <v>450</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N450" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="O450" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P450" t="n">
-        <v>275000</v>
+        <v>140000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>611</v>
+        <v>311</v>
       </c>
       <c r="T450" t="n">
         <v>450</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N451" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O451" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P451" t="n">
-        <v>230000</v>
+        <v>325000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>511</v>
+        <v>722</v>
       </c>
       <c r="T451" t="n">
         <v>450</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N452" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="O452" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="P452" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>667</v>
+        <v>844</v>
       </c>
       <c r="T452" t="n">
         <v>450</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N453" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O453" t="n">
-        <v>430000</v>
+        <v>280000</v>
       </c>
       <c r="P453" t="n">
-        <v>415000</v>
+        <v>275000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>922</v>
+        <v>611</v>
       </c>
       <c r="T453" t="n">
         <v>450</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N454" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O454" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P454" t="n">
-        <v>245000</v>
+        <v>230000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="T454" t="n">
         <v>450</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N455" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O455" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P455" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T455" t="n">
         <v>450</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N456" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="O456" t="n">
-        <v>320000</v>
+        <v>430000</v>
       </c>
       <c r="P456" t="n">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>689</v>
+        <v>922</v>
       </c>
       <c r="T456" t="n">
         <v>450</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N457" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="O457" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="P457" t="n">
-        <v>350000</v>
+        <v>245000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>778</v>
+        <v>544</v>
       </c>
       <c r="T457" t="n">
         <v>450</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N458" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="O458" t="n">
-        <v>360000</v>
+        <v>200000</v>
       </c>
       <c r="P458" t="n">
-        <v>355000</v>
+        <v>200000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>789</v>
+        <v>444</v>
       </c>
       <c r="T458" t="n">
         <v>450</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N459" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O459" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P459" t="n">
-        <v>400000</v>
+        <v>310000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>889</v>
+        <v>689</v>
       </c>
       <c r="T459" t="n">
         <v>450</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N460" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O460" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="P460" t="n">
-        <v>315000</v>
+        <v>350000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T460" t="n">
         <v>450</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M461" t="n">
         <v>20</v>
       </c>
       <c r="N461" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O461" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="P461" t="n">
-        <v>250000</v>
+        <v>355000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>556</v>
+        <v>789</v>
       </c>
       <c r="T461" t="n">
         <v>450</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N462" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="O462" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="P462" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>622</v>
+        <v>889</v>
       </c>
       <c r="T462" t="n">
         <v>450</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N463" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O463" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P463" t="n">
-        <v>220000</v>
+        <v>315000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>489</v>
+        <v>700</v>
       </c>
       <c r="T463" t="n">
         <v>450</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N464" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O464" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="P464" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T464" t="n">
         <v>450</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N465" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O465" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P465" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="T465" t="n">
         <v>450</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
         <v>8</v>
       </c>
       <c r="N466" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="O466" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="P466" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>844</v>
+        <v>489</v>
       </c>
       <c r="T466" t="n">
         <v>450</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N467" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="O467" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="P467" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="T467" t="n">
         <v>450</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N468" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O468" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P468" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T468" t="n">
         <v>450</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N469" t="n">
-        <v>360000</v>
+        <v>380000</v>
       </c>
       <c r="O469" t="n">
-        <v>360000</v>
+        <v>380000</v>
       </c>
       <c r="P469" t="n">
-        <v>360000</v>
+        <v>380000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>800</v>
+        <v>844</v>
       </c>
       <c r="T469" t="n">
         <v>450</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
         <v>12</v>
       </c>
       <c r="N470" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="O470" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P470" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>956</v>
+        <v>533</v>
       </c>
       <c r="T470" t="n">
         <v>450</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N471" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O471" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P471" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T471" t="n">
         <v>450</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N472" t="n">
-        <v>220000</v>
+        <v>360000</v>
       </c>
       <c r="O472" t="n">
-        <v>220000</v>
+        <v>360000</v>
       </c>
       <c r="P472" t="n">
-        <v>220000</v>
+        <v>360000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>489</v>
+        <v>800</v>
       </c>
       <c r="T472" t="n">
         <v>450</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M473" t="n">
         <v>12</v>
       </c>
       <c r="N473" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="O473" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="P473" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>622</v>
+        <v>956</v>
       </c>
       <c r="T473" t="n">
         <v>450</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N474" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O474" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P474" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T474" t="n">
         <v>450</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N475" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O475" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P475" t="n">
-        <v>255000</v>
+        <v>220000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>567</v>
+        <v>489</v>
       </c>
       <c r="T475" t="n">
         <v>450</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,20 +38444,20 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N476" t="n">
-        <v>9000</v>
+        <v>280000</v>
       </c>
       <c r="O476" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P476" t="n">
-        <v>9500</v>
+        <v>280000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -38466,10 +38466,10 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>950</v>
+        <v>622</v>
       </c>
       <c r="T476" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="477">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N477" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="O477" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="P477" t="n">
-        <v>415000</v>
+        <v>330000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>922</v>
+        <v>733</v>
       </c>
       <c r="T477" t="n">
         <v>450</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,20 +38604,20 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>470</v>
+        <v>16</v>
       </c>
       <c r="N478" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="O478" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="P478" t="n">
-        <v>7500</v>
+        <v>255000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
@@ -38626,10 +38626,10 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>750</v>
+        <v>567</v>
       </c>
       <c r="T478" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="479">
@@ -38680,24 +38680,24 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N479" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O479" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P479" t="n">
-        <v>255000</v>
+        <v>9500</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
@@ -38706,10 +38706,10 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="T479" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480">
@@ -38760,24 +38760,24 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="N480" t="n">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="O480" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="P480" t="n">
-        <v>5000</v>
+        <v>415000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R480" t="inlineStr">
@@ -38786,10 +38786,10 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="T480" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="481">
@@ -38840,24 +38840,24 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="N481" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O481" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P481" t="n">
-        <v>200000</v>
+        <v>7500</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
@@ -38866,10 +38866,10 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T481" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="482">
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N482" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="O482" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="P482" t="n">
-        <v>350000</v>
+        <v>255000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>778</v>
+        <v>567</v>
       </c>
       <c r="T482" t="n">
         <v>450</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,24 +39000,24 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="N483" t="n">
-        <v>430000</v>
+        <v>5000</v>
       </c>
       <c r="O483" t="n">
-        <v>430000</v>
+        <v>5000</v>
       </c>
       <c r="P483" t="n">
-        <v>430000</v>
+        <v>5000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
@@ -39026,10 +39026,10 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>956</v>
+        <v>500</v>
       </c>
       <c r="T483" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="484">
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N484" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O484" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P484" t="n">
-        <v>265000</v>
+        <v>200000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>589</v>
+        <v>444</v>
       </c>
       <c r="T484" t="n">
         <v>450</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N485" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O485" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P485" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>489</v>
+        <v>778</v>
       </c>
       <c r="T485" t="n">
         <v>450</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N486" t="n">
-        <v>250000</v>
+        <v>430000</v>
       </c>
       <c r="O486" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="P486" t="n">
-        <v>260000</v>
+        <v>430000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>578</v>
+        <v>956</v>
       </c>
       <c r="T486" t="n">
         <v>450</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N487" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O487" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P487" t="n">
-        <v>240000</v>
+        <v>265000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="T487" t="n">
         <v>450</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N488" t="n">
         <v>220000</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N489" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O489" t="n">
-        <v>360000</v>
+        <v>270000</v>
       </c>
       <c r="P489" t="n">
-        <v>346154</v>
+        <v>260000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>769</v>
+        <v>578</v>
       </c>
       <c r="T489" t="n">
         <v>450</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
         <v>30</v>
       </c>
       <c r="N490" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="O490" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P490" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T490" t="n">
         <v>450</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N491" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="O491" t="n">
-        <v>390000</v>
+        <v>220000</v>
       </c>
       <c r="P491" t="n">
-        <v>319412</v>
+        <v>220000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>710</v>
+        <v>489</v>
       </c>
       <c r="T491" t="n">
         <v>450</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N492" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O492" t="n">
-        <v>310000</v>
+        <v>360000</v>
       </c>
       <c r="P492" t="n">
-        <v>305000</v>
+        <v>346154</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>678</v>
+        <v>769</v>
       </c>
       <c r="T492" t="n">
         <v>450</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N493" t="n">
-        <v>350000</v>
+        <v>420000</v>
       </c>
       <c r="O493" t="n">
-        <v>350000</v>
+        <v>420000</v>
       </c>
       <c r="P493" t="n">
-        <v>350000</v>
+        <v>420000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T493" t="n">
         <v>450</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N494" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O494" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="P494" t="n">
-        <v>260000</v>
+        <v>319412</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>578</v>
+        <v>710</v>
       </c>
       <c r="T494" t="n">
         <v>450</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N495" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O495" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="P495" t="n">
-        <v>220000</v>
+        <v>305000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>489</v>
+        <v>678</v>
       </c>
       <c r="T495" t="n">
         <v>450</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N496" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O496" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P496" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T496" t="n">
         <v>450</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,13 +40124,13 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N497" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O497" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P497" t="n">
         <v>260000</v>
@@ -40142,7 +40142,7 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S497" t="n">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,7 +40204,7 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N498" t="n">
         <v>220000</v>
@@ -40222,13 +40222,253 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S498" t="n">
         <v>489</v>
       </c>
       <c r="T498" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>6</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E499" t="n">
+        <v>13</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I499" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M499" t="n">
+        <v>14</v>
+      </c>
+      <c r="N499" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O499" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P499" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S499" t="n">
+        <v>667</v>
+      </c>
+      <c r="T499" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>6</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D500" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E500" t="n">
+        <v>13</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I500" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M500" t="n">
+        <v>16</v>
+      </c>
+      <c r="N500" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O500" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P500" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S500" t="n">
+        <v>578</v>
+      </c>
+      <c r="T500" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>6</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D501" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E501" t="n">
+        <v>13</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I501" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M501" t="n">
+        <v>10</v>
+      </c>
+      <c r="N501" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O501" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P501" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q501" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R501" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S501" t="n">
+        <v>489</v>
+      </c>
+      <c r="T501" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T544"/>
+  <dimension ref="A1:T553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29422,7 +29422,7 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S363" t="n">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N364" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O364" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P364" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29560,36 +29560,36 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="N365" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="O365" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>511</v>
+        <v>1300</v>
       </c>
       <c r="T365" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N366" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O366" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P366" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29720,36 +29720,36 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
+        <v>200</v>
+      </c>
+      <c r="N367" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O367" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P367" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S367" t="n">
+        <v>800</v>
+      </c>
+      <c r="T367" t="n">
         <v>10</v>
-      </c>
-      <c r="N367" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O367" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P367" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q367" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R367" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S367" t="n">
-        <v>444</v>
-      </c>
-      <c r="T367" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,36 +29800,36 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
+        <v>190</v>
+      </c>
+      <c r="N368" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O368" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P368" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S368" t="n">
+        <v>800</v>
+      </c>
+      <c r="T368" t="n">
         <v>10</v>
-      </c>
-      <c r="N368" t="n">
-        <v>300000</v>
-      </c>
-      <c r="O368" t="n">
-        <v>300000</v>
-      </c>
-      <c r="P368" t="n">
-        <v>300000</v>
-      </c>
-      <c r="Q368" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R368" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S368" t="n">
-        <v>667</v>
-      </c>
-      <c r="T368" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N369" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O369" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P369" t="n">
-        <v>260000</v>
+        <v>285000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="T369" t="n">
         <v>450</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29964,32 +29964,32 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N370" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="O370" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="P370" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T370" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44335</v>
+        <v>44489</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N371" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O371" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P371" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="T371" t="n">
         <v>450</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30120,36 +30120,36 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
+        <v>150</v>
+      </c>
+      <c r="N372" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O372" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P372" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S372" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T372" t="n">
         <v>10</v>
-      </c>
-      <c r="N372" t="n">
-        <v>370000</v>
-      </c>
-      <c r="O372" t="n">
-        <v>370000</v>
-      </c>
-      <c r="P372" t="n">
-        <v>370000</v>
-      </c>
-      <c r="Q372" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R372" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S372" t="n">
-        <v>822</v>
-      </c>
-      <c r="T372" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,20 +30204,20 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="N373" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O373" t="n">
-        <v>290000</v>
+        <v>8000</v>
       </c>
       <c r="P373" t="n">
-        <v>285000</v>
+        <v>8000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>633</v>
+        <v>800</v>
       </c>
       <c r="T373" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
         <v>15</v>
       </c>
       <c r="N374" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O374" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P374" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="T374" t="n">
         <v>450</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44320</v>
+        <v>44358</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30360,24 +30360,24 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N375" t="n">
-        <v>340000</v>
+        <v>6000</v>
       </c>
       <c r="O375" t="n">
-        <v>340000</v>
+        <v>6000</v>
       </c>
       <c r="P375" t="n">
-        <v>340000</v>
+        <v>6000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="T375" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44320</v>
+        <v>44358</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N376" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="O376" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="P376" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>844</v>
+        <v>444</v>
       </c>
       <c r="T376" t="n">
         <v>450</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N377" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O377" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P377" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T377" t="n">
         <v>450</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N378" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O378" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P378" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T378" t="n">
         <v>450</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44258</v>
+        <v>44391</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N379" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="O379" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="P379" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>756</v>
+        <v>444</v>
       </c>
       <c r="T379" t="n">
         <v>450</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
         <v>12</v>
       </c>
       <c r="N380" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O380" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P380" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T380" t="n">
         <v>450</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="N381" t="n">
-        <v>12000</v>
+        <v>370000</v>
       </c>
       <c r="O381" t="n">
-        <v>12000</v>
+        <v>370000</v>
       </c>
       <c r="P381" t="n">
-        <v>12000</v>
+        <v>370000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1200</v>
+        <v>822</v>
       </c>
       <c r="T381" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N382" t="n">
-        <v>360000</v>
+        <v>280000</v>
       </c>
       <c r="O382" t="n">
-        <v>360000</v>
+        <v>290000</v>
       </c>
       <c r="P382" t="n">
-        <v>360000</v>
+        <v>285000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>800</v>
+        <v>633</v>
       </c>
       <c r="T382" t="n">
         <v>450</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="N383" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="O383" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="P383" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T383" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N384" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O384" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P384" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N385" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="O385" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="P385" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>800</v>
+        <v>844</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N386" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O386" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P386" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="T386" t="n">
         <v>450</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="N387" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O387" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P387" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1200</v>
+        <v>511</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N388" t="n">
-        <v>380000</v>
+        <v>340000</v>
       </c>
       <c r="O388" t="n">
-        <v>380000</v>
+        <v>340000</v>
       </c>
       <c r="P388" t="n">
-        <v>380000</v>
+        <v>340000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>844</v>
+        <v>756</v>
       </c>
       <c r="T388" t="n">
         <v>450</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N389" t="n">
-        <v>460000</v>
+        <v>280000</v>
       </c>
       <c r="O389" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P389" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1022</v>
+        <v>644</v>
       </c>
       <c r="T389" t="n">
         <v>450</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="N390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T390" t="n">
         <v>10</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N391" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="O391" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="P391" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="T391" t="n">
         <v>450</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="N392" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O392" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P392" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T392" t="n">
         <v>10</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44362</v>
+        <v>44475</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N393" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O393" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P393" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T393" t="n">
         <v>450</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44362</v>
+        <v>44475</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Hayward</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,32 +31884,32 @@
         </is>
       </c>
       <c r="M394" t="n">
+        <v>150</v>
+      </c>
+      <c r="N394" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O394" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P394" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S394" t="n">
+        <v>800</v>
+      </c>
+      <c r="T394" t="n">
         <v>10</v>
-      </c>
-      <c r="N394" t="n">
-        <v>140000</v>
-      </c>
-      <c r="O394" t="n">
-        <v>140000</v>
-      </c>
-      <c r="P394" t="n">
-        <v>140000</v>
-      </c>
-      <c r="Q394" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R394" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S394" t="n">
-        <v>311</v>
-      </c>
-      <c r="T394" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44362</v>
+        <v>44475</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N395" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O395" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="P395" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="T395" t="n">
         <v>450</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N396" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>511</v>
+        <v>1200</v>
       </c>
       <c r="T396" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N397" t="n">
-        <v>180000</v>
+        <v>380000</v>
       </c>
       <c r="O397" t="n">
-        <v>190000</v>
+        <v>380000</v>
       </c>
       <c r="P397" t="n">
-        <v>187143</v>
+        <v>380000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>416</v>
+        <v>844</v>
       </c>
       <c r="T397" t="n">
         <v>450</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N398" t="n">
-        <v>140000</v>
+        <v>460000</v>
       </c>
       <c r="O398" t="n">
-        <v>140000</v>
+        <v>460000</v>
       </c>
       <c r="P398" t="n">
-        <v>140000</v>
+        <v>460000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>311</v>
+        <v>1022</v>
       </c>
       <c r="T398" t="n">
         <v>450</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44300</v>
+        <v>44474</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,24 +32280,24 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="N399" t="n">
-        <v>330000</v>
+        <v>10000</v>
       </c>
       <c r="O399" t="n">
-        <v>330000</v>
+        <v>10000</v>
       </c>
       <c r="P399" t="n">
-        <v>330000</v>
+        <v>10000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T399" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44300</v>
+        <v>44474</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N400" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O400" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P400" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="T400" t="n">
         <v>450</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44300</v>
+        <v>44474</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32444,20 +32444,20 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="N401" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="O401" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="P401" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>489</v>
+        <v>800</v>
       </c>
       <c r="T401" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32515,25 +32515,25 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N402" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="O402" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P402" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>578</v>
+        <v>400</v>
       </c>
       <c r="T402" t="n">
         <v>450</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32595,25 +32595,25 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Hayward</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N403" t="n">
-        <v>240000</v>
+        <v>140000</v>
       </c>
       <c r="O403" t="n">
-        <v>240000</v>
+        <v>140000</v>
       </c>
       <c r="P403" t="n">
-        <v>240000</v>
+        <v>140000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>533</v>
+        <v>311</v>
       </c>
       <c r="T403" t="n">
         <v>450</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N404" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="O404" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="P404" t="n">
-        <v>235000</v>
+        <v>340000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>522</v>
+        <v>756</v>
       </c>
       <c r="T404" t="n">
         <v>450</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N405" t="n">
         <v>220000</v>
       </c>
       <c r="O405" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P405" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T405" t="n">
         <v>450</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N406" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O406" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P406" t="n">
-        <v>200000</v>
+        <v>187143</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="T406" t="n">
         <v>450</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N407" t="n">
-        <v>240000</v>
+        <v>140000</v>
       </c>
       <c r="O407" t="n">
-        <v>240000</v>
+        <v>140000</v>
       </c>
       <c r="P407" t="n">
-        <v>240000</v>
+        <v>140000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>533</v>
+        <v>311</v>
       </c>
       <c r="T407" t="n">
         <v>450</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44372</v>
+        <v>44300</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N408" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="O408" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P408" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>489</v>
+        <v>733</v>
       </c>
       <c r="T408" t="n">
         <v>450</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N409" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O409" t="n">
-        <v>350000</v>
+        <v>290000</v>
       </c>
       <c r="P409" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="T409" t="n">
         <v>450</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N410" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O410" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P410" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="T410" t="n">
         <v>450</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N411" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O411" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P411" t="n">
-        <v>212500</v>
+        <v>260000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>472</v>
+        <v>578</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44448</v>
+        <v>44349</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N412" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="O412" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P412" t="n">
-        <v>325000</v>
+        <v>240000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>722</v>
+        <v>533</v>
       </c>
       <c r="T412" t="n">
         <v>450</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44448</v>
+        <v>44349</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N413" t="n">
-        <v>420000</v>
+        <v>230000</v>
       </c>
       <c r="O413" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P413" t="n">
-        <v>420000</v>
+        <v>235000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>933</v>
+        <v>522</v>
       </c>
       <c r="T413" t="n">
         <v>450</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44448</v>
+        <v>44349</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N414" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O414" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P414" t="n">
-        <v>255000</v>
+        <v>220000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>567</v>
+        <v>489</v>
       </c>
       <c r="T414" t="n">
         <v>450</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44448</v>
+        <v>44349</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N415" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O415" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P415" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T415" t="n">
         <v>450</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,32 +33644,32 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N416" t="n">
-        <v>15000</v>
+        <v>240000</v>
       </c>
       <c r="O416" t="n">
-        <v>16000</v>
+        <v>240000</v>
       </c>
       <c r="P416" t="n">
-        <v>15500</v>
+        <v>240000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1550</v>
+        <v>533</v>
       </c>
       <c r="T416" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44385</v>
+        <v>44372</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N417" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O417" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P417" t="n">
-        <v>244545</v>
+        <v>220000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="T417" t="n">
         <v>450</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N418" t="n">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="O418" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P418" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T418" t="n">
         <v>450</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N419" t="n">
-        <v>120000</v>
+        <v>230000</v>
       </c>
       <c r="O419" t="n">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="P419" t="n">
-        <v>120000</v>
+        <v>235000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="T419" t="n">
         <v>450</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44452</v>
+        <v>44350</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N420" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O420" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P420" t="n">
-        <v>300000</v>
+        <v>212500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33982,11 +33982,11 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="T420" t="n">
         <v>450</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N421" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O421" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P421" t="n">
-        <v>200000</v>
+        <v>325000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34062,11 +34062,11 @@
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S421" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T421" t="n">
         <v>450</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N422" t="n">
-        <v>150000</v>
+        <v>420000</v>
       </c>
       <c r="O422" t="n">
-        <v>150000</v>
+        <v>420000</v>
       </c>
       <c r="P422" t="n">
-        <v>150000</v>
+        <v>420000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34142,11 +34142,11 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>333</v>
+        <v>933</v>
       </c>
       <c r="T422" t="n">
         <v>450</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N423" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O423" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P423" t="n">
-        <v>300000</v>
+        <v>255000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="T423" t="n">
         <v>450</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N424" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O424" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P424" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T424" t="n">
         <v>450</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44435</v>
+        <v>44243</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N425" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O425" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P425" t="n">
-        <v>8750</v>
+        <v>15500</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>875</v>
+        <v>1550</v>
       </c>
       <c r="T425" t="n">
         <v>10</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N426" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O426" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P426" t="n">
-        <v>297872</v>
+        <v>244545</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>662</v>
+        <v>543</v>
       </c>
       <c r="T426" t="n">
         <v>450</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N427" t="n">
-        <v>380000</v>
+        <v>180000</v>
       </c>
       <c r="O427" t="n">
-        <v>420000</v>
+        <v>220000</v>
       </c>
       <c r="P427" t="n">
-        <v>408810</v>
+        <v>200000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>908</v>
+        <v>444</v>
       </c>
       <c r="T427" t="n">
         <v>450</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,24 +34600,24 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="N428" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="O428" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="P428" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,10 +34626,10 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>700</v>
+        <v>267</v>
       </c>
       <c r="T428" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="429">
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="N429" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O429" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P429" t="n">
-        <v>249561</v>
+        <v>300000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>555</v>
+        <v>667</v>
       </c>
       <c r="T429" t="n">
         <v>450</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,32 +34764,32 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="N430" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="O430" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="P430" t="n">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T430" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N431" t="n">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="O431" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P431" t="n">
-        <v>215606</v>
+        <v>150000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>479</v>
+        <v>333</v>
       </c>
       <c r="T431" t="n">
         <v>450</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44377</v>
+        <v>44453</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="N432" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O432" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P432" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34942,11 +34942,11 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>489</v>
+        <v>667</v>
       </c>
       <c r="T432" t="n">
         <v>450</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44377</v>
+        <v>44453</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N433" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O433" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P433" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T433" t="n">
         <v>450</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,36 +35080,36 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="N434" t="n">
-        <v>130000</v>
+        <v>8500</v>
       </c>
       <c r="O434" t="n">
-        <v>130000</v>
+        <v>9000</v>
       </c>
       <c r="P434" t="n">
-        <v>130000</v>
+        <v>8750</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>289</v>
+        <v>875</v>
       </c>
       <c r="T434" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35164,7 +35164,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N435" t="n">
         <v>280000</v>
@@ -35173,7 +35173,7 @@
         <v>320000</v>
       </c>
       <c r="P435" t="n">
-        <v>295238</v>
+        <v>297872</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="T435" t="n">
         <v>450</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N436" t="n">
-        <v>400000</v>
+        <v>380000</v>
       </c>
       <c r="O436" t="n">
         <v>420000</v>
       </c>
       <c r="P436" t="n">
-        <v>410000</v>
+        <v>408810</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="T436" t="n">
         <v>450</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35324,20 +35324,20 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="N437" t="n">
-        <v>240000</v>
+        <v>7000</v>
       </c>
       <c r="O437" t="n">
-        <v>260000</v>
+        <v>7000</v>
       </c>
       <c r="P437" t="n">
-        <v>250250</v>
+        <v>7000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T437" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="N438" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="O438" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P438" t="n">
-        <v>214615</v>
+        <v>249561</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="T438" t="n">
         <v>450</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44307</v>
+        <v>44435</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="N439" t="n">
-        <v>330000</v>
+        <v>5000</v>
       </c>
       <c r="O439" t="n">
-        <v>330000</v>
+        <v>5000</v>
       </c>
       <c r="P439" t="n">
-        <v>330000</v>
+        <v>5000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T439" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44307</v>
+        <v>44435</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N440" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="O440" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P440" t="n">
-        <v>290000</v>
+        <v>215606</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>644</v>
+        <v>479</v>
       </c>
       <c r="T440" t="n">
         <v>450</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="N441" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O441" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P441" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35662,11 +35662,11 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T441" t="n">
         <v>450</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44334</v>
+        <v>44377</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N442" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="O442" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="P442" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="T442" t="n">
         <v>450</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44334</v>
+        <v>44377</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N443" t="n">
-        <v>280000</v>
+        <v>130000</v>
       </c>
       <c r="O443" t="n">
-        <v>280000</v>
+        <v>130000</v>
       </c>
       <c r="P443" t="n">
-        <v>280000</v>
+        <v>130000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>622</v>
+        <v>289</v>
       </c>
       <c r="T443" t="n">
         <v>450</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44334</v>
+        <v>44433</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N444" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O444" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P444" t="n">
-        <v>230000</v>
+        <v>295238</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>511</v>
+        <v>656</v>
       </c>
       <c r="T444" t="n">
         <v>450</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,24 +35960,24 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="N445" t="n">
-        <v>11000</v>
+        <v>400000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>420000</v>
       </c>
       <c r="P445" t="n">
-        <v>11346</v>
+        <v>410000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1135</v>
+        <v>911</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36044,20 +36044,20 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="N446" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="P446" t="n">
-        <v>9412</v>
+        <v>250250</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>941</v>
+        <v>556</v>
       </c>
       <c r="T446" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36124,20 +36124,20 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>320</v>
+        <v>26</v>
       </c>
       <c r="N447" t="n">
-        <v>7000</v>
+        <v>210000</v>
       </c>
       <c r="O447" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="P447" t="n">
-        <v>7375</v>
+        <v>214615</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>738</v>
+        <v>477</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N448" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O448" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P448" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36222,11 +36222,11 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T448" t="n">
         <v>450</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N449" t="n">
-        <v>360000</v>
+        <v>290000</v>
       </c>
       <c r="O449" t="n">
-        <v>370000</v>
+        <v>290000</v>
       </c>
       <c r="P449" t="n">
-        <v>366522</v>
+        <v>290000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>814</v>
+        <v>644</v>
       </c>
       <c r="T449" t="n">
         <v>450</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N450" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="O450" t="n">
-        <v>460000</v>
+        <v>250000</v>
       </c>
       <c r="P450" t="n">
-        <v>456667</v>
+        <v>250000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1015</v>
+        <v>556</v>
       </c>
       <c r="T450" t="n">
         <v>450</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44468</v>
+        <v>44334</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N451" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O451" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P451" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T451" t="n">
         <v>450</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44468</v>
+        <v>44334</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N452" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O452" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P452" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36542,11 +36542,11 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="T452" t="n">
         <v>450</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44468</v>
+        <v>44334</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N453" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O453" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P453" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T453" t="n">
         <v>450</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,36 +36680,36 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="N454" t="n">
-        <v>200000</v>
+        <v>11000</v>
       </c>
       <c r="O454" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>200000</v>
+        <v>11346</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>444</v>
+        <v>1135</v>
       </c>
       <c r="T454" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,20 +36764,20 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="N455" t="n">
-        <v>240000</v>
+        <v>9000</v>
       </c>
       <c r="O455" t="n">
-        <v>240000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>240000</v>
+        <v>9412</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,10 +36786,10 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>533</v>
+        <v>941</v>
       </c>
       <c r="T455" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36844,20 +36844,20 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="N456" t="n">
-        <v>210000</v>
+        <v>7000</v>
       </c>
       <c r="O456" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="P456" t="n">
-        <v>210000</v>
+        <v>7375</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>467</v>
+        <v>738</v>
       </c>
       <c r="T456" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N457" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O457" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="P457" t="n">
-        <v>255000</v>
+        <v>350000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36942,11 +36942,11 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>567</v>
+        <v>778</v>
       </c>
       <c r="T457" t="n">
         <v>450</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N458" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="O458" t="n">
-        <v>200000</v>
+        <v>370000</v>
       </c>
       <c r="P458" t="n">
-        <v>200000</v>
+        <v>366522</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>444</v>
+        <v>814</v>
       </c>
       <c r="T458" t="n">
         <v>450</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44263</v>
+        <v>44468</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,24 +37080,24 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N459" t="n">
-        <v>16000</v>
+        <v>450000</v>
       </c>
       <c r="O459" t="n">
-        <v>16000</v>
+        <v>460000</v>
       </c>
       <c r="P459" t="n">
-        <v>16000</v>
+        <v>456667</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37106,10 +37106,10 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1600</v>
+        <v>1015</v>
       </c>
       <c r="T459" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44263</v>
+        <v>44468</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N460" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O460" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P460" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T460" t="n">
         <v>450</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44263</v>
+        <v>44468</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,32 +37244,32 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="P461" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T461" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44263</v>
+        <v>44468</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37327,13 +37327,13 @@
         <v>15</v>
       </c>
       <c r="N462" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O462" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P462" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T462" t="n">
         <v>450</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N463" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O463" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P463" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37422,11 +37422,11 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T463" t="n">
         <v>450</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N464" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O464" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P464" t="n">
-        <v>225000</v>
+        <v>240000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="T464" t="n">
         <v>450</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N465" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="O465" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P465" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T465" t="n">
         <v>450</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N466" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="O466" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P466" t="n">
-        <v>340000</v>
+        <v>255000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>756</v>
+        <v>567</v>
       </c>
       <c r="T466" t="n">
         <v>450</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N467" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O467" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="P467" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T467" t="n">
         <v>450</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,20 +37804,20 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N468" t="n">
-        <v>320000</v>
+        <v>16000</v>
       </c>
       <c r="O468" t="n">
-        <v>320000</v>
+        <v>16000</v>
       </c>
       <c r="P468" t="n">
-        <v>320000</v>
+        <v>16000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
@@ -37826,10 +37826,10 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>711</v>
+        <v>1600</v>
       </c>
       <c r="T468" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N469" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O469" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P469" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T469" t="n">
         <v>450</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,36 +37960,36 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N470" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>622</v>
+        <v>1000</v>
       </c>
       <c r="T470" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N471" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="O471" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P471" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="T471" t="n">
         <v>450</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N472" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O472" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P472" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>578</v>
+        <v>711</v>
       </c>
       <c r="T472" t="n">
         <v>450</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38207,13 +38207,13 @@
         <v>24</v>
       </c>
       <c r="N473" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O473" t="n">
         <v>230000</v>
       </c>
-      <c r="O473" t="n">
-        <v>260000</v>
-      </c>
       <c r="P473" t="n">
-        <v>245000</v>
+        <v>225000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="T473" t="n">
         <v>450</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N474" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O474" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P474" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T474" t="n">
         <v>450</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N475" t="n">
-        <v>200000</v>
+        <v>340000</v>
       </c>
       <c r="O475" t="n">
-        <v>220000</v>
+        <v>340000</v>
       </c>
       <c r="P475" t="n">
-        <v>210000</v>
+        <v>340000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>467</v>
+        <v>756</v>
       </c>
       <c r="T475" t="n">
         <v>450</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N476" t="n">
-        <v>160000</v>
+        <v>400000</v>
       </c>
       <c r="O476" t="n">
-        <v>160000</v>
+        <v>400000</v>
       </c>
       <c r="P476" t="n">
-        <v>160000</v>
+        <v>400000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>356</v>
+        <v>889</v>
       </c>
       <c r="T476" t="n">
         <v>450</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N477" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O477" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P477" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="T477" t="n">
         <v>450</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N478" t="n">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="O478" t="n">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="P478" t="n">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>689</v>
+        <v>578</v>
       </c>
       <c r="T478" t="n">
         <v>450</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,11 +38680,11 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N479" t="n">
         <v>280000</v>
@@ -38702,7 +38702,7 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S479" t="n">
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N480" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="O480" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P480" t="n">
-        <v>225000</v>
+        <v>320000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>500</v>
+        <v>711</v>
       </c>
       <c r="T480" t="n">
         <v>450</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
         <v>12</v>
       </c>
       <c r="N481" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O481" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P481" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T481" t="n">
         <v>450</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N482" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O482" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P482" t="n">
-        <v>320000</v>
+        <v>245000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>711</v>
+        <v>544</v>
       </c>
       <c r="T482" t="n">
         <v>450</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N483" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O483" t="n">
         <v>240000</v>
       </c>
       <c r="P483" t="n">
-        <v>235000</v>
+        <v>240000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="T483" t="n">
         <v>450</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39090,10 +39090,10 @@
         <v>200000</v>
       </c>
       <c r="O484" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P484" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T484" t="n">
         <v>450</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44328</v>
+        <v>44369</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N485" t="n">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="O485" t="n">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="P485" t="n">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>711</v>
+        <v>356</v>
       </c>
       <c r="T485" t="n">
         <v>450</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44328</v>
+        <v>44172</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N486" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O486" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="P486" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>778</v>
+        <v>511</v>
       </c>
       <c r="T486" t="n">
         <v>450</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N487" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O487" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P487" t="n">
-        <v>275000</v>
+        <v>310000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="T487" t="n">
         <v>450</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N488" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O488" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P488" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T488" t="n">
         <v>450</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N489" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O489" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P489" t="n">
-        <v>319655</v>
+        <v>225000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>710</v>
+        <v>500</v>
       </c>
       <c r="T489" t="n">
         <v>450</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N490" t="n">
-        <v>350000</v>
+        <v>180000</v>
       </c>
       <c r="O490" t="n">
-        <v>370000</v>
+        <v>180000</v>
       </c>
       <c r="P490" t="n">
-        <v>362000</v>
+        <v>180000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>804</v>
+        <v>400</v>
       </c>
       <c r="T490" t="n">
         <v>450</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N491" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O491" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P491" t="n">
-        <v>256818</v>
+        <v>320000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>571</v>
+        <v>711</v>
       </c>
       <c r="T491" t="n">
         <v>450</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N492" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O492" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P492" t="n">
-        <v>210000</v>
+        <v>235000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="T492" t="n">
         <v>450</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N493" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O493" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P493" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>311</v>
+        <v>444</v>
       </c>
       <c r="T493" t="n">
         <v>450</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N494" t="n">
         <v>320000</v>
       </c>
       <c r="O494" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P494" t="n">
-        <v>325000</v>
+        <v>320000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="T494" t="n">
         <v>450</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39967,13 +39967,13 @@
         <v>8</v>
       </c>
       <c r="N495" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="O495" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="P495" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>844</v>
+        <v>778</v>
       </c>
       <c r="T495" t="n">
         <v>450</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,7 +40124,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N497" t="n">
         <v>230000</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N498" t="n">
         <v>300000</v>
       </c>
       <c r="O498" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P498" t="n">
-        <v>300000</v>
+        <v>319655</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="T498" t="n">
         <v>450</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40287,13 +40287,13 @@
         <v>20</v>
       </c>
       <c r="N499" t="n">
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="O499" t="n">
-        <v>430000</v>
+        <v>370000</v>
       </c>
       <c r="P499" t="n">
-        <v>415000</v>
+        <v>362000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>922</v>
+        <v>804</v>
       </c>
       <c r="T499" t="n">
         <v>450</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N500" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O500" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P500" t="n">
-        <v>245000</v>
+        <v>256818</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="T500" t="n">
         <v>450</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N501" t="n">
         <v>200000</v>
       </c>
       <c r="O501" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P501" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T501" t="n">
         <v>450</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44333</v>
+        <v>44321</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N502" t="n">
-        <v>300000</v>
+        <v>140000</v>
       </c>
       <c r="O502" t="n">
-        <v>320000</v>
+        <v>140000</v>
       </c>
       <c r="P502" t="n">
-        <v>310000</v>
+        <v>140000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>689</v>
+        <v>311</v>
       </c>
       <c r="T502" t="n">
         <v>450</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N503" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O503" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P503" t="n">
-        <v>350000</v>
+        <v>325000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T503" t="n">
         <v>450</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N504" t="n">
-        <v>350000</v>
+        <v>380000</v>
       </c>
       <c r="O504" t="n">
-        <v>360000</v>
+        <v>380000</v>
       </c>
       <c r="P504" t="n">
-        <v>355000</v>
+        <v>380000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>789</v>
+        <v>844</v>
       </c>
       <c r="T504" t="n">
         <v>450</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N505" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O505" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="P505" t="n">
-        <v>400000</v>
+        <v>275000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>889</v>
+        <v>611</v>
       </c>
       <c r="T505" t="n">
         <v>450</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N506" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O506" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P506" t="n">
-        <v>315000</v>
+        <v>230000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>700</v>
+        <v>511</v>
       </c>
       <c r="T506" t="n">
         <v>450</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N507" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O507" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P507" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T507" t="n">
         <v>450</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44425</v>
+        <v>44397</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N508" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="O508" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="P508" t="n">
-        <v>280000</v>
+        <v>415000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>622</v>
+        <v>922</v>
       </c>
       <c r="T508" t="n">
         <v>450</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44425</v>
+        <v>44397</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N509" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O509" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P509" t="n">
-        <v>220000</v>
+        <v>245000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="T509" t="n">
         <v>450</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44425</v>
+        <v>44397</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N510" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O510" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P510" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T510" t="n">
         <v>450</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44390</v>
+        <v>44333</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N511" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O511" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P511" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>578</v>
+        <v>689</v>
       </c>
       <c r="T511" t="n">
         <v>450</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44390</v>
+        <v>44333</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N512" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="O512" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="P512" t="n">
-        <v>380000</v>
+        <v>350000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>844</v>
+        <v>778</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44390</v>
+        <v>44314</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N513" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O513" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P513" t="n">
-        <v>240000</v>
+        <v>355000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>533</v>
+        <v>789</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44390</v>
+        <v>44314</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N514" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="O514" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="P514" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>489</v>
+        <v>889</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44466</v>
+        <v>44314</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N515" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="O515" t="n">
-        <v>360000</v>
+        <v>330000</v>
       </c>
       <c r="P515" t="n">
-        <v>360000</v>
+        <v>315000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44466</v>
+        <v>44314</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N516" t="n">
-        <v>430000</v>
+        <v>250000</v>
       </c>
       <c r="O516" t="n">
-        <v>430000</v>
+        <v>250000</v>
       </c>
       <c r="P516" t="n">
-        <v>430000</v>
+        <v>250000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>956</v>
+        <v>556</v>
       </c>
       <c r="T516" t="n">
         <v>450</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N517" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O517" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P517" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="T517" t="n">
         <v>450</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,7 +41804,7 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N518" t="n">
         <v>220000</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N519" t="n">
-        <v>280000</v>
+        <v>150000</v>
       </c>
       <c r="O519" t="n">
-        <v>280000</v>
+        <v>150000</v>
       </c>
       <c r="P519" t="n">
-        <v>280000</v>
+        <v>150000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>622</v>
+        <v>333</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N520" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O520" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P520" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N521" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O521" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="P521" t="n">
-        <v>255000</v>
+        <v>380000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>567</v>
+        <v>844</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,24 +42120,24 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N522" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="O522" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="P522" t="n">
-        <v>9500</v>
+        <v>240000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
@@ -42146,10 +42146,10 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>950</v>
+        <v>533</v>
       </c>
       <c r="T522" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="523">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N523" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O523" t="n">
-        <v>430000</v>
+        <v>220000</v>
       </c>
       <c r="P523" t="n">
-        <v>415000</v>
+        <v>220000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>922</v>
+        <v>489</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,24 +42280,24 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>470</v>
+        <v>15</v>
       </c>
       <c r="N524" t="n">
-        <v>7000</v>
+        <v>360000</v>
       </c>
       <c r="O524" t="n">
-        <v>8000</v>
+        <v>360000</v>
       </c>
       <c r="P524" t="n">
-        <v>7500</v>
+        <v>360000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
@@ -42306,10 +42306,10 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T524" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="525">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N525" t="n">
-        <v>250000</v>
+        <v>430000</v>
       </c>
       <c r="O525" t="n">
-        <v>260000</v>
+        <v>430000</v>
       </c>
       <c r="P525" t="n">
-        <v>255000</v>
+        <v>430000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>567</v>
+        <v>956</v>
       </c>
       <c r="T525" t="n">
         <v>450</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,24 +42440,24 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="N526" t="n">
-        <v>5000</v>
+        <v>260000</v>
       </c>
       <c r="O526" t="n">
-        <v>5000</v>
+        <v>260000</v>
       </c>
       <c r="P526" t="n">
-        <v>5000</v>
+        <v>260000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
@@ -42466,10 +42466,10 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="T526" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N527" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O527" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P527" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T527" t="n">
         <v>450</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N528" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="O528" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P528" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="T528" t="n">
         <v>450</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N529" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="O529" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="P529" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>956</v>
+        <v>733</v>
       </c>
       <c r="T529" t="n">
         <v>450</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N530" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O530" t="n">
         <v>260000</v>
       </c>
-      <c r="O530" t="n">
-        <v>270000</v>
-      </c>
       <c r="P530" t="n">
-        <v>265000</v>
+        <v>255000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="T530" t="n">
         <v>450</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,24 +42840,24 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="N531" t="n">
-        <v>220000</v>
+        <v>9000</v>
       </c>
       <c r="O531" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P531" t="n">
-        <v>220000</v>
+        <v>9500</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
@@ -42866,10 +42866,10 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>489</v>
+        <v>950</v>
       </c>
       <c r="T531" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M532" t="n">
         <v>16</v>
       </c>
       <c r="N532" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="O532" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="P532" t="n">
-        <v>260000</v>
+        <v>415000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>578</v>
+        <v>922</v>
       </c>
       <c r="T532" t="n">
         <v>450</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,20 +43004,20 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>30</v>
+        <v>470</v>
       </c>
       <c r="N533" t="n">
-        <v>240000</v>
+        <v>7000</v>
       </c>
       <c r="O533" t="n">
-        <v>240000</v>
+        <v>8000</v>
       </c>
       <c r="P533" t="n">
-        <v>240000</v>
+        <v>7500</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
@@ -43026,10 +43026,10 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>533</v>
+        <v>750</v>
       </c>
       <c r="T533" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N534" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O534" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P534" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T534" t="n">
         <v>450</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,24 +43160,24 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="N535" t="n">
-        <v>330000</v>
+        <v>5000</v>
       </c>
       <c r="O535" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="P535" t="n">
-        <v>346154</v>
+        <v>5000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
@@ -43186,10 +43186,10 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>769</v>
+        <v>500</v>
       </c>
       <c r="T535" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N536" t="n">
-        <v>420000</v>
+        <v>200000</v>
       </c>
       <c r="O536" t="n">
-        <v>420000</v>
+        <v>200000</v>
       </c>
       <c r="P536" t="n">
-        <v>420000</v>
+        <v>200000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>933</v>
+        <v>444</v>
       </c>
       <c r="T536" t="n">
         <v>450</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44312</v>
+        <v>44461</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N537" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="O537" t="n">
-        <v>390000</v>
+        <v>350000</v>
       </c>
       <c r="P537" t="n">
-        <v>319412</v>
+        <v>350000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>710</v>
+        <v>778</v>
       </c>
       <c r="T537" t="n">
         <v>450</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M538" t="n">
         <v>12</v>
       </c>
       <c r="N538" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="O538" t="n">
-        <v>310000</v>
+        <v>430000</v>
       </c>
       <c r="P538" t="n">
-        <v>305000</v>
+        <v>430000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43422,11 +43422,11 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>678</v>
+        <v>956</v>
       </c>
       <c r="T538" t="n">
         <v>450</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N539" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="O539" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P539" t="n">
-        <v>350000</v>
+        <v>265000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>778</v>
+        <v>589</v>
       </c>
       <c r="T539" t="n">
         <v>450</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N540" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O540" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P540" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T540" t="n">
         <v>450</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44326</v>
+        <v>44286</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N541" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O541" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P541" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N542" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O542" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P542" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T542" t="n">
         <v>450</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
         <v>16</v>
       </c>
       <c r="N543" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O543" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P543" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T543" t="n">
         <v>450</v>
@@ -43847,68 +43847,788 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E544" t="n">
+        <v>13</v>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G544" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I544" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M544" t="n">
+        <v>26</v>
+      </c>
+      <c r="N544" t="n">
+        <v>330000</v>
+      </c>
+      <c r="O544" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P544" t="n">
+        <v>346154</v>
+      </c>
+      <c r="Q544" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R544" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S544" t="n">
+        <v>769</v>
+      </c>
+      <c r="T544" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>6</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D545" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E545" t="n">
+        <v>13</v>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G545" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I545" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M545" t="n">
+        <v>30</v>
+      </c>
+      <c r="N545" t="n">
+        <v>420000</v>
+      </c>
+      <c r="O545" t="n">
+        <v>420000</v>
+      </c>
+      <c r="P545" t="n">
+        <v>420000</v>
+      </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S545" t="n">
+        <v>933</v>
+      </c>
+      <c r="T545" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>6</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D546" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E546" t="n">
+        <v>13</v>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G546" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I546" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M546" t="n">
+        <v>34</v>
+      </c>
+      <c r="N546" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O546" t="n">
+        <v>390000</v>
+      </c>
+      <c r="P546" t="n">
+        <v>319412</v>
+      </c>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S546" t="n">
+        <v>710</v>
+      </c>
+      <c r="T546" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>6</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E547" t="n">
+        <v>13</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G547" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I547" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M547" t="n">
+        <v>12</v>
+      </c>
+      <c r="N547" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O547" t="n">
+        <v>310000</v>
+      </c>
+      <c r="P547" t="n">
+        <v>305000</v>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S547" t="n">
+        <v>678</v>
+      </c>
+      <c r="T547" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>6</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D548" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E548" t="n">
+        <v>13</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G548" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I548" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M548" t="n">
+        <v>20</v>
+      </c>
+      <c r="N548" t="n">
+        <v>350000</v>
+      </c>
+      <c r="O548" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P548" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S548" t="n">
+        <v>778</v>
+      </c>
+      <c r="T548" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>6</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D549" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E549" t="n">
+        <v>13</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G549" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I549" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M549" t="n">
+        <v>30</v>
+      </c>
+      <c r="N549" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O549" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P549" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S549" t="n">
+        <v>578</v>
+      </c>
+      <c r="T549" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>6</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D550" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E550" t="n">
+        <v>13</v>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G550" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I550" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M550" t="n">
+        <v>25</v>
+      </c>
+      <c r="N550" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O550" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P550" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S550" t="n">
+        <v>489</v>
+      </c>
+      <c r="T550" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>6</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D551" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E544" t="n">
-        <v>13</v>
-      </c>
-      <c r="F544" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G544" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I544" t="n">
-        <v>100101007</v>
-      </c>
-      <c r="J544" t="inlineStr">
-        <is>
-          <t>Kiwi</t>
-        </is>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>Hayward</t>
-        </is>
-      </c>
-      <c r="L544" t="inlineStr">
+      <c r="E551" t="n">
+        <v>13</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G551" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I551" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M551" t="n">
+        <v>14</v>
+      </c>
+      <c r="N551" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O551" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P551" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S551" t="n">
+        <v>667</v>
+      </c>
+      <c r="T551" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>6</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D552" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E552" t="n">
+        <v>13</v>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G552" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I552" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M552" t="n">
+        <v>16</v>
+      </c>
+      <c r="N552" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O552" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P552" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R552" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S552" t="n">
+        <v>578</v>
+      </c>
+      <c r="T552" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>6</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D553" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E553" t="n">
+        <v>13</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G553" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I553" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M544" t="n">
+      <c r="M553" t="n">
         <v>10</v>
       </c>
-      <c r="N544" t="n">
+      <c r="N553" t="n">
         <v>220000</v>
       </c>
-      <c r="O544" t="n">
+      <c r="O553" t="n">
         <v>220000</v>
       </c>
-      <c r="P544" t="n">
+      <c r="P553" t="n">
         <v>220000</v>
       </c>
-      <c r="Q544" t="inlineStr">
+      <c r="Q553" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
         </is>
       </c>
-      <c r="R544" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S544" t="n">
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S553" t="n">
         <v>489</v>
       </c>
-      <c r="T544" t="n">
+      <c r="T553" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T558"/>
+  <dimension ref="A1:T568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,36 +39640,36 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N491" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>511</v>
+        <v>1000</v>
       </c>
       <c r="T491" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,20 +39724,20 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="N492" t="n">
-        <v>310000</v>
+        <v>11000</v>
       </c>
       <c r="O492" t="n">
-        <v>310000</v>
+        <v>11000</v>
       </c>
       <c r="P492" t="n">
-        <v>310000</v>
+        <v>11000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,10 +39746,10 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>689</v>
+        <v>1100</v>
       </c>
       <c r="T492" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,36 +39800,36 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N493" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>622</v>
+        <v>1200</v>
       </c>
       <c r="T493" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,24 +39880,24 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="N494" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="P494" t="n">
-        <v>225000</v>
+        <v>13000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
@@ -39906,10 +39906,10 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T494" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="495">
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N495" t="n">
-        <v>180000</v>
+        <v>430000</v>
       </c>
       <c r="O495" t="n">
-        <v>180000</v>
+        <v>430000</v>
       </c>
       <c r="P495" t="n">
-        <v>180000</v>
+        <v>430000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>400</v>
+        <v>956</v>
       </c>
       <c r="T495" t="n">
         <v>450</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,36 +40040,36 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="N496" t="n">
-        <v>320000</v>
+        <v>8000</v>
       </c>
       <c r="O496" t="n">
-        <v>320000</v>
+        <v>8000</v>
       </c>
       <c r="P496" t="n">
-        <v>320000</v>
+        <v>8000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="T496" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,20 +40124,20 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="N497" t="n">
-        <v>230000</v>
+        <v>9000</v>
       </c>
       <c r="O497" t="n">
-        <v>240000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>235000</v>
+        <v>9000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>522</v>
+        <v>900</v>
       </c>
       <c r="T497" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N498" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O498" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P498" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T498" t="n">
         <v>450</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44328</v>
+        <v>44491</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,36 +40280,36 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
+        <v>200</v>
+      </c>
+      <c r="N499" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O499" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P499" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S499" t="n">
+        <v>700</v>
+      </c>
+      <c r="T499" t="n">
         <v>10</v>
-      </c>
-      <c r="N499" t="n">
-        <v>320000</v>
-      </c>
-      <c r="O499" t="n">
-        <v>320000</v>
-      </c>
-      <c r="P499" t="n">
-        <v>320000</v>
-      </c>
-      <c r="Q499" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R499" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S499" t="n">
-        <v>711</v>
-      </c>
-      <c r="T499" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="500">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44328</v>
+        <v>44491</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N500" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="O500" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="P500" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>778</v>
+        <v>489</v>
       </c>
       <c r="T500" t="n">
         <v>450</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44328</v>
+        <v>44172</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N501" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O501" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P501" t="n">
-        <v>275000</v>
+        <v>230000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="T501" t="n">
         <v>450</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N502" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="O502" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="P502" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>511</v>
+        <v>689</v>
       </c>
       <c r="T502" t="n">
         <v>450</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N503" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O503" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P503" t="n">
-        <v>319655</v>
+        <v>280000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>710</v>
+        <v>622</v>
       </c>
       <c r="T503" t="n">
         <v>450</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N504" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="O504" t="n">
-        <v>370000</v>
+        <v>230000</v>
       </c>
       <c r="P504" t="n">
-        <v>362000</v>
+        <v>225000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>804</v>
+        <v>500</v>
       </c>
       <c r="T504" t="n">
         <v>450</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N505" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O505" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P505" t="n">
-        <v>256818</v>
+        <v>180000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>571</v>
+        <v>400</v>
       </c>
       <c r="T505" t="n">
         <v>450</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N506" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O506" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P506" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>467</v>
+        <v>711</v>
       </c>
       <c r="T506" t="n">
         <v>450</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N507" t="n">
-        <v>140000</v>
+        <v>230000</v>
       </c>
       <c r="O507" t="n">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="P507" t="n">
-        <v>140000</v>
+        <v>235000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>311</v>
+        <v>522</v>
       </c>
       <c r="T507" t="n">
         <v>450</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N508" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O508" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P508" t="n">
-        <v>325000</v>
+        <v>200000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T508" t="n">
         <v>450</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N509" t="n">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="O509" t="n">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="P509" t="n">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>844</v>
+        <v>711</v>
       </c>
       <c r="T509" t="n">
         <v>450</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N510" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O510" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P510" t="n">
-        <v>275000</v>
+        <v>350000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T510" t="n">
         <v>450</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N511" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O511" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P511" t="n">
-        <v>230000</v>
+        <v>275000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="T511" t="n">
         <v>450</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N512" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O512" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P512" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N513" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O513" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="P513" t="n">
-        <v>415000</v>
+        <v>319655</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>922</v>
+        <v>710</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N514" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O514" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="P514" t="n">
-        <v>245000</v>
+        <v>362000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>544</v>
+        <v>804</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N515" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O515" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P515" t="n">
-        <v>200000</v>
+        <v>256818</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44333</v>
+        <v>44321</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N516" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O516" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="P516" t="n">
-        <v>310000</v>
+        <v>210000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>689</v>
+        <v>467</v>
       </c>
       <c r="T516" t="n">
         <v>450</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44333</v>
+        <v>44321</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N517" t="n">
-        <v>350000</v>
+        <v>140000</v>
       </c>
       <c r="O517" t="n">
-        <v>350000</v>
+        <v>140000</v>
       </c>
       <c r="P517" t="n">
-        <v>350000</v>
+        <v>140000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>778</v>
+        <v>311</v>
       </c>
       <c r="T517" t="n">
         <v>450</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N518" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O518" t="n">
-        <v>360000</v>
+        <v>330000</v>
       </c>
       <c r="P518" t="n">
-        <v>355000</v>
+        <v>325000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>789</v>
+        <v>722</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N519" t="n">
-        <v>400000</v>
+        <v>380000</v>
       </c>
       <c r="O519" t="n">
-        <v>400000</v>
+        <v>380000</v>
       </c>
       <c r="P519" t="n">
-        <v>400000</v>
+        <v>380000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>889</v>
+        <v>844</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N520" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O520" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P520" t="n">
-        <v>315000</v>
+        <v>275000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44314</v>
+        <v>44298</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N521" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O521" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P521" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44425</v>
+        <v>44397</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N522" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O522" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P522" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T522" t="n">
         <v>450</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44425</v>
+        <v>44397</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N523" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="O523" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="P523" t="n">
-        <v>220000</v>
+        <v>415000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>489</v>
+        <v>922</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44425</v>
+        <v>44397</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N524" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O524" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="P524" t="n">
-        <v>150000</v>
+        <v>245000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>333</v>
+        <v>544</v>
       </c>
       <c r="T524" t="n">
         <v>450</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N525" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O525" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P525" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="T525" t="n">
         <v>450</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44390</v>
+        <v>44333</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N526" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="O526" t="n">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="P526" t="n">
-        <v>380000</v>
+        <v>310000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>844</v>
+        <v>689</v>
       </c>
       <c r="T526" t="n">
         <v>450</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44390</v>
+        <v>44333</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N527" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O527" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P527" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T527" t="n">
         <v>450</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44390</v>
+        <v>44314</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N528" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O528" t="n">
-        <v>220000</v>
+        <v>360000</v>
       </c>
       <c r="P528" t="n">
-        <v>220000</v>
+        <v>355000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>489</v>
+        <v>789</v>
       </c>
       <c r="T528" t="n">
         <v>450</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44466</v>
+        <v>44314</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N529" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="O529" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="P529" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T529" t="n">
         <v>450</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44466</v>
+        <v>44314</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N530" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="O530" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="P530" t="n">
-        <v>430000</v>
+        <v>315000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>956</v>
+        <v>700</v>
       </c>
       <c r="T530" t="n">
         <v>450</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44466</v>
+        <v>44314</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
         <v>20</v>
       </c>
       <c r="N531" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O531" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P531" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T531" t="n">
         <v>450</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N532" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O532" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P532" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="T532" t="n">
         <v>450</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N533" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="O533" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="P533" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>622</v>
+        <v>489</v>
       </c>
       <c r="T533" t="n">
         <v>450</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M534" t="n">
         <v>6</v>
       </c>
       <c r="N534" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="O534" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="P534" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>733</v>
+        <v>333</v>
       </c>
       <c r="T534" t="n">
         <v>450</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N535" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O535" t="n">
         <v>260000</v>
       </c>
       <c r="P535" t="n">
-        <v>255000</v>
+        <v>260000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="T535" t="n">
         <v>450</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,24 +43240,24 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N536" t="n">
-        <v>9000</v>
+        <v>380000</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>380000</v>
       </c>
       <c r="P536" t="n">
-        <v>9500</v>
+        <v>380000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
@@ -43266,10 +43266,10 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>950</v>
+        <v>844</v>
       </c>
       <c r="T536" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N537" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O537" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P537" t="n">
-        <v>415000</v>
+        <v>240000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>922</v>
+        <v>533</v>
       </c>
       <c r="T537" t="n">
         <v>450</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44438</v>
+        <v>44390</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,24 +43400,24 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>470</v>
+        <v>10</v>
       </c>
       <c r="N538" t="n">
-        <v>7000</v>
+        <v>220000</v>
       </c>
       <c r="O538" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="P538" t="n">
-        <v>7500</v>
+        <v>220000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
@@ -43426,10 +43426,10 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>750</v>
+        <v>489</v>
       </c>
       <c r="T538" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N539" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="O539" t="n">
-        <v>260000</v>
+        <v>360000</v>
       </c>
       <c r="P539" t="n">
-        <v>255000</v>
+        <v>360000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="T539" t="n">
         <v>450</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,24 +43560,24 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="N540" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="O540" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="P540" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R540" t="inlineStr">
@@ -43586,10 +43586,10 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>500</v>
+        <v>956</v>
       </c>
       <c r="T540" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="541">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
         <v>20</v>
       </c>
       <c r="N541" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O541" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P541" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44461</v>
+        <v>44466</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N542" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="O542" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="P542" t="n">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>778</v>
+        <v>489</v>
       </c>
       <c r="T542" t="n">
         <v>450</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M543" t="n">
         <v>12</v>
       </c>
       <c r="N543" t="n">
-        <v>430000</v>
+        <v>280000</v>
       </c>
       <c r="O543" t="n">
-        <v>430000</v>
+        <v>280000</v>
       </c>
       <c r="P543" t="n">
-        <v>430000</v>
+        <v>280000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>956</v>
+        <v>622</v>
       </c>
       <c r="T543" t="n">
         <v>450</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N544" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O544" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P544" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T544" t="n">
         <v>450</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N545" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O545" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P545" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T545" t="n">
         <v>450</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,24 +44040,24 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N546" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O546" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>260000</v>
+        <v>9500</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
@@ -44066,10 +44066,10 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>578</v>
+        <v>950</v>
       </c>
       <c r="T546" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="547">
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N547" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="O547" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="P547" t="n">
-        <v>240000</v>
+        <v>415000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>533</v>
+        <v>922</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,24 +44200,24 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>16</v>
+        <v>470</v>
       </c>
       <c r="N548" t="n">
-        <v>220000</v>
+        <v>7000</v>
       </c>
       <c r="O548" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="P548" t="n">
-        <v>220000</v>
+        <v>7500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
@@ -44226,10 +44226,10 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>489</v>
+        <v>750</v>
       </c>
       <c r="T548" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="549">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N549" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O549" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="P549" t="n">
-        <v>346154</v>
+        <v>255000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>769</v>
+        <v>567</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,24 +44360,24 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N550" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="O550" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="P550" t="n">
-        <v>420000</v>
+        <v>5000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
@@ -44386,10 +44386,10 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="T550" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N551" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O551" t="n">
-        <v>390000</v>
+        <v>200000</v>
       </c>
       <c r="P551" t="n">
-        <v>319412</v>
+        <v>200000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>710</v>
+        <v>444</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N552" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O552" t="n">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="P552" t="n">
-        <v>305000</v>
+        <v>350000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44542,11 +44542,11 @@
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>678</v>
+        <v>778</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N553" t="n">
-        <v>350000</v>
+        <v>430000</v>
       </c>
       <c r="O553" t="n">
-        <v>350000</v>
+        <v>430000</v>
       </c>
       <c r="P553" t="n">
-        <v>350000</v>
+        <v>430000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>778</v>
+        <v>956</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N554" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O554" t="n">
         <v>270000</v>
       </c>
       <c r="P554" t="n">
-        <v>260000</v>
+        <v>265000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44702,11 +44702,11 @@
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44326</v>
+        <v>44461</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,7 +44764,7 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N555" t="n">
         <v>220000</v>
@@ -44782,7 +44782,7 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S555" t="n">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44432</v>
+        <v>44286</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N556" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O556" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P556" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N557" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O557" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P557" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,7 +45004,7 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N558" t="n">
         <v>220000</v>
@@ -45029,6 +45029,806 @@
         <v>489</v>
       </c>
       <c r="T558" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>6</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D559" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E559" t="n">
+        <v>13</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G559" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I559" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M559" t="n">
+        <v>26</v>
+      </c>
+      <c r="N559" t="n">
+        <v>330000</v>
+      </c>
+      <c r="O559" t="n">
+        <v>360000</v>
+      </c>
+      <c r="P559" t="n">
+        <v>346154</v>
+      </c>
+      <c r="Q559" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R559" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S559" t="n">
+        <v>769</v>
+      </c>
+      <c r="T559" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>6</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D560" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E560" t="n">
+        <v>13</v>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G560" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I560" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M560" t="n">
+        <v>30</v>
+      </c>
+      <c r="N560" t="n">
+        <v>420000</v>
+      </c>
+      <c r="O560" t="n">
+        <v>420000</v>
+      </c>
+      <c r="P560" t="n">
+        <v>420000</v>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S560" t="n">
+        <v>933</v>
+      </c>
+      <c r="T560" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>6</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D561" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E561" t="n">
+        <v>13</v>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G561" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I561" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M561" t="n">
+        <v>34</v>
+      </c>
+      <c r="N561" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O561" t="n">
+        <v>390000</v>
+      </c>
+      <c r="P561" t="n">
+        <v>319412</v>
+      </c>
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S561" t="n">
+        <v>710</v>
+      </c>
+      <c r="T561" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>6</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D562" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E562" t="n">
+        <v>13</v>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G562" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I562" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M562" t="n">
+        <v>12</v>
+      </c>
+      <c r="N562" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O562" t="n">
+        <v>310000</v>
+      </c>
+      <c r="P562" t="n">
+        <v>305000</v>
+      </c>
+      <c r="Q562" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R562" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S562" t="n">
+        <v>678</v>
+      </c>
+      <c r="T562" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>6</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D563" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E563" t="n">
+        <v>13</v>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G563" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I563" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M563" t="n">
+        <v>20</v>
+      </c>
+      <c r="N563" t="n">
+        <v>350000</v>
+      </c>
+      <c r="O563" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P563" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q563" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S563" t="n">
+        <v>778</v>
+      </c>
+      <c r="T563" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>6</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D564" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E564" t="n">
+        <v>13</v>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G564" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I564" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M564" t="n">
+        <v>30</v>
+      </c>
+      <c r="N564" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O564" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P564" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R564" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S564" t="n">
+        <v>578</v>
+      </c>
+      <c r="T564" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>6</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D565" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E565" t="n">
+        <v>13</v>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G565" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I565" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M565" t="n">
+        <v>25</v>
+      </c>
+      <c r="N565" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O565" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P565" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R565" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S565" t="n">
+        <v>489</v>
+      </c>
+      <c r="T565" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>6</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D566" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E566" t="n">
+        <v>13</v>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G566" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I566" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M566" t="n">
+        <v>14</v>
+      </c>
+      <c r="N566" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O566" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P566" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S566" t="n">
+        <v>667</v>
+      </c>
+      <c r="T566" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>6</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D567" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E567" t="n">
+        <v>13</v>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G567" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I567" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M567" t="n">
+        <v>16</v>
+      </c>
+      <c r="N567" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O567" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P567" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S567" t="n">
+        <v>578</v>
+      </c>
+      <c r="T567" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>6</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D568" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E568" t="n">
+        <v>13</v>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G568" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I568" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M568" t="n">
+        <v>10</v>
+      </c>
+      <c r="N568" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O568" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P568" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q568" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R568" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S568" t="n">
+        <v>489</v>
+      </c>
+      <c r="T568" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T593"/>
+  <dimension ref="A1:T594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N486" t="n">
         <v>430000</v>
       </c>
       <c r="O486" t="n">
-        <v>430000</v>
+        <v>450000</v>
       </c>
       <c r="P486" t="n">
-        <v>430000</v>
+        <v>440000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>956</v>
+        <v>978</v>
       </c>
       <c r="T486" t="n">
         <v>450</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N487" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="O487" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="P487" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>822</v>
+        <v>956</v>
       </c>
       <c r="T487" t="n">
         <v>450</v>
@@ -39400,7 +39400,7 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
@@ -39422,7 +39422,7 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S488" t="n">
@@ -39487,13 +39487,13 @@
         <v>6</v>
       </c>
       <c r="N489" t="n">
-        <v>350000</v>
+        <v>370000</v>
       </c>
       <c r="O489" t="n">
-        <v>350000</v>
+        <v>370000</v>
       </c>
       <c r="P489" t="n">
-        <v>350000</v>
+        <v>370000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>778</v>
+        <v>822</v>
       </c>
       <c r="T489" t="n">
         <v>450</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N490" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O490" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P490" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T490" t="n">
         <v>450</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="N491" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O491" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P491" t="n">
-        <v>244000</v>
+        <v>300000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>542</v>
+        <v>667</v>
       </c>
       <c r="T491" t="n">
         <v>450</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N492" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O492" t="n">
         <v>260000</v>
       </c>
       <c r="P492" t="n">
-        <v>255000</v>
+        <v>244000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="T492" t="n">
         <v>450</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N493" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O493" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P493" t="n">
-        <v>200000</v>
+        <v>255000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>444</v>
+        <v>567</v>
       </c>
       <c r="T493" t="n">
         <v>450</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,24 +39880,24 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O494" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P494" t="n">
-        <v>10577</v>
+        <v>200000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
@@ -39906,10 +39906,10 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1058</v>
+        <v>444</v>
       </c>
       <c r="T494" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="495">
@@ -39964,20 +39964,20 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="N495" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="O495" t="n">
-        <v>370000</v>
+        <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>360000</v>
+        <v>10577</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>800</v>
+        <v>1058</v>
       </c>
       <c r="T495" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496">
@@ -40040,24 +40040,24 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N496" t="n">
-        <v>12000</v>
+        <v>350000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>370000</v>
       </c>
       <c r="P496" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T496" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="497">
@@ -40124,20 +40124,20 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N497" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="O497" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="P497" t="n">
-        <v>450000</v>
+        <v>12000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T497" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498">
@@ -40200,24 +40200,24 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>490</v>
+        <v>15</v>
       </c>
       <c r="N498" t="n">
-        <v>8000</v>
+        <v>450000</v>
       </c>
       <c r="O498" t="n">
-        <v>9500</v>
+        <v>450000</v>
       </c>
       <c r="P498" t="n">
-        <v>8867</v>
+        <v>450000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
@@ -40226,10 +40226,10 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>887</v>
+        <v>1000</v>
       </c>
       <c r="T498" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="499">
@@ -40284,20 +40284,20 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="N499" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O499" t="n">
-        <v>300000</v>
+        <v>9500</v>
       </c>
       <c r="P499" t="n">
-        <v>285000</v>
+        <v>8867</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
@@ -40306,10 +40306,10 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>633</v>
+        <v>887</v>
       </c>
       <c r="T499" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500">
@@ -40360,24 +40360,24 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="N500" t="n">
-        <v>6000</v>
+        <v>270000</v>
       </c>
       <c r="O500" t="n">
-        <v>7000</v>
+        <v>300000</v>
       </c>
       <c r="P500" t="n">
-        <v>6500</v>
+        <v>285000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
@@ -40386,10 +40386,10 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="T500" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="501">
@@ -40444,20 +40444,20 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="N501" t="n">
-        <v>220000</v>
+        <v>6000</v>
       </c>
       <c r="O501" t="n">
-        <v>220000</v>
+        <v>7000</v>
       </c>
       <c r="P501" t="n">
-        <v>220000</v>
+        <v>6500</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
@@ -40466,10 +40466,10 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>489</v>
+        <v>650</v>
       </c>
       <c r="T501" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N502" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="O502" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="P502" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>622</v>
+        <v>489</v>
       </c>
       <c r="T502" t="n">
         <v>450</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N503" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O503" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P503" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="T503" t="n">
         <v>450</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N504" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="O504" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P504" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="T504" t="n">
         <v>450</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N505" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="O505" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="P505" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>578</v>
+        <v>333</v>
       </c>
       <c r="T505" t="n">
         <v>450</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N506" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O506" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P506" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="T506" t="n">
         <v>450</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N507" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O507" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P507" t="n">
-        <v>235000</v>
+        <v>300000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>522</v>
+        <v>667</v>
       </c>
       <c r="T507" t="n">
         <v>450</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N508" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O508" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P508" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="T508" t="n">
         <v>450</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N509" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O509" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P509" t="n">
-        <v>265000</v>
+        <v>200000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>589</v>
+        <v>444</v>
       </c>
       <c r="T509" t="n">
         <v>450</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N510" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O510" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P510" t="n">
-        <v>220000</v>
+        <v>265000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="T510" t="n">
         <v>450</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N511" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O511" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P511" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="T511" t="n">
         <v>450</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N512" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O512" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P512" t="n">
-        <v>255000</v>
+        <v>330000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N513" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O513" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P513" t="n">
-        <v>210000</v>
+        <v>255000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>467</v>
+        <v>567</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N514" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O514" t="n">
         <v>220000</v>
       </c>
       <c r="P514" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N515" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O515" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P515" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,24 +41640,24 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="N516" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O516" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P516" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R516" t="inlineStr">
@@ -41666,10 +41666,10 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1200</v>
+        <v>578</v>
       </c>
       <c r="T516" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="517">
@@ -41724,20 +41724,20 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N517" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="O517" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="P517" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R517" t="inlineStr">
@@ -41746,10 +41746,10 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>844</v>
+        <v>1200</v>
       </c>
       <c r="T517" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="518">
@@ -41800,24 +41800,24 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N518" t="n">
-        <v>18000</v>
+        <v>380000</v>
       </c>
       <c r="O518" t="n">
-        <v>18000</v>
+        <v>380000</v>
       </c>
       <c r="P518" t="n">
-        <v>18000</v>
+        <v>380000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R518" t="inlineStr">
@@ -41826,10 +41826,10 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1800</v>
+        <v>844</v>
       </c>
       <c r="T518" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="519">
@@ -41884,20 +41884,20 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N519" t="n">
-        <v>460000</v>
+        <v>18000</v>
       </c>
       <c r="O519" t="n">
-        <v>460000</v>
+        <v>18000</v>
       </c>
       <c r="P519" t="n">
-        <v>460000</v>
+        <v>18000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R519" t="inlineStr">
@@ -41906,10 +41906,10 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1022</v>
+        <v>1800</v>
       </c>
       <c r="T519" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="520">
@@ -41960,24 +41960,24 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="P520" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
@@ -41986,10 +41986,10 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="T520" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="521">
@@ -42044,20 +42044,20 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N521" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O521" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P521" t="n">
-        <v>265000</v>
+        <v>10000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
@@ -42066,10 +42066,10 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>589</v>
+        <v>1000</v>
       </c>
       <c r="T521" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="522">
@@ -42120,24 +42120,24 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N522" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="O522" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="P522" t="n">
-        <v>8000</v>
+        <v>265000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
@@ -42146,10 +42146,10 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>800</v>
+        <v>589</v>
       </c>
       <c r="T522" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="523">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N523" t="n">
         <v>8000</v>
       </c>
       <c r="O523" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="T523" t="n">
         <v>10</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N524" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O524" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P524" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T524" t="n">
         <v>10</v>
@@ -42364,20 +42364,20 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N525" t="n">
-        <v>380000</v>
+        <v>9000</v>
       </c>
       <c r="O525" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="P525" t="n">
-        <v>380000</v>
+        <v>9500</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
@@ -42386,10 +42386,10 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>844</v>
+        <v>950</v>
       </c>
       <c r="T525" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="526">
@@ -42440,24 +42440,24 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="N526" t="n">
-        <v>6000</v>
+        <v>380000</v>
       </c>
       <c r="O526" t="n">
-        <v>7000</v>
+        <v>380000</v>
       </c>
       <c r="P526" t="n">
-        <v>6500</v>
+        <v>380000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
@@ -42466,10 +42466,10 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>650</v>
+        <v>844</v>
       </c>
       <c r="T526" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="527">
@@ -42524,20 +42524,20 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="N527" t="n">
-        <v>250000</v>
+        <v>6000</v>
       </c>
       <c r="O527" t="n">
-        <v>260000</v>
+        <v>7000</v>
       </c>
       <c r="P527" t="n">
-        <v>255000</v>
+        <v>6500</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,10 +42546,10 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>567</v>
+        <v>650</v>
       </c>
       <c r="T527" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="528">
@@ -42600,24 +42600,24 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="N528" t="n">
-        <v>4500</v>
+        <v>250000</v>
       </c>
       <c r="O528" t="n">
-        <v>4500</v>
+        <v>260000</v>
       </c>
       <c r="P528" t="n">
-        <v>4500</v>
+        <v>255000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
@@ -42626,10 +42626,10 @@
         </is>
       </c>
       <c r="S528" t="n">
+        <v>567</v>
+      </c>
+      <c r="T528" t="n">
         <v>450</v>
-      </c>
-      <c r="T528" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="529">
@@ -42684,20 +42684,20 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="N529" t="n">
-        <v>210000</v>
+        <v>4500</v>
       </c>
       <c r="O529" t="n">
-        <v>210000</v>
+        <v>4500</v>
       </c>
       <c r="P529" t="n">
-        <v>210000</v>
+        <v>4500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
@@ -42706,10 +42706,10 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="T529" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,36 +42760,36 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="N530" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O530" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="P530" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T530" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="531">
@@ -42844,32 +42844,32 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N531" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="O531" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="P531" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T531" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532">
@@ -42920,36 +42920,36 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="N532" t="n">
-        <v>12000</v>
+        <v>350000</v>
       </c>
       <c r="O532" t="n">
-        <v>12000</v>
+        <v>350000</v>
       </c>
       <c r="P532" t="n">
-        <v>12000</v>
+        <v>350000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T532" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="533">
@@ -43004,32 +43004,32 @@
         </is>
       </c>
       <c r="M533" t="n">
+        <v>95</v>
+      </c>
+      <c r="N533" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O533" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P533" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q533" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S533" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T533" t="n">
         <v>10</v>
-      </c>
-      <c r="N533" t="n">
-        <v>420000</v>
-      </c>
-      <c r="O533" t="n">
-        <v>420000</v>
-      </c>
-      <c r="P533" t="n">
-        <v>420000</v>
-      </c>
-      <c r="Q533" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R533" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S533" t="n">
-        <v>933</v>
-      </c>
-      <c r="T533" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="534">
@@ -43080,36 +43080,36 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="N534" t="n">
-        <v>8000</v>
+        <v>420000</v>
       </c>
       <c r="O534" t="n">
-        <v>8000</v>
+        <v>420000</v>
       </c>
       <c r="P534" t="n">
-        <v>8000</v>
+        <v>420000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T534" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="535">
@@ -43164,32 +43164,32 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="N535" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O535" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P535" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="T535" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,24 +43240,24 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N536" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P536" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
@@ -43266,10 +43266,10 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1000</v>
+        <v>622</v>
       </c>
       <c r="T536" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="537">
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N537" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O537" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P537" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T537" t="n">
         <v>10</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="N538" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O538" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P538" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T538" t="n">
         <v>10</v>
@@ -43484,20 +43484,20 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="N539" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O539" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
@@ -43506,10 +43506,10 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="T539" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540">
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N540" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O540" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P540" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T540" t="n">
         <v>450</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N541" t="n">
         <v>230000</v>
       </c>
       <c r="O541" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P541" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N542" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O542" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P542" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T542" t="n">
         <v>450</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N543" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O543" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P543" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T543" t="n">
         <v>450</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N544" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="O544" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="P544" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>844</v>
+        <v>667</v>
       </c>
       <c r="T544" t="n">
         <v>450</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N545" t="n">
-        <v>240000</v>
+        <v>380000</v>
       </c>
       <c r="O545" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="P545" t="n">
-        <v>250385</v>
+        <v>380000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>556</v>
+        <v>844</v>
       </c>
       <c r="T545" t="n">
         <v>450</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N546" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="O546" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P546" t="n">
-        <v>210000</v>
+        <v>250385</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T546" t="n">
         <v>450</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N547" t="n">
-        <v>320000</v>
+        <v>210000</v>
       </c>
       <c r="O547" t="n">
-        <v>320000</v>
+        <v>210000</v>
       </c>
       <c r="P547" t="n">
-        <v>320000</v>
+        <v>210000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>711</v>
+        <v>467</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N548" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O548" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="P548" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="T548" t="n">
         <v>450</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N549" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O549" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P549" t="n">
-        <v>275000</v>
+        <v>350000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N550" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O550" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P550" t="n">
-        <v>230000</v>
+        <v>275000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N551" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="O551" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P551" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>689</v>
+        <v>511</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N552" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="O552" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P552" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N553" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O553" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P553" t="n">
-        <v>225000</v>
+        <v>280000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N554" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O554" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P554" t="n">
-        <v>180000</v>
+        <v>225000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N555" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="O555" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P555" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N556" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O556" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P556" t="n">
-        <v>255000</v>
+        <v>300000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N557" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O557" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P557" t="n">
-        <v>280000</v>
+        <v>255000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N558" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O558" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P558" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T558" t="n">
         <v>450</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N559" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O559" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P559" t="n">
-        <v>255000</v>
+        <v>330000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N560" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="O560" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="P560" t="n">
-        <v>380000</v>
+        <v>255000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>844</v>
+        <v>567</v>
       </c>
       <c r="T560" t="n">
         <v>450</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N561" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O561" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="P561" t="n">
-        <v>255000</v>
+        <v>380000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>567</v>
+        <v>844</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N562" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O562" t="n">
         <v>260000</v>
       </c>
       <c r="P562" t="n">
-        <v>260000</v>
+        <v>255000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="T562" t="n">
         <v>450</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N563" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O563" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P563" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T563" t="n">
         <v>450</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N564" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="O564" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P564" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>644</v>
+        <v>489</v>
       </c>
       <c r="T564" t="n">
         <v>450</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N565" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="O565" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="P565" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>556</v>
+        <v>644</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N566" t="n">
         <v>250000</v>
       </c>
       <c r="O566" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P566" t="n">
-        <v>255000</v>
+        <v>250000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="T566" t="n">
         <v>450</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N567" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O567" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P567" t="n">
-        <v>200000</v>
+        <v>255000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>444</v>
+        <v>567</v>
       </c>
       <c r="T567" t="n">
         <v>450</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N568" t="n">
         <v>200000</v>
       </c>
       <c r="O568" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P568" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T568" t="n">
         <v>450</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,24 +45880,24 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="N569" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="O569" t="n">
-        <v>15000</v>
+        <v>220000</v>
       </c>
       <c r="P569" t="n">
-        <v>15000</v>
+        <v>210000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
@@ -45906,10 +45906,10 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1500</v>
+        <v>467</v>
       </c>
       <c r="T569" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="570">
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,24 +45960,24 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N570" t="n">
-        <v>330000</v>
+        <v>15000</v>
       </c>
       <c r="O570" t="n">
-        <v>330000</v>
+        <v>15000</v>
       </c>
       <c r="P570" t="n">
-        <v>330000</v>
+        <v>15000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
@@ -45986,10 +45986,10 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>733</v>
+        <v>1500</v>
       </c>
       <c r="T570" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="571">
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N571" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="O571" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P571" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N572" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="O572" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="P572" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>556</v>
+        <v>644</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N573" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O573" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P573" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T573" t="n">
         <v>450</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N574" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O574" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P574" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N575" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O575" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P575" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N576" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O576" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="P576" t="n">
-        <v>295238</v>
+        <v>240000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>656</v>
+        <v>533</v>
       </c>
       <c r="T576" t="n">
         <v>450</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N577" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="O577" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="P577" t="n">
-        <v>410000</v>
+        <v>295238</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>911</v>
+        <v>656</v>
       </c>
       <c r="T577" t="n">
         <v>450</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N578" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="O578" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="P578" t="n">
-        <v>250250</v>
+        <v>410000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>556</v>
+        <v>911</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N579" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="O579" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P579" t="n">
-        <v>214615</v>
+        <v>250250</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="T579" t="n">
         <v>450</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N580" t="n">
-        <v>330000</v>
+        <v>210000</v>
       </c>
       <c r="O580" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P580" t="n">
-        <v>330000</v>
+        <v>214615</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>733</v>
+        <v>477</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N581" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="O581" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="P581" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>889</v>
+        <v>733</v>
       </c>
       <c r="T581" t="n">
         <v>450</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N582" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O582" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="P582" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T582" t="n">
         <v>450</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
         <v>25</v>
       </c>
       <c r="N583" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O583" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P583" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="T583" t="n">
         <v>450</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,36 +47080,36 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N584" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O584" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P584" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="T584" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="585">
@@ -47167,13 +47167,13 @@
         <v>150</v>
       </c>
       <c r="N585" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O585" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P585" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T585" t="n">
         <v>10</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N586" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O586" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P586" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T586" t="n">
         <v>10</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="N587" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O587" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P587" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47342,11 +47342,11 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T587" t="n">
         <v>10</v>
@@ -47404,32 +47404,32 @@
         </is>
       </c>
       <c r="M588" t="n">
+        <v>135</v>
+      </c>
+      <c r="N588" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O588" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P588" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q588" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R588" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S588" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T588" t="n">
         <v>10</v>
-      </c>
-      <c r="N588" t="n">
-        <v>430000</v>
-      </c>
-      <c r="O588" t="n">
-        <v>430000</v>
-      </c>
-      <c r="P588" t="n">
-        <v>430000</v>
-      </c>
-      <c r="Q588" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R588" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S588" t="n">
-        <v>956</v>
-      </c>
-      <c r="T588" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="589">
@@ -47480,36 +47480,36 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="N589" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="O589" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="P589" t="n">
-        <v>8000</v>
+        <v>430000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>800</v>
+        <v>956</v>
       </c>
       <c r="T589" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="590">
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N590" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O590" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P590" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T590" t="n">
         <v>10</v>
@@ -47644,20 +47644,20 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="N591" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="O591" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="P591" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
@@ -47666,10 +47666,10 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T591" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592">
@@ -47720,24 +47720,24 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N592" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="O592" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="P592" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
@@ -47746,10 +47746,10 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T592" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="593">
@@ -47804,31 +47804,111 @@
         </is>
       </c>
       <c r="M593" t="n">
+        <v>200</v>
+      </c>
+      <c r="N593" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O593" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P593" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R593" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S593" t="n">
+        <v>700</v>
+      </c>
+      <c r="T593" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>6</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D594" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E594" t="n">
+        <v>13</v>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G594" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M594" t="n">
         <v>20</v>
       </c>
-      <c r="N593" t="n">
+      <c r="N594" t="n">
         <v>220000</v>
       </c>
-      <c r="O593" t="n">
+      <c r="O594" t="n">
         <v>220000</v>
       </c>
-      <c r="P593" t="n">
+      <c r="P594" t="n">
         <v>220000</v>
       </c>
-      <c r="Q593" t="inlineStr">
+      <c r="Q594" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
         </is>
       </c>
-      <c r="R593" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S593" t="n">
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S594" t="n">
         <v>489</v>
       </c>
-      <c r="T593" t="n">
+      <c r="T594" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T594"/>
+  <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,7 +39964,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N495" t="n">
         <v>10000</v>
@@ -39973,7 +39973,7 @@
         <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>10577</v>
+        <v>10500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="T495" t="n">
         <v>10</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,24 +40040,24 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="N496" t="n">
-        <v>350000</v>
+        <v>13000</v>
       </c>
       <c r="O496" t="n">
-        <v>370000</v>
+        <v>13000</v>
       </c>
       <c r="P496" t="n">
-        <v>360000</v>
+        <v>13000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T496" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,20 +40124,20 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N497" t="n">
-        <v>12000</v>
+        <v>430000</v>
       </c>
       <c r="O497" t="n">
-        <v>12000</v>
+        <v>430000</v>
       </c>
       <c r="P497" t="n">
-        <v>12000</v>
+        <v>430000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1200</v>
+        <v>956</v>
       </c>
       <c r="T497" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,24 +40200,24 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="N498" t="n">
-        <v>450000</v>
+        <v>8000</v>
       </c>
       <c r="O498" t="n">
-        <v>450000</v>
+        <v>9000</v>
       </c>
       <c r="P498" t="n">
-        <v>450000</v>
+        <v>8500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
@@ -40226,10 +40226,10 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T498" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="499">
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N499" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O499" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="P499" t="n">
-        <v>8867</v>
+        <v>5000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>887</v>
+        <v>500</v>
       </c>
       <c r="T499" t="n">
         <v>10</v>
@@ -40360,24 +40360,24 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="N500" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O500" t="n">
-        <v>300000</v>
+        <v>11000</v>
       </c>
       <c r="P500" t="n">
-        <v>285000</v>
+        <v>10577</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
@@ -40386,10 +40386,10 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>633</v>
+        <v>1058</v>
       </c>
       <c r="T500" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="501">
@@ -40440,24 +40440,24 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="N501" t="n">
-        <v>6000</v>
+        <v>350000</v>
       </c>
       <c r="O501" t="n">
-        <v>7000</v>
+        <v>370000</v>
       </c>
       <c r="P501" t="n">
-        <v>6500</v>
+        <v>360000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
@@ -40466,10 +40466,10 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T501" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="502">
@@ -40520,24 +40520,24 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="N502" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O502" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40546,10 +40546,10 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>489</v>
+        <v>1200</v>
       </c>
       <c r="T502" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="503">
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N503" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="O503" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="P503" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>622</v>
+        <v>1000</v>
       </c>
       <c r="T503" t="n">
         <v>450</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,24 +40680,24 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>8</v>
+        <v>490</v>
       </c>
       <c r="N504" t="n">
-        <v>220000</v>
+        <v>8000</v>
       </c>
       <c r="O504" t="n">
-        <v>220000</v>
+        <v>9500</v>
       </c>
       <c r="P504" t="n">
-        <v>220000</v>
+        <v>8867</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
@@ -40706,10 +40706,10 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>489</v>
+        <v>887</v>
       </c>
       <c r="T504" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N505" t="n">
-        <v>150000</v>
+        <v>270000</v>
       </c>
       <c r="O505" t="n">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="P505" t="n">
-        <v>150000</v>
+        <v>285000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>333</v>
+        <v>633</v>
       </c>
       <c r="T505" t="n">
         <v>450</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,24 +40840,24 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="N506" t="n">
-        <v>260000</v>
+        <v>6000</v>
       </c>
       <c r="O506" t="n">
-        <v>260000</v>
+        <v>7000</v>
       </c>
       <c r="P506" t="n">
-        <v>260000</v>
+        <v>6500</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R506" t="inlineStr">
@@ -40866,10 +40866,10 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="T506" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="507">
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N507" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="O507" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P507" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T507" t="n">
         <v>450</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N508" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O508" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P508" t="n">
-        <v>235000</v>
+        <v>280000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>522</v>
+        <v>622</v>
       </c>
       <c r="T508" t="n">
         <v>450</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N509" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O509" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P509" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T509" t="n">
         <v>450</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N510" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="O510" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="P510" t="n">
-        <v>265000</v>
+        <v>150000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>589</v>
+        <v>333</v>
       </c>
       <c r="T510" t="n">
         <v>450</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N511" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O511" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P511" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T511" t="n">
         <v>450</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N512" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="O512" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P512" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N513" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O513" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P513" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N514" t="n">
         <v>200000</v>
       </c>
       <c r="O514" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P514" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N515" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O515" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P515" t="n">
-        <v>220000</v>
+        <v>265000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44286</v>
+        <v>44370</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N516" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O516" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P516" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T516" t="n">
         <v>450</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44473</v>
+        <v>44449</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,20 +41724,20 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N517" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="O517" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="P517" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R517" t="inlineStr">
@@ -41746,10 +41746,10 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="T517" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="518">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44473</v>
+        <v>44449</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N518" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="O518" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="P518" t="n">
-        <v>380000</v>
+        <v>255000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>844</v>
+        <v>567</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44473</v>
+        <v>44449</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,24 +41880,24 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N519" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="O519" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="P519" t="n">
-        <v>18000</v>
+        <v>210000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R519" t="inlineStr">
@@ -41906,10 +41906,10 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1800</v>
+        <v>467</v>
       </c>
       <c r="T519" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="520">
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44473</v>
+        <v>44168</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N520" t="n">
-        <v>460000</v>
+        <v>220000</v>
       </c>
       <c r="O520" t="n">
-        <v>460000</v>
+        <v>220000</v>
       </c>
       <c r="P520" t="n">
-        <v>460000</v>
+        <v>220000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1022</v>
+        <v>489</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,20 +42044,20 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N521" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O521" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P521" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
@@ -42066,10 +42066,10 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1000</v>
+        <v>578</v>
       </c>
       <c r="T521" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="522">
@@ -42120,24 +42120,24 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="N522" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="O522" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P522" t="n">
-        <v>265000</v>
+        <v>12000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
@@ -42146,10 +42146,10 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>589</v>
+        <v>1200</v>
       </c>
       <c r="T522" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523">
@@ -42200,24 +42200,24 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N523" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="O523" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="P523" t="n">
-        <v>8000</v>
+        <v>380000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
@@ -42226,10 +42226,10 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>800</v>
+        <v>844</v>
       </c>
       <c r="T523" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="524">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N524" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O524" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="P524" t="n">
-        <v>8250</v>
+        <v>18000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>825</v>
+        <v>1800</v>
       </c>
       <c r="T524" t="n">
         <v>10</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,20 +42364,20 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N525" t="n">
-        <v>9000</v>
+        <v>460000</v>
       </c>
       <c r="O525" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="P525" t="n">
-        <v>9500</v>
+        <v>460000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
@@ -42386,10 +42386,10 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>950</v>
+        <v>1022</v>
       </c>
       <c r="T525" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,24 +42440,24 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N526" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="O526" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="P526" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
@@ -42466,10 +42466,10 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>844</v>
+        <v>1000</v>
       </c>
       <c r="T526" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,20 +42524,20 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="N527" t="n">
-        <v>6000</v>
+        <v>260000</v>
       </c>
       <c r="O527" t="n">
-        <v>7000</v>
+        <v>270000</v>
       </c>
       <c r="P527" t="n">
-        <v>6500</v>
+        <v>265000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,10 +42546,10 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="T527" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,24 +42600,24 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N528" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O528" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="P528" t="n">
-        <v>255000</v>
+        <v>8000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
@@ -42626,10 +42626,10 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="T528" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="529">
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="N529" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O529" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="P529" t="n">
-        <v>4500</v>
+        <v>8250</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>450</v>
+        <v>825</v>
       </c>
       <c r="T529" t="n">
         <v>10</v>
@@ -42760,24 +42760,24 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N530" t="n">
-        <v>210000</v>
+        <v>9000</v>
       </c>
       <c r="O530" t="n">
-        <v>210000</v>
+        <v>10000</v>
       </c>
       <c r="P530" t="n">
-        <v>210000</v>
+        <v>9500</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
@@ -42786,10 +42786,10 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>467</v>
+        <v>950</v>
       </c>
       <c r="T530" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531">
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,36 +42840,36 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="N531" t="n">
-        <v>10000</v>
+        <v>380000</v>
       </c>
       <c r="O531" t="n">
-        <v>10000</v>
+        <v>380000</v>
       </c>
       <c r="P531" t="n">
-        <v>10000</v>
+        <v>380000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1000</v>
+        <v>844</v>
       </c>
       <c r="T531" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,24 +42920,24 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="N532" t="n">
-        <v>350000</v>
+        <v>6000</v>
       </c>
       <c r="O532" t="n">
-        <v>350000</v>
+        <v>7000</v>
       </c>
       <c r="P532" t="n">
-        <v>350000</v>
+        <v>6500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
@@ -42946,10 +42946,10 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>778</v>
+        <v>650</v>
       </c>
       <c r="T532" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="533">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,36 +43000,36 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N533" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O533" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P533" t="n">
-        <v>12000</v>
+        <v>255000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1200</v>
+        <v>567</v>
       </c>
       <c r="T533" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,36 +43080,36 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
+        <v>175</v>
+      </c>
+      <c r="N534" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O534" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P534" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q534" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S534" t="n">
+        <v>450</v>
+      </c>
+      <c r="T534" t="n">
         <v>10</v>
-      </c>
-      <c r="N534" t="n">
-        <v>420000</v>
-      </c>
-      <c r="O534" t="n">
-        <v>420000</v>
-      </c>
-      <c r="P534" t="n">
-        <v>420000</v>
-      </c>
-      <c r="Q534" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R534" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S534" t="n">
-        <v>933</v>
-      </c>
-      <c r="T534" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="535">
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,36 +43160,36 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="N535" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="O535" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="P535" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T535" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="536">
@@ -43240,36 +43240,36 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N536" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O536" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P536" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>622</v>
+        <v>1000</v>
       </c>
       <c r="T536" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,20 +43324,20 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N537" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="P537" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R537" t="inlineStr">
@@ -43346,10 +43346,10 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T537" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="538">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,7 +43404,7 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N538" t="n">
         <v>12000</v>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S538" t="n">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,24 +43480,24 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N539" t="n">
-        <v>8000</v>
+        <v>420000</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>420000</v>
       </c>
       <c r="P539" t="n">
-        <v>8000</v>
+        <v>420000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
@@ -43506,10 +43506,10 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T539" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,32 +43564,32 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="N540" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O540" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P540" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="T540" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="541">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N541" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O541" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P541" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,24 +43720,24 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N542" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O542" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="P542" t="n">
-        <v>240000</v>
+        <v>10000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
@@ -43746,10 +43746,10 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T542" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,24 +43800,24 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="N543" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="O543" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P543" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
@@ -43826,10 +43826,10 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>444</v>
+        <v>1200</v>
       </c>
       <c r="T543" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,24 +43880,24 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N544" t="n">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="O544" t="n">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="P544" t="n">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
@@ -43906,10 +43906,10 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T544" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="545">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N545" t="n">
-        <v>380000</v>
+        <v>280000</v>
       </c>
       <c r="O545" t="n">
-        <v>380000</v>
+        <v>280000</v>
       </c>
       <c r="P545" t="n">
-        <v>380000</v>
+        <v>280000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>844</v>
+        <v>622</v>
       </c>
       <c r="T545" t="n">
         <v>450</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="N546" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O546" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P546" t="n">
-        <v>250385</v>
+        <v>230000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T546" t="n">
         <v>450</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N547" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="O547" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="P547" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N548" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O548" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P548" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T548" t="n">
         <v>450</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N549" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O549" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P549" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N550" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="O550" t="n">
-        <v>280000</v>
+        <v>380000</v>
       </c>
       <c r="P550" t="n">
-        <v>275000</v>
+        <v>380000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>611</v>
+        <v>844</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="N551" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O551" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P551" t="n">
-        <v>230000</v>
+        <v>250385</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N552" t="n">
-        <v>310000</v>
+        <v>210000</v>
       </c>
       <c r="O552" t="n">
-        <v>310000</v>
+        <v>210000</v>
       </c>
       <c r="P552" t="n">
-        <v>310000</v>
+        <v>210000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>689</v>
+        <v>467</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N553" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O553" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P553" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N554" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="O554" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="P554" t="n">
-        <v>225000</v>
+        <v>350000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N555" t="n">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="O555" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="P555" t="n">
-        <v>180000</v>
+        <v>275000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>400</v>
+        <v>611</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N556" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O556" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P556" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="N557" t="n">
-        <v>250000</v>
+        <v>310000</v>
       </c>
       <c r="O557" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P557" t="n">
-        <v>255000</v>
+        <v>310000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>567</v>
+        <v>689</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,11 +45000,11 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N558" t="n">
         <v>280000</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N559" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O559" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P559" t="n">
-        <v>330000</v>
+        <v>225000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N560" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O560" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P560" t="n">
-        <v>255000</v>
+        <v>180000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>567</v>
+        <v>400</v>
       </c>
       <c r="T560" t="n">
         <v>450</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N561" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="O561" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="P561" t="n">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>844</v>
+        <v>667</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,7 +45324,7 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N562" t="n">
         <v>250000</v>
@@ -45342,7 +45342,7 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S562" t="n">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N563" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O563" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P563" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="T563" t="n">
         <v>450</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N564" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="O564" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P564" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>489</v>
+        <v>733</v>
       </c>
       <c r="T564" t="n">
         <v>450</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44383</v>
+        <v>44270</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N565" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="O565" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P565" t="n">
-        <v>290000</v>
+        <v>255000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N566" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O566" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="P566" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>556</v>
+        <v>844</v>
       </c>
       <c r="T566" t="n">
         <v>450</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,7 +45724,7 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N567" t="n">
         <v>250000</v>
@@ -45742,7 +45742,7 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S567" t="n">
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N568" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O568" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P568" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T568" t="n">
         <v>450</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N569" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O569" t="n">
         <v>220000</v>
       </c>
       <c r="P569" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="T569" t="n">
         <v>450</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,24 +45960,24 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="N570" t="n">
-        <v>15000</v>
+        <v>290000</v>
       </c>
       <c r="O570" t="n">
-        <v>15000</v>
+        <v>290000</v>
       </c>
       <c r="P570" t="n">
-        <v>15000</v>
+        <v>290000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
@@ -45986,10 +45986,10 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1500</v>
+        <v>644</v>
       </c>
       <c r="T570" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="571">
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N571" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O571" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P571" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N572" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="O572" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P572" t="n">
-        <v>290000</v>
+        <v>255000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N573" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O573" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P573" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T573" t="n">
         <v>450</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N574" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O574" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P574" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,20 +46364,20 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="N575" t="n">
-        <v>270000</v>
+        <v>15000</v>
       </c>
       <c r="O575" t="n">
-        <v>270000</v>
+        <v>15000</v>
       </c>
       <c r="P575" t="n">
-        <v>270000</v>
+        <v>15000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R575" t="inlineStr">
@@ -46386,10 +46386,10 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="T575" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="576">
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N576" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O576" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P576" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T576" t="n">
         <v>450</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N577" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O577" t="n">
-        <v>320000</v>
+        <v>290000</v>
       </c>
       <c r="P577" t="n">
-        <v>295238</v>
+        <v>290000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="T577" t="n">
         <v>450</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N578" t="n">
-        <v>400000</v>
+        <v>250000</v>
       </c>
       <c r="O578" t="n">
-        <v>420000</v>
+        <v>250000</v>
       </c>
       <c r="P578" t="n">
-        <v>410000</v>
+        <v>250000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>911</v>
+        <v>556</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N579" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O579" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P579" t="n">
-        <v>250250</v>
+        <v>300000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T579" t="n">
         <v>450</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N580" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="O580" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P580" t="n">
-        <v>214615</v>
+        <v>270000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>477</v>
+        <v>600</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N581" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O581" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P581" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T581" t="n">
         <v>450</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N582" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="O582" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P582" t="n">
-        <v>400000</v>
+        <v>295238</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>889</v>
+        <v>656</v>
       </c>
       <c r="T582" t="n">
         <v>450</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N583" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O583" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="P583" t="n">
-        <v>270000</v>
+        <v>410000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>600</v>
+        <v>911</v>
       </c>
       <c r="T583" t="n">
         <v>450</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N584" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O584" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P584" t="n">
-        <v>230000</v>
+        <v>250250</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T584" t="n">
         <v>450</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,36 +47160,36 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="N585" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O585" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P585" t="n">
-        <v>10000</v>
+        <v>214615</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1000</v>
+        <v>477</v>
       </c>
       <c r="T585" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="586">
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,20 +47244,20 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N586" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="O586" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="P586" t="n">
-        <v>11000</v>
+        <v>330000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
@@ -47266,10 +47266,10 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="T586" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,32 +47324,32 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N587" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="O587" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="P587" t="n">
-        <v>12000</v>
+        <v>400000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T587" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="588">
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,24 +47400,24 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N588" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="O588" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="P588" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
@@ -47426,10 +47426,10 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T588" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="589">
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N589" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="O589" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="P589" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>956</v>
+        <v>511</v>
       </c>
       <c r="T589" t="n">
         <v>450</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N590" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O590" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P590" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T590" t="n">
         <v>10</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N591" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O591" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P591" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T591" t="n">
         <v>10</v>
@@ -47720,36 +47720,36 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N592" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O592" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P592" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T592" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="593">
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="N593" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O593" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P593" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="T593" t="n">
         <v>10</v>
@@ -47880,35 +47880,435 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M594" t="n">
+        <v>10</v>
+      </c>
+      <c r="N594" t="n">
+        <v>430000</v>
+      </c>
+      <c r="O594" t="n">
+        <v>430000</v>
+      </c>
+      <c r="P594" t="n">
+        <v>430000</v>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S594" t="n">
+        <v>956</v>
+      </c>
+      <c r="T594" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>6</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E595" t="n">
+        <v>13</v>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G595" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M595" t="n">
+        <v>280</v>
+      </c>
+      <c r="N595" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O595" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P595" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R595" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S595" t="n">
+        <v>800</v>
+      </c>
+      <c r="T595" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>6</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E596" t="n">
+        <v>13</v>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G596" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M596" t="n">
+        <v>220</v>
+      </c>
+      <c r="N596" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O596" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P596" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q596" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R596" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S596" t="n">
+        <v>900</v>
+      </c>
+      <c r="T596" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>6</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D597" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E597" t="n">
+        <v>13</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G597" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M597" t="n">
+        <v>15</v>
+      </c>
+      <c r="N597" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O597" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P597" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R597" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S597" t="n">
+        <v>600</v>
+      </c>
+      <c r="T597" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>6</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E598" t="n">
+        <v>13</v>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G598" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M594" t="n">
+      <c r="M598" t="n">
+        <v>200</v>
+      </c>
+      <c r="N598" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O598" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P598" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R598" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S598" t="n">
+        <v>700</v>
+      </c>
+      <c r="T598" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>6</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E599" t="n">
+        <v>13</v>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G599" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I599" t="n">
+        <v>100101007</v>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M599" t="n">
         <v>20</v>
       </c>
-      <c r="N594" t="n">
+      <c r="N599" t="n">
         <v>220000</v>
       </c>
-      <c r="O594" t="n">
+      <c r="O599" t="n">
         <v>220000</v>
       </c>
-      <c r="P594" t="n">
+      <c r="P599" t="n">
         <v>220000</v>
       </c>
-      <c r="Q594" t="inlineStr">
+      <c r="Q599" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
         </is>
       </c>
-      <c r="R594" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S594" t="n">
+      <c r="R599" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S599" t="n">
         <v>489</v>
       </c>
-      <c r="T594" t="n">
+      <c r="T599" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Kiwi.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T599"/>
+  <dimension ref="A1:T601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N466" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="O466" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="P466" t="n">
-        <v>310000</v>
+        <v>450000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>689</v>
+        <v>1000</v>
       </c>
       <c r="T466" t="n">
         <v>450</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N467" t="n">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="O467" t="n">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="P467" t="n">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T467" t="n">
         <v>450</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N468" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O468" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P468" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>489</v>
+        <v>689</v>
       </c>
       <c r="T468" t="n">
         <v>450</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N469" t="n">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="O469" t="n">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="P469" t="n">
-        <v>180000</v>
+        <v>350000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="T469" t="n">
         <v>450</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N470" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O470" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P470" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>622</v>
+        <v>489</v>
       </c>
       <c r="T470" t="n">
         <v>450</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N471" t="n">
-        <v>340000</v>
+        <v>180000</v>
       </c>
       <c r="O471" t="n">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="P471" t="n">
-        <v>350000</v>
+        <v>180000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="T471" t="n">
         <v>450</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N472" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O472" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P472" t="n">
-        <v>250800</v>
+        <v>280000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="T472" t="n">
         <v>450</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N473" t="n">
-        <v>180000</v>
+        <v>340000</v>
       </c>
       <c r="O473" t="n">
-        <v>220000</v>
+        <v>360000</v>
       </c>
       <c r="P473" t="n">
-        <v>206667</v>
+        <v>350000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>459</v>
+        <v>778</v>
       </c>
       <c r="T473" t="n">
         <v>450</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N474" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="O474" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P474" t="n">
-        <v>340000</v>
+        <v>250800</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>756</v>
+        <v>557</v>
       </c>
       <c r="T474" t="n">
         <v>450</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N475" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="O475" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="P475" t="n">
-        <v>400000</v>
+        <v>206667</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>889</v>
+        <v>459</v>
       </c>
       <c r="T475" t="n">
         <v>450</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N476" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="O476" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="P476" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="T476" t="n">
         <v>450</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N477" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="O477" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="P477" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>578</v>
+        <v>889</v>
       </c>
       <c r="T477" t="n">
         <v>450</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N478" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O478" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="P478" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="T478" t="n">
         <v>450</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N479" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="O479" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="P479" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1000</v>
+        <v>578</v>
       </c>
       <c r="T479" t="n">
         <v>450</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N480" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O480" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P480" t="n">
-        <v>280435</v>
+        <v>350000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>623</v>
+        <v>778</v>
       </c>
       <c r="T480" t="n">
         <v>450</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N481" t="n">
-        <v>240000</v>
+        <v>450000</v>
       </c>
       <c r="O481" t="n">
-        <v>240000</v>
+        <v>450000</v>
       </c>
       <c r="P481" t="n">
-        <v>240000</v>
+        <v>450000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T481" t="n">
         <v>450</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N482" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O482" t="n">
         <v>300000</v>
       </c>
       <c r="P482" t="n">
-        <v>300000</v>
+        <v>280435</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="T482" t="n">
         <v>450</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N483" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="O483" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="P483" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T483" t="n">
         <v>450</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N484" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O484" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P484" t="n">
-        <v>245000</v>
+        <v>300000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>544</v>
+        <v>667</v>
       </c>
       <c r="T484" t="n">
         <v>450</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N485" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="O485" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="P485" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="T485" t="n">
         <v>450</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N486" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="O486" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="P486" t="n">
-        <v>440000</v>
+        <v>245000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>978</v>
+        <v>544</v>
       </c>
       <c r="T486" t="n">
         <v>450</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N487" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="O487" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="P487" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>956</v>
+        <v>444</v>
       </c>
       <c r="T487" t="n">
         <v>450</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N488" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="O488" t="n">
-        <v>370000</v>
+        <v>450000</v>
       </c>
       <c r="P488" t="n">
-        <v>370000</v>
+        <v>440000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>822</v>
+        <v>978</v>
       </c>
       <c r="T488" t="n">
         <v>450</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N489" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="O489" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="P489" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>822</v>
+        <v>956</v>
       </c>
       <c r="T489" t="n">
         <v>450</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
         <v>6</v>
       </c>
       <c r="N490" t="n">
-        <v>350000</v>
+        <v>370000</v>
       </c>
       <c r="O490" t="n">
-        <v>350000</v>
+        <v>370000</v>
       </c>
       <c r="P490" t="n">
-        <v>350000</v>
+        <v>370000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>778</v>
+        <v>822</v>
       </c>
       <c r="T490" t="n">
         <v>450</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N491" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="O491" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P491" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>667</v>
+        <v>822</v>
       </c>
       <c r="T491" t="n">
         <v>450</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N492" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O492" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="P492" t="n">
-        <v>244000</v>
+        <v>350000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>542</v>
+        <v>778</v>
       </c>
       <c r="T492" t="n">
         <v>450</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N493" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O493" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P493" t="n">
-        <v>255000</v>
+        <v>300000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="T493" t="n">
         <v>450</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N494" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O494" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P494" t="n">
-        <v>200000</v>
+        <v>244000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>444</v>
+        <v>542</v>
       </c>
       <c r="T494" t="n">
         <v>450</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,24 +39960,24 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="N495" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O495" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="P495" t="n">
-        <v>10500</v>
+        <v>255000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1050</v>
+        <v>567</v>
       </c>
       <c r="T495" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,24 +40040,24 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="N496" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="O496" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="P496" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1300</v>
+        <v>444</v>
       </c>
       <c r="T496" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="497">
@@ -40120,24 +40120,24 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="N497" t="n">
-        <v>430000</v>
+        <v>10000</v>
       </c>
       <c r="O497" t="n">
-        <v>430000</v>
+        <v>11000</v>
       </c>
       <c r="P497" t="n">
-        <v>430000</v>
+        <v>10500</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>956</v>
+        <v>1050</v>
       </c>
       <c r="T497" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498">
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N498" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O498" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P498" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="T498" t="n">
         <v>10</v>
@@ -40280,24 +40280,24 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N499" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="O499" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="P499" t="n">
-        <v>5000</v>
+        <v>430000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
@@ -40306,10 +40306,10 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>500</v>
+        <v>956</v>
       </c>
       <c r="T499" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="500">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="N500" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O500" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P500" t="n">
-        <v>10577</v>
+        <v>8500</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1058</v>
+        <v>850</v>
       </c>
       <c r="T500" t="n">
         <v>10</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,24 +40440,24 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="N501" t="n">
-        <v>350000</v>
+        <v>5000</v>
       </c>
       <c r="O501" t="n">
-        <v>370000</v>
+        <v>5000</v>
       </c>
       <c r="P501" t="n">
-        <v>360000</v>
+        <v>5000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
@@ -40466,10 +40466,10 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T501" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502">
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="N502" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O502" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P502" t="n">
-        <v>12000</v>
+        <v>10577</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1200</v>
+        <v>1058</v>
       </c>
       <c r="T502" t="n">
         <v>10</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N503" t="n">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="O503" t="n">
-        <v>450000</v>
+        <v>370000</v>
       </c>
       <c r="P503" t="n">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T503" t="n">
         <v>450</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="N504" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O504" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P504" t="n">
-        <v>8867</v>
+        <v>12000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>887</v>
+        <v>1200</v>
       </c>
       <c r="T504" t="n">
         <v>10</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N505" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O505" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="P505" t="n">
-        <v>285000</v>
+        <v>450000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>633</v>
+        <v>1000</v>
       </c>
       <c r="T505" t="n">
         <v>450</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>240</v>
+        <v>490</v>
       </c>
       <c r="N506" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O506" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="P506" t="n">
-        <v>6500</v>
+        <v>8867</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>650</v>
+        <v>887</v>
       </c>
       <c r="T506" t="n">
         <v>10</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N507" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O507" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P507" t="n">
-        <v>220000</v>
+        <v>285000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>489</v>
+        <v>633</v>
       </c>
       <c r="T507" t="n">
         <v>450</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,24 +41000,24 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N508" t="n">
-        <v>280000</v>
+        <v>6000</v>
       </c>
       <c r="O508" t="n">
-        <v>280000</v>
+        <v>7000</v>
       </c>
       <c r="P508" t="n">
-        <v>280000</v>
+        <v>6500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
@@ -41026,10 +41026,10 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="T508" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,7 +41084,7 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N509" t="n">
         <v>220000</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N510" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="O510" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="P510" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>333</v>
+        <v>622</v>
       </c>
       <c r="T510" t="n">
         <v>450</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N511" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O511" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P511" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T511" t="n">
         <v>450</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N512" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="O512" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="P512" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N513" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O513" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P513" t="n">
-        <v>235000</v>
+        <v>260000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N514" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O514" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P514" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N515" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O515" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P515" t="n">
-        <v>265000</v>
+        <v>235000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>589</v>
+        <v>522</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N516" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O516" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P516" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T516" t="n">
         <v>450</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N517" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O517" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P517" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T517" t="n">
         <v>450</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N518" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O518" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P518" t="n">
-        <v>255000</v>
+        <v>220000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>567</v>
+        <v>489</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N519" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O519" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P519" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N520" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O520" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P520" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44286</v>
+        <v>44449</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N521" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O521" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P521" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>578</v>
+        <v>467</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44473</v>
+        <v>44168</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,24 +42120,24 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P522" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
@@ -42146,10 +42146,10 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1200</v>
+        <v>489</v>
       </c>
       <c r="T522" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="523">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N523" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="O523" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="P523" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>844</v>
+        <v>578</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N524" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O524" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="T524" t="n">
         <v>10</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M525" t="n">
         <v>12</v>
       </c>
       <c r="N525" t="n">
-        <v>460000</v>
+        <v>380000</v>
       </c>
       <c r="O525" t="n">
-        <v>460000</v>
+        <v>380000</v>
       </c>
       <c r="P525" t="n">
-        <v>460000</v>
+        <v>380000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1022</v>
+        <v>844</v>
       </c>
       <c r="T525" t="n">
         <v>450</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N526" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P526" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="T526" t="n">
         <v>10</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N527" t="n">
-        <v>260000</v>
+        <v>460000</v>
       </c>
       <c r="O527" t="n">
-        <v>270000</v>
+        <v>460000</v>
       </c>
       <c r="P527" t="n">
-        <v>265000</v>
+        <v>460000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>589</v>
+        <v>1022</v>
       </c>
       <c r="T527" t="n">
         <v>450</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
         <v>150</v>
       </c>
       <c r="N528" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O528" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P528" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T528" t="n">
         <v>10</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,24 +42680,24 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="N529" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="O529" t="n">
-        <v>8500</v>
+        <v>270000</v>
       </c>
       <c r="P529" t="n">
-        <v>8250</v>
+        <v>265000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
@@ -42706,10 +42706,10 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>825</v>
+        <v>589</v>
       </c>
       <c r="T529" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M530" t="n">
         <v>150</v>
       </c>
       <c r="N530" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O530" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P530" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T530" t="n">
         <v>10</v>
@@ -42840,24 +42840,24 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N531" t="n">
-        <v>380000</v>
+        <v>8000</v>
       </c>
       <c r="O531" t="n">
-        <v>380000</v>
+        <v>8500</v>
       </c>
       <c r="P531" t="n">
-        <v>380000</v>
+        <v>8250</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
@@ -42866,10 +42866,10 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="T531" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532">
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N532" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="T532" t="n">
         <v>10</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N533" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O533" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="P533" t="n">
-        <v>255000</v>
+        <v>380000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>567</v>
+        <v>844</v>
       </c>
       <c r="T533" t="n">
         <v>450</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="N534" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O534" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P534" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T534" t="n">
         <v>10</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N535" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="O535" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P535" t="n">
-        <v>210000</v>
+        <v>255000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>467</v>
+        <v>567</v>
       </c>
       <c r="T535" t="n">
         <v>450</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="N536" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P536" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="T536" t="n">
         <v>10</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
         <v>15</v>
       </c>
       <c r="N537" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="O537" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="P537" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="T537" t="n">
         <v>450</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="N538" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O538" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T538" t="n">
         <v>10</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N539" t="n">
-        <v>420000</v>
+        <v>350000</v>
       </c>
       <c r="O539" t="n">
-        <v>420000</v>
+        <v>350000</v>
       </c>
       <c r="P539" t="n">
-        <v>420000</v>
+        <v>350000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="T539" t="n">
         <v>450</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="N540" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O540" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P540" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T540" t="n">
         <v>10</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N541" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="O541" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P541" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>622</v>
+        <v>933</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N542" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O542" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P542" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43742,11 +43742,11 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T542" t="n">
         <v>10</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,24 +43800,24 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="N543" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="O543" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="P543" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
@@ -43826,10 +43826,10 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1200</v>
+        <v>622</v>
       </c>
       <c r="T543" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
     </row>
     <row r="544">
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N544" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T544" t="n">
         <v>10</v>
@@ -43960,24 +43960,24 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="N545" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="O545" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="P545" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
@@ -43986,10 +43986,10 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>622</v>
+        <v>1200</v>
       </c>
       <c r="T545" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="546">
@@ -44040,36 +44040,36 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
+        <v>140</v>
+      </c>
+      <c r="N546" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O546" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P546" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S546" t="n">
+        <v>800</v>
+      </c>
+      <c r="T546" t="n">
         <v>10</v>
-      </c>
-      <c r="N546" t="n">
-        <v>230000</v>
-      </c>
-      <c r="O546" t="n">
-        <v>230000</v>
-      </c>
-      <c r="P546" t="n">
-        <v>230000</v>
-      </c>
-      <c r="Q546" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R546" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S546" t="n">
-        <v>511</v>
-      </c>
-      <c r="T546" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="547">
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N547" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O547" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P547" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N548" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O548" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P548" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T548" t="n">
         <v>450</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
         <v>20</v>
       </c>
       <c r="N549" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O549" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P549" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N550" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="O550" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="P550" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>844</v>
+        <v>444</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N551" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O551" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P551" t="n">
-        <v>250385</v>
+        <v>300000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N552" t="n">
-        <v>210000</v>
+        <v>380000</v>
       </c>
       <c r="O552" t="n">
-        <v>210000</v>
+        <v>380000</v>
       </c>
       <c r="P552" t="n">
-        <v>210000</v>
+        <v>380000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>467</v>
+        <v>844</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="N553" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="O553" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P553" t="n">
-        <v>320000</v>
+        <v>250385</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>711</v>
+        <v>556</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N554" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="O554" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="P554" t="n">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>778</v>
+        <v>467</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N555" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O555" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P555" t="n">
-        <v>275000</v>
+        <v>320000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N556" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="O556" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="P556" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N557" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="O557" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P557" t="n">
-        <v>310000</v>
+        <v>275000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N558" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O558" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P558" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T558" t="n">
         <v>450</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N559" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="O559" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="P559" t="n">
-        <v>225000</v>
+        <v>310000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>500</v>
+        <v>689</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N560" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="O560" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="P560" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>400</v>
+        <v>622</v>
       </c>
       <c r="T560" t="n">
         <v>450</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N561" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O561" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P561" t="n">
-        <v>300000</v>
+        <v>225000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N562" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O562" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P562" t="n">
-        <v>255000</v>
+        <v>180000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>567</v>
+        <v>400</v>
       </c>
       <c r="T562" t="n">
         <v>450</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N563" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O563" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P563" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T563" t="n">
         <v>450</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N564" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O564" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P564" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T564" t="n">
         <v>450</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N565" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O565" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P565" t="n">
-        <v>255000</v>
+        <v>280000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N566" t="n">
-        <v>380000</v>
+        <v>330000</v>
       </c>
       <c r="O566" t="n">
-        <v>380000</v>
+        <v>330000</v>
       </c>
       <c r="P566" t="n">
-        <v>380000</v>
+        <v>330000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>844</v>
+        <v>733</v>
       </c>
       <c r="T566" t="n">
         <v>450</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45742,7 +45742,7 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S567" t="n">
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N568" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="O568" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="P568" t="n">
-        <v>260000</v>
+        <v>380000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>578</v>
+        <v>844</v>
       </c>
       <c r="T568" t="n">
         <v>450</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N569" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O569" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P569" t="n">
-        <v>220000</v>
+        <v>255000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="T569" t="n">
         <v>450</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N570" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="O570" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P570" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="T570" t="n">
         <v>450</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N571" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O571" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P571" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N572" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="O572" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P572" t="n">
-        <v>255000</v>
+        <v>290000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46